--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO25"/>
+  <dimension ref="A1:AO28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Japanese J League 3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>02:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Penybont FC</t>
+          <t>Nagano Parceiro</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Bala Town</t>
+          <t>Tegevajaro Miyazaki</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.35</v>
+        <v>1.02</v>
       </c>
       <c r="G2" t="n">
-        <v>1.42</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>3.35</v>
+        <v>1.02</v>
       </c>
       <c r="I2" t="n">
         <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="K2" t="n">
         <v>1000</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="Q2" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.01</v>
       </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Japanese J League 3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>02:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Haverfordwest County</t>
+          <t>Kochi Univ</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Vanraure Hachinohe</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.46</v>
+        <v>1.02</v>
       </c>
       <c r="G3" t="n">
         <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>2.08</v>
+        <v>1.02</v>
       </c>
       <c r="I3" t="n">
         <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="K3" t="n">
         <v>1000</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="Q3" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.01</v>
       </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Japanese J League 3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>02:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CD Castellon</t>
+          <t>FC Gifu</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sociedad B</t>
+          <t>Tochigi Uva FC</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.49</v>
+        <v>1.02</v>
       </c>
       <c r="G4" t="n">
-        <v>1.51</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>7.6</v>
+        <v>1.02</v>
       </c>
       <c r="I4" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>4.6</v>
+        <v>1.02</v>
       </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>2.24</v>
+        <v>1.26</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.69</v>
+        <v>1.3</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,36 +1058,36 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Penybont FC</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Andorra CF</t>
+          <t>Bala Town</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.1</v>
+        <v>1.38</v>
       </c>
       <c r="G5" t="n">
-        <v>2.24</v>
+        <v>1.47</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>11.5</v>
       </c>
       <c r="J5" t="n">
-        <v>3.45</v>
+        <v>4.2</v>
       </c>
       <c r="K5" t="n">
-        <v>3.85</v>
+        <v>5.4</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.1</v>
+        <v>1.96</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,36 +1193,36 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:03:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Haverfordwest County</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.02</v>
+        <v>2.46</v>
       </c>
       <c r="G6" t="n">
-        <v>2.12</v>
+        <v>3.1</v>
       </c>
       <c r="H6" t="n">
-        <v>3.55</v>
+        <v>2.48</v>
       </c>
       <c r="I6" t="n">
-        <v>4.1</v>
+        <v>3.15</v>
       </c>
       <c r="J6" t="n">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="K6" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.34</v>
+        <v>1.84</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.6</v>
+        <v>1.78</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,36 +1328,36 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:03:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Forest Green</t>
+          <t>CD Castellon</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Sociedad B</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.37</v>
+        <v>1.49</v>
       </c>
       <c r="G7" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="H7" t="n">
-        <v>1.09</v>
+        <v>7.6</v>
       </c>
       <c r="I7" t="n">
-        <v>13</v>
+        <v>8.6</v>
       </c>
       <c r="J7" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="K7" t="n">
-        <v>7.6</v>
+        <v>5</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.72</v>
+        <v>2.24</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.45</v>
+        <v>1.69</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,36 +1463,36 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12:03:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Andorra CF</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.05</v>
+        <v>2.1</v>
       </c>
       <c r="G8" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="H8" t="n">
         <v>3.55</v>
       </c>
-      <c r="H8" t="n">
-        <v>2.2</v>
-      </c>
       <c r="I8" t="n">
-        <v>2.5</v>
+        <v>3.95</v>
       </c>
       <c r="J8" t="n">
         <v>3.45</v>
       </c>
       <c r="K8" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="Q8" t="n">
         <v>1.78</v>
@@ -1603,31 +1603,31 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Boston Utd</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="G9" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I9" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="J9" t="n">
-        <v>3.15</v>
+        <v>3.9</v>
       </c>
       <c r="K9" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.76</v>
+        <v>2.36</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.04</v>
+        <v>1.59</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1738,31 +1738,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Forest Green</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Brackley Town</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.38</v>
+        <v>1.38</v>
       </c>
       <c r="G10" t="n">
-        <v>2.7</v>
+        <v>1.47</v>
       </c>
       <c r="H10" t="n">
-        <v>2.86</v>
+        <v>4.7</v>
       </c>
       <c r="I10" t="n">
-        <v>3.35</v>
+        <v>1000</v>
       </c>
       <c r="J10" t="n">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
       <c r="K10" t="n">
-        <v>3.9</v>
+        <v>7.2</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.91</v>
+        <v>2.74</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.76</v>
+        <v>1.41</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1873,31 +1873,31 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sutton Utd</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FC Halifax Town</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.66</v>
+        <v>3.05</v>
       </c>
       <c r="G11" t="n">
-        <v>3.05</v>
+        <v>3.55</v>
       </c>
       <c r="H11" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I11" t="n">
         <v>2.5</v>
       </c>
-      <c r="I11" t="n">
-        <v>2.86</v>
-      </c>
       <c r="J11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K11" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2008,31 +2008,31 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Boston Utd</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.24</v>
+        <v>2.06</v>
       </c>
       <c r="G12" t="n">
-        <v>1.31</v>
+        <v>2.2</v>
       </c>
       <c r="H12" t="n">
-        <v>1.09</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>13</v>
+        <v>4.7</v>
       </c>
       <c r="J12" t="n">
-        <v>6.2</v>
+        <v>3.15</v>
       </c>
       <c r="K12" t="n">
-        <v>950</v>
+        <v>4.3</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>3.65</v>
+        <v>1.76</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.25</v>
+        <v>2.04</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2143,31 +2143,31 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Sutton Utd</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Tamworth FC</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.51</v>
+        <v>2.66</v>
       </c>
       <c r="G13" t="n">
-        <v>1.63</v>
+        <v>3.05</v>
       </c>
       <c r="H13" t="n">
-        <v>5.3</v>
+        <v>2.52</v>
       </c>
       <c r="I13" t="n">
-        <v>9.4</v>
+        <v>2.86</v>
       </c>
       <c r="J13" t="n">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="K13" t="n">
-        <v>5.1</v>
+        <v>3.95</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.16</v>
+        <v>1.98</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.69</v>
+        <v>1.82</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2278,31 +2278,31 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Brackley Town</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4.8</v>
+        <v>2.38</v>
       </c>
       <c r="G14" t="n">
-        <v>5.8</v>
+        <v>2.7</v>
       </c>
       <c r="H14" t="n">
-        <v>1.72</v>
+        <v>2.88</v>
       </c>
       <c r="I14" t="n">
-        <v>1.88</v>
+        <v>3.35</v>
       </c>
       <c r="J14" t="n">
-        <v>3.65</v>
+        <v>3.05</v>
       </c>
       <c r="K14" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2413,31 +2413,31 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Braintree</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.28</v>
+        <v>1.25</v>
       </c>
       <c r="G15" t="n">
-        <v>2.6</v>
+        <v>1.31</v>
       </c>
       <c r="H15" t="n">
-        <v>2.86</v>
+        <v>1.09</v>
       </c>
       <c r="I15" t="n">
-        <v>3.35</v>
+        <v>13</v>
       </c>
       <c r="J15" t="n">
-        <v>3.35</v>
+        <v>6.2</v>
       </c>
       <c r="K15" t="n">
-        <v>4.6</v>
+        <v>11</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.08</v>
+        <v>3.65</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.73</v>
+        <v>1.26</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2548,31 +2548,31 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Tamworth FC</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="G16" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="H16" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="I16" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J16" t="n">
         <v>4.3</v>
       </c>
       <c r="K16" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2683,31 +2683,31 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.34</v>
+        <v>4.8</v>
       </c>
       <c r="G17" t="n">
-        <v>1.35</v>
+        <v>5.8</v>
       </c>
       <c r="H17" t="n">
-        <v>8.199999999999999</v>
+        <v>1.72</v>
       </c>
       <c r="I17" t="n">
-        <v>9.199999999999999</v>
+        <v>1.88</v>
       </c>
       <c r="J17" t="n">
-        <v>5.6</v>
+        <v>3.65</v>
       </c>
       <c r="K17" t="n">
-        <v>8</v>
+        <v>4.4</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>2.92</v>
+        <v>1.95</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.43</v>
+        <v>1.85</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,36 +2813,36 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>12:03:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Braintree</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Remo</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.24</v>
+        <v>2.08</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2938,7 +2938,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,36 +2948,36 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>12:03:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Vila Nova</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.25</v>
+        <v>2.12</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,36 +3083,36 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>12:03:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Operario PR</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.25</v>
+        <v>2.84</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3208,7 +3208,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,36 +3218,36 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>San Martin de San Juan</t>
+          <t>Remo</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.94</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>2.94</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3343,7 +3343,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,36 +3353,36 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Godoy Cruz</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Vila Nova</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3397,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,36 +3488,36 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Granada</t>
+          <t>Operario PR</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>2.18</v>
+        <v>1.25</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3613,7 +3613,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,36 +3623,36 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>San Martin de San Juan</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>12</v>
+        <v>2.54</v>
       </c>
       <c r="G24" t="n">
-        <v>15.5</v>
+        <v>3.2</v>
       </c>
       <c r="H24" t="n">
-        <v>1.31</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>1.35</v>
+        <v>3.45</v>
       </c>
       <c r="J24" t="n">
-        <v>5.4</v>
+        <v>2.6</v>
       </c>
       <c r="K24" t="n">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3758,33 +3758,33 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>San Lorenzo</t>
+          <t>Godoy Cruz</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Sarmiento de Junin</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.91</v>
+        <v>2.12</v>
       </c>
       <c r="G25" t="n">
-        <v>2.04</v>
+        <v>2.28</v>
       </c>
       <c r="H25" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>7</v>
+        <v>5.8</v>
       </c>
       <c r="J25" t="n">
-        <v>2.98</v>
+        <v>2.72</v>
       </c>
       <c r="K25" t="n">
         <v>3.3</v>
@@ -3877,6 +3877,411 @@
         <v>0</v>
       </c>
       <c r="AO25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Spanish Segunda Division</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I26" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Sport Recife</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>12</v>
+      </c>
+      <c r="G27" t="n">
+        <v>16</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="J27" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K27" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>19:15:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>San Lorenzo</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Sarmiento de Junin</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+      <c r="I28" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO28" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO28"/>
+  <dimension ref="A1:AO35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,13 +691,13 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.28</v>
+        <v>1.1</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="Q2" t="n">
         <v>1.31</v>
@@ -826,16 +826,16 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.32</v>
+        <v>1.1</v>
       </c>
       <c r="O3" t="n">
         <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.02</v>
+        <v>1.44</v>
       </c>
       <c r="R3" t="n">
         <v>1.18</v>
@@ -961,13 +961,13 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="O4" t="n">
         <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="Q4" t="n">
         <v>1.3</v>
@@ -976,7 +976,7 @@
         <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="T4" t="n">
         <v>1.04</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Penybont FC</t>
+          <t>ASD Pineto Calcio</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Bala Town</t>
+          <t>Carpi</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.38</v>
+        <v>1.89</v>
       </c>
       <c r="G5" t="n">
-        <v>1.47</v>
+        <v>2.48</v>
       </c>
       <c r="H5" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>11.5</v>
+        <v>9</v>
       </c>
       <c r="J5" t="n">
-        <v>4.2</v>
+        <v>2.78</v>
       </c>
       <c r="K5" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>1.96</v>
+        <v>1.46</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.81</v>
+        <v>2.08</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Haverfordwest County</t>
+          <t>Crotone</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Sorrento</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.46</v>
+        <v>1.38</v>
       </c>
       <c r="G6" t="n">
-        <v>3.1</v>
+        <v>1.66</v>
       </c>
       <c r="H6" t="n">
-        <v>2.48</v>
+        <v>6.4</v>
       </c>
       <c r="I6" t="n">
-        <v>3.15</v>
+        <v>140</v>
       </c>
       <c r="J6" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="K6" t="n">
-        <v>4.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,36 +1328,36 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CD Castellon</t>
+          <t>Penybont FC</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sociedad B</t>
+          <t>Bala Town</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.49</v>
+        <v>1.36</v>
       </c>
       <c r="G7" t="n">
-        <v>1.52</v>
+        <v>1.42</v>
       </c>
       <c r="H7" t="n">
-        <v>7.6</v>
+        <v>10</v>
       </c>
       <c r="I7" t="n">
-        <v>8.6</v>
+        <v>14.5</v>
       </c>
       <c r="J7" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,36 +1463,36 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Haverfordwest County</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Andorra CF</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.1</v>
+        <v>2.54</v>
       </c>
       <c r="G8" t="n">
-        <v>2.28</v>
+        <v>3.2</v>
       </c>
       <c r="H8" t="n">
-        <v>3.55</v>
+        <v>2.5</v>
       </c>
       <c r="I8" t="n">
-        <v>3.95</v>
+        <v>3.15</v>
       </c>
       <c r="J8" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="K8" t="n">
-        <v>3.85</v>
+        <v>4.6</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.12</v>
+        <v>1.84</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,36 +1598,36 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12:03:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>CD Castellon</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Sociedad B</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.02</v>
+        <v>1.51</v>
       </c>
       <c r="G9" t="n">
-        <v>2.12</v>
+        <v>1.55</v>
       </c>
       <c r="H9" t="n">
-        <v>3.55</v>
+        <v>7.2</v>
       </c>
       <c r="I9" t="n">
-        <v>4.1</v>
+        <v>8.4</v>
       </c>
       <c r="J9" t="n">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="K9" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.36</v>
+        <v>2.24</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,36 +1733,36 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12:03:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Forest Green</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Andorra CF</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.38</v>
+        <v>2.1</v>
       </c>
       <c r="G10" t="n">
-        <v>1.47</v>
+        <v>2.26</v>
       </c>
       <c r="H10" t="n">
-        <v>4.7</v>
+        <v>3.55</v>
       </c>
       <c r="I10" t="n">
-        <v>1000</v>
+        <v>3.95</v>
       </c>
       <c r="J10" t="n">
-        <v>4.7</v>
+        <v>3.45</v>
       </c>
       <c r="K10" t="n">
-        <v>7.2</v>
+        <v>3.85</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.74</v>
+        <v>2.12</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.41</v>
+        <v>1.78</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1873,31 +1873,31 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.05</v>
+        <v>2.02</v>
       </c>
       <c r="G11" t="n">
-        <v>3.55</v>
+        <v>2.12</v>
       </c>
       <c r="H11" t="n">
-        <v>2.24</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
       <c r="J11" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="K11" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.02</v>
+        <v>2.36</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.78</v>
+        <v>1.59</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2008,31 +2008,31 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Forest Green</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Boston Utd</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.06</v>
+        <v>1.38</v>
       </c>
       <c r="G12" t="n">
-        <v>2.2</v>
+        <v>1.47</v>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="I12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J12" t="n">
         <v>4.7</v>
       </c>
-      <c r="J12" t="n">
-        <v>3.15</v>
-      </c>
       <c r="K12" t="n">
-        <v>4.3</v>
+        <v>7.2</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.76</v>
+        <v>2.74</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.04</v>
+        <v>1.41</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2143,31 +2143,31 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Sutton Utd</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FC Halifax Town</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.66</v>
+        <v>3.05</v>
       </c>
       <c r="G13" t="n">
-        <v>3.05</v>
+        <v>3.55</v>
       </c>
       <c r="H13" t="n">
-        <v>2.52</v>
+        <v>2.24</v>
       </c>
       <c r="I13" t="n">
-        <v>2.86</v>
+        <v>2.5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K13" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2278,31 +2278,31 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Brackley Town</t>
+          <t>Boston Utd</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.38</v>
+        <v>2.06</v>
       </c>
       <c r="G14" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H14" t="n">
-        <v>2.88</v>
+        <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>3.35</v>
+        <v>4.7</v>
       </c>
       <c r="J14" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K14" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.91</v>
+        <v>1.76</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2413,31 +2413,31 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Brackley Town</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.25</v>
+        <v>2.36</v>
       </c>
       <c r="G15" t="n">
-        <v>1.31</v>
+        <v>2.7</v>
       </c>
       <c r="H15" t="n">
-        <v>1.09</v>
+        <v>2.88</v>
       </c>
       <c r="I15" t="n">
-        <v>13</v>
+        <v>3.35</v>
       </c>
       <c r="J15" t="n">
-        <v>6.2</v>
+        <v>3.05</v>
       </c>
       <c r="K15" t="n">
-        <v>11</v>
+        <v>3.9</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>3.65</v>
+        <v>1.91</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.26</v>
+        <v>1.78</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2548,31 +2548,31 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Sutton Utd</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Tamworth FC</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.51</v>
+        <v>2.66</v>
       </c>
       <c r="G16" t="n">
-        <v>1.63</v>
+        <v>3.05</v>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>2.52</v>
       </c>
       <c r="I16" t="n">
-        <v>9.199999999999999</v>
+        <v>2.86</v>
       </c>
       <c r="J16" t="n">
-        <v>4.3</v>
+        <v>3.35</v>
       </c>
       <c r="K16" t="n">
-        <v>5.1</v>
+        <v>3.95</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.14</v>
+        <v>1.98</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2683,31 +2683,31 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.8</v>
+        <v>1.25</v>
       </c>
       <c r="G17" t="n">
-        <v>5.8</v>
+        <v>1.31</v>
       </c>
       <c r="H17" t="n">
-        <v>1.72</v>
+        <v>1.09</v>
       </c>
       <c r="I17" t="n">
-        <v>1.88</v>
+        <v>13</v>
       </c>
       <c r="J17" t="n">
-        <v>3.65</v>
+        <v>6.2</v>
       </c>
       <c r="K17" t="n">
-        <v>4.4</v>
+        <v>11</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.85</v>
+        <v>1.29</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2818,31 +2818,31 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Braintree</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>Tamworth FC</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.28</v>
+        <v>1.51</v>
       </c>
       <c r="G18" t="n">
-        <v>2.6</v>
+        <v>1.63</v>
       </c>
       <c r="H18" t="n">
-        <v>2.86</v>
+        <v>5.4</v>
       </c>
       <c r="I18" t="n">
-        <v>3.35</v>
+        <v>9.6</v>
       </c>
       <c r="J18" t="n">
-        <v>3.35</v>
+        <v>4.2</v>
       </c>
       <c r="K18" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2953,31 +2953,31 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.48</v>
+        <v>4.8</v>
       </c>
       <c r="G19" t="n">
-        <v>1.57</v>
+        <v>5.8</v>
       </c>
       <c r="H19" t="n">
-        <v>6.6</v>
+        <v>1.72</v>
       </c>
       <c r="I19" t="n">
-        <v>9</v>
+        <v>1.88</v>
       </c>
       <c r="J19" t="n">
-        <v>4.3</v>
+        <v>3.65</v>
       </c>
       <c r="K19" t="n">
-        <v>5.2</v>
+        <v>4.4</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.12</v>
+        <v>1.95</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.63</v>
+        <v>1.85</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3088,31 +3088,31 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Braintree</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.34</v>
+        <v>2.28</v>
       </c>
       <c r="G20" t="n">
-        <v>1.35</v>
+        <v>2.6</v>
       </c>
       <c r="H20" t="n">
-        <v>8.199999999999999</v>
+        <v>2.86</v>
       </c>
       <c r="I20" t="n">
-        <v>9.199999999999999</v>
+        <v>3.35</v>
       </c>
       <c r="J20" t="n">
-        <v>5.6</v>
+        <v>3.35</v>
       </c>
       <c r="K20" t="n">
-        <v>6.8</v>
+        <v>4.6</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>2.84</v>
+        <v>2.08</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.43</v>
+        <v>1.65</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3208,7 +3208,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,36 +3218,36 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>12:03:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Remo</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.24</v>
+        <v>2.12</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3343,7 +3343,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,36 +3353,36 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>12:03:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Vila Nova</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3397,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.25</v>
+        <v>2.84</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,17 +3488,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Sassari Torres</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Operario PR</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="Q23" t="n">
         <v>1.01</v>
@@ -3613,7 +3613,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,36 +3623,36 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Lumezzane</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>San Martin de San Juan</t>
+          <t>Pro Vercelli</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.54</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>3.45</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3748,7 +3748,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,36 +3758,36 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Godoy Cruz</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Ascoli</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3883,7 +3883,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,36 +3893,36 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Sambenedettese</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Granada</t>
+          <t>Ternana</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -3937,10 +3937,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>2.18</v>
+        <v>1.24</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -4018,7 +4018,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,36 +4028,36 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Triestina</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>A.C. Trento S.C.S.D.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -4072,10 +4072,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>2</v>
+        <v>1.24</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -4153,135 +4153,1080 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>Brazilian Serie B</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Avai</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Remo</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Brazilian Serie B</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>CRB</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Vila Nova</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Brazilian Serie B</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Atletico GO</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Operario PR</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
           <t>Argentinian Primera Division</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>2025-11-15</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Aldosivi</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>San Martin de San Juan</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Godoy Cruz</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Deportivo Riestra</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Spanish Segunda Division</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I33" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Sport Recife</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="G34" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="J34" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K34" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
         <is>
           <t>19:15:00</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>San Lorenzo</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>Sarmiento de Junin</t>
         </is>
       </c>
-      <c r="F28" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="H28" t="n">
-        <v>6</v>
-      </c>
-      <c r="I28" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="F35" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H35" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I35" t="n">
+        <v>9</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K35" t="n">
         <v>3.4</v>
       </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO28" t="n">
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO35" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO35"/>
+  <dimension ref="A1:AO50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,46 +667,46 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.02</v>
+        <v>2.72</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>3.65</v>
       </c>
       <c r="H2" t="n">
-        <v>1.02</v>
+        <v>2.12</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>2.96</v>
       </c>
       <c r="J2" t="n">
-        <v>1.02</v>
+        <v>3.15</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M2" t="n">
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.1</v>
+        <v>2.44</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.32</v>
+        <v>1.64</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.31</v>
+        <v>1.95</v>
       </c>
       <c r="R2" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S2" t="n">
-        <v>1.31</v>
+        <v>2.74</v>
       </c>
       <c r="T2" t="n">
         <v>1.04</v>
@@ -715,10 +715,10 @@
         <v>1.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -802,46 +802,46 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.02</v>
+        <v>3.05</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="H3" t="n">
-        <v>1.02</v>
+        <v>1.89</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>2.48</v>
       </c>
       <c r="J3" t="n">
-        <v>1.02</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.1</v>
+        <v>1.88</v>
       </c>
       <c r="O3" t="n">
         <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.36</v>
+        <v>1.51</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.44</v>
+        <v>2.14</v>
       </c>
       <c r="R3" t="n">
         <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>1.45</v>
+        <v>2.14</v>
       </c>
       <c r="T3" t="n">
         <v>1.04</v>
@@ -850,10 +850,10 @@
         <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -937,46 +937,46 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.02</v>
+        <v>3.6</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1.02</v>
+        <v>1.58</v>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>2.02</v>
       </c>
       <c r="J4" t="n">
-        <v>1.02</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.34</v>
+        <v>2.88</v>
       </c>
       <c r="O4" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>1.34</v>
+        <v>1.92</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.3</v>
+        <v>1.62</v>
       </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>1.39</v>
       </c>
       <c r="S4" t="n">
-        <v>1.31</v>
+        <v>2.56</v>
       </c>
       <c r="T4" t="n">
         <v>1.04</v>
@@ -985,10 +985,10 @@
         <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>1.99</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1075,55 +1075,55 @@
         <v>1.89</v>
       </c>
       <c r="G5" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>9</v>
+        <v>5.9</v>
       </c>
       <c r="J5" t="n">
-        <v>2.78</v>
+        <v>2.96</v>
       </c>
       <c r="K5" t="n">
-        <v>5.6</v>
+        <v>500</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.46</v>
+        <v>1.89</v>
       </c>
       <c r="O5" t="n">
         <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R5" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>2.08</v>
+        <v>3.1</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
       <c r="W5" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1216,46 +1216,46 @@
         <v>6.4</v>
       </c>
       <c r="I6" t="n">
-        <v>140</v>
+        <v>870</v>
       </c>
       <c r="J6" t="n">
         <v>3.85</v>
       </c>
       <c r="K6" t="n">
-        <v>8.199999999999999</v>
+        <v>500</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M6" t="n">
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.83</v>
+        <v>2.76</v>
       </c>
       <c r="O6" t="n">
         <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="R6" t="n">
-        <v>1.08</v>
+        <v>1.26</v>
       </c>
       <c r="S6" t="n">
-        <v>1.83</v>
+        <v>2.56</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W6" t="n">
         <v>2.5</v>
@@ -1345,31 +1345,31 @@
         <v>1.36</v>
       </c>
       <c r="G7" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H7" t="n">
         <v>10</v>
       </c>
       <c r="I7" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="K7" t="n">
         <v>6</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
         <v>2.2</v>
@@ -1378,76 +1378,76 @@
         <v>1.7</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8">
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="G8" t="n">
         <v>2.54</v>
       </c>
-      <c r="G8" t="n">
-        <v>3.2</v>
-      </c>
       <c r="H8" t="n">
-        <v>2.5</v>
+        <v>2.92</v>
       </c>
       <c r="I8" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="J8" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="K8" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="P8" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1612,34 +1612,34 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="G9" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H9" t="n">
         <v>7.2</v>
       </c>
       <c r="I9" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J9" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K9" t="n">
+        <v>5</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N9" t="n">
         <v>4.6</v>
       </c>
-      <c r="K9" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P9" t="n">
         <v>2.24</v>
@@ -1648,76 +1648,76 @@
         <v>1.69</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="G10" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="H10" t="n">
         <v>3.55</v>
@@ -1765,16 +1765,16 @@
         <v>3.85</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P10" t="n">
         <v>2.12</v>
@@ -1783,82 +1783,82 @@
         <v>1.78</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish League Two</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>12:03:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Stirling</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Forfar</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.02</v>
+        <v>2.7</v>
       </c>
       <c r="G11" t="n">
-        <v>2.12</v>
+        <v>3.15</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>2.54</v>
       </c>
       <c r="I11" t="n">
-        <v>4.1</v>
+        <v>2.8</v>
       </c>
       <c r="J11" t="n">
-        <v>3.9</v>
+        <v>3.15</v>
       </c>
       <c r="K11" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P11" t="n">
-        <v>2.36</v>
+        <v>1.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.59</v>
+        <v>1.99</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish League Two</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>12:03:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Forest Green</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>East Kilbride</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.38</v>
+        <v>3.75</v>
       </c>
       <c r="G12" t="n">
-        <v>1.47</v>
+        <v>5.8</v>
       </c>
       <c r="H12" t="n">
-        <v>4.7</v>
+        <v>1.76</v>
       </c>
       <c r="I12" t="n">
-        <v>1000</v>
+        <v>1.93</v>
       </c>
       <c r="J12" t="n">
-        <v>4.7</v>
+        <v>3.45</v>
       </c>
       <c r="K12" t="n">
-        <v>7.2</v>
+        <v>5.2</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>2.74</v>
+        <v>1.96</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.41</v>
+        <v>1.61</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish League Two</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12:03:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.05</v>
+        <v>1.92</v>
       </c>
       <c r="G13" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H13" t="n">
         <v>3.55</v>
       </c>
-      <c r="H13" t="n">
-        <v>2.24</v>
-      </c>
       <c r="I13" t="n">
-        <v>2.5</v>
+        <v>4.9</v>
       </c>
       <c r="J13" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="K13" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U13" t="n">
         <v>2.02</v>
       </c>
-      <c r="Q13" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish League Two</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>12:03:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Elgin City FC</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Boston Utd</t>
+          <t>Dumbarton</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="G14" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H14" t="n">
-        <v>3.5</v>
+        <v>2.92</v>
       </c>
       <c r="I14" t="n">
-        <v>4.7</v>
+        <v>3.35</v>
       </c>
       <c r="J14" t="n">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="K14" t="n">
         <v>4.3</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P14" t="n">
-        <v>1.76</v>
+        <v>2.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.9</v>
+        <v>1.67</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish League Two</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>12:03:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Brackley Town</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="G15" t="n">
-        <v>2.7</v>
+        <v>2.86</v>
       </c>
       <c r="H15" t="n">
-        <v>2.88</v>
+        <v>2.52</v>
       </c>
       <c r="I15" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="J15" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="K15" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N15" t="n">
         <v>3.9</v>
       </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P15" t="n">
-        <v>1.91</v>
+        <v>2.16</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>12:03:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sutton Utd</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>FC Halifax Town</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.66</v>
+        <v>4.6</v>
       </c>
       <c r="G16" t="n">
-        <v>3.05</v>
+        <v>5.5</v>
       </c>
       <c r="H16" t="n">
-        <v>2.52</v>
+        <v>1.76</v>
       </c>
       <c r="I16" t="n">
-        <v>2.86</v>
+        <v>1.94</v>
       </c>
       <c r="J16" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="K16" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P16" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>12:03:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.25</v>
+        <v>4.4</v>
       </c>
       <c r="G17" t="n">
-        <v>1.31</v>
+        <v>5.2</v>
       </c>
       <c r="H17" t="n">
-        <v>1.09</v>
+        <v>1.77</v>
       </c>
       <c r="I17" t="n">
-        <v>13</v>
+        <v>1.9</v>
       </c>
       <c r="J17" t="n">
-        <v>6.2</v>
+        <v>3.7</v>
       </c>
       <c r="K17" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N17" t="n">
+        <v>4</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X17" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD17" t="n">
         <v>11</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>12:03:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Peterhead</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Tamworth FC</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.51</v>
+        <v>2.02</v>
       </c>
       <c r="G18" t="n">
-        <v>1.63</v>
+        <v>2.32</v>
       </c>
       <c r="H18" t="n">
-        <v>5.4</v>
+        <v>3.3</v>
       </c>
       <c r="I18" t="n">
-        <v>9.6</v>
+        <v>4.2</v>
       </c>
       <c r="J18" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="K18" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U18" t="n">
         <v>2.14</v>
       </c>
-      <c r="Q18" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>12:03:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>Raith</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Airdrieonians</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4.8</v>
+        <v>1.54</v>
       </c>
       <c r="G19" t="n">
-        <v>5.8</v>
+        <v>1.63</v>
       </c>
       <c r="H19" t="n">
-        <v>1.72</v>
+        <v>7.2</v>
       </c>
       <c r="I19" t="n">
-        <v>1.88</v>
+        <v>7.6</v>
       </c>
       <c r="J19" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S19" t="n">
         <v>3.65</v>
       </c>
-      <c r="K19" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>12:03:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Braintree</t>
+          <t>Ayr</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>Arbroath</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.28</v>
+        <v>1.63</v>
       </c>
       <c r="G20" t="n">
-        <v>2.6</v>
+        <v>1.76</v>
       </c>
       <c r="H20" t="n">
-        <v>2.86</v>
+        <v>4.9</v>
       </c>
       <c r="I20" t="n">
-        <v>3.35</v>
+        <v>6.4</v>
       </c>
       <c r="J20" t="n">
         <v>3.35</v>
       </c>
       <c r="K20" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="P20" t="n">
-        <v>2.08</v>
+        <v>1.85</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.65</v>
+        <v>1.93</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>12:03:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Ross Co</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Morton</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.48</v>
+        <v>1.84</v>
       </c>
       <c r="G21" t="n">
-        <v>1.57</v>
+        <v>2.02</v>
       </c>
       <c r="H21" t="n">
-        <v>6.6</v>
+        <v>4.2</v>
       </c>
       <c r="I21" t="n">
-        <v>9</v>
+        <v>5.1</v>
       </c>
       <c r="J21" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="K21" t="n">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="P21" t="n">
-        <v>2.12</v>
+        <v>1.84</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.63</v>
+        <v>1.96</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>12:03:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>St Johnstone</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Queens Park</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="G22" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="H22" t="n">
-        <v>8.199999999999999</v>
+        <v>13</v>
       </c>
       <c r="I22" t="n">
-        <v>9.199999999999999</v>
+        <v>14.5</v>
       </c>
       <c r="J22" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="K22" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P22" t="n">
-        <v>2.84</v>
+        <v>2.34</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.43</v>
+        <v>1.59</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>12:03:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Sassari Torres</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P23" t="n">
-        <v>1.24</v>
+        <v>2.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AM23" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>12:03:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Lumezzane</t>
+          <t>Forest Green</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Pro Vercelli</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="P24" t="n">
-        <v>1.24</v>
+        <v>2.74</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AK24" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AM24" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN24" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AO24" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>12:03:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Ascoli</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P25" t="n">
-        <v>1.24</v>
+        <v>2.02</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AK25" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AL25" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AM25" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AN25" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AO25" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>12:03:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Sambenedettese</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Ternana</t>
+          <t>Boston Utd</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P26" t="n">
-        <v>1.24</v>
+        <v>1.76</v>
       </c>
       <c r="Q26" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T26" t="n">
         <v>1.01</v>
       </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,132 +4028,132 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>12:03:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Triestina</t>
+          <t>Sutton Utd</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>A.C. Trento S.C.S.D.</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P27" t="n">
-        <v>1.24</v>
+        <v>1.98</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z27" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AK27" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AL27" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AM27" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AN27" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AO27" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,132 +4163,132 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>12:03:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Remo</t>
+          <t>Brackley Town</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P28" t="n">
-        <v>1.24</v>
+        <v>1.91</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="Z28" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AB28" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AG28" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AI28" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AK28" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AL28" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AM28" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN28" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AO28" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,132 +4298,132 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>12:03:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Vila Nova</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="P29" t="n">
-        <v>1.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q29" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T29" t="n">
         <v>1.01</v>
       </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AK29" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AL29" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AM29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AO29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,36 +4433,36 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>12:03:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Operario PR</t>
+          <t>Tamworth FC</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -4477,10 +4477,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.25</v>
+        <v>2.14</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -4558,7 +4558,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,132 +4568,132 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>12:03:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>San Martin de San Juan</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.72</v>
+        <v>5.3</v>
       </c>
       <c r="G31" t="n">
-        <v>3.2</v>
+        <v>5.9</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>1.64</v>
       </c>
       <c r="I31" t="n">
-        <v>3.45</v>
+        <v>1.79</v>
       </c>
       <c r="J31" t="n">
-        <v>2.72</v>
+        <v>3.8</v>
       </c>
       <c r="K31" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N31" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S31" t="n">
         <v>3.1</v>
       </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI31" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AK31" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AL31" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AM31" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AN31" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AO31" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,132 +4703,132 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>12:03:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Godoy Cruz</t>
+          <t>Braintree</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.04</v>
+        <v>2.28</v>
       </c>
       <c r="G32" t="n">
-        <v>2.12</v>
+        <v>2.6</v>
       </c>
       <c r="H32" t="n">
-        <v>4.1</v>
+        <v>2.86</v>
       </c>
       <c r="I32" t="n">
-        <v>7.6</v>
+        <v>3.35</v>
       </c>
       <c r="J32" t="n">
-        <v>2.82</v>
+        <v>3.35</v>
       </c>
       <c r="K32" t="n">
-        <v>3.15</v>
+        <v>4.6</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,36 +4838,36 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>12:03:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Granada</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.93</v>
+        <v>1.48</v>
       </c>
       <c r="G33" t="n">
-        <v>1.97</v>
+        <v>1.57</v>
       </c>
       <c r="H33" t="n">
-        <v>4.4</v>
+        <v>6.6</v>
       </c>
       <c r="I33" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="J33" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="K33" t="n">
-        <v>3.95</v>
+        <v>5.2</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -4882,10 +4882,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.76</v>
+        <v>1.63</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,260 +4973,2285 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>12:03:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="F34" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H34" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="I34" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="J34" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="K34" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N34" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="W34" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="X34" t="n">
+        <v>36</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>42</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>110</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>310</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF34" t="n">
         <v>11.5</v>
       </c>
-      <c r="G34" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="J34" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="K34" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>0</v>
-      </c>
       <c r="AG34" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI34" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AK34" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AL34" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AM34" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AO34" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>Italian Serie C</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>13:30:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Sassari Torres</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Perugia</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G35" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="I35" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K35" t="n">
+        <v>5</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Italian Serie C</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>13:30:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Lumezzane</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Pro Vercelli</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="G36" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="K36" t="n">
+        <v>5</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Italian Serie C</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>13:30:00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Rimini</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G37" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K37" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V37" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Scottish League One</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>East Fife</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Stenhousemuir</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="I38" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K38" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N38" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>960</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>960</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>960</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>960</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>14:45:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>FC Eindhoven</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Cambuur Leeuwarden</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G39" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K39" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Italian Serie C</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Sambenedettese</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Italian Serie C</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Triestina</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>A.C. Trento S.C.S.D.</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Brazilian Serie B</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Avai</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Remo</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Brazilian Serie B</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>CRB</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Vila Nova</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Brazilian Serie B</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Atletico GO</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Operario PR</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
           <t>Argentinian Primera Division</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>2025-11-15</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Aldosivi</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>San Martin de San Juan</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="G45" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J45" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="K45" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Godoy Cruz</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Deportivo Riestra</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H46" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I46" t="n">
+        <v>7</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K46" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Willem II</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Emmen</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I47" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>4</v>
+      </c>
+      <c r="K47" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Spanish Segunda Division</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H48" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I48" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K48" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Sport Recife</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="G49" t="n">
+        <v>15</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="J49" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K49" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
         <is>
           <t>19:15:00</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>San Lorenzo</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>Sarmiento de Junin</t>
         </is>
       </c>
-      <c r="F35" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="G35" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="H35" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="I35" t="n">
-        <v>9</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K35" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO35" t="n">
+      <c r="F50" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H50" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I50" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="J50" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K50" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO50" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO50"/>
+  <dimension ref="A1:AO52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,46 +667,46 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.72</v>
+        <v>2.5</v>
       </c>
       <c r="G2" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="H2" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="I2" t="n">
-        <v>2.96</v>
+        <v>3.25</v>
       </c>
       <c r="J2" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K2" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M2" t="n">
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P2" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="R2" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="S2" t="n">
-        <v>2.74</v>
+        <v>2.6</v>
       </c>
       <c r="T2" t="n">
         <v>1.04</v>
@@ -715,10 +715,10 @@
         <v>1.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="W2" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -802,79 +802,79 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.05</v>
+        <v>3.9</v>
       </c>
       <c r="G3" t="n">
-        <v>7.2</v>
+        <v>4.1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="I3" t="n">
-        <v>2.48</v>
+        <v>2.22</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="K3" t="n">
-        <v>6.8</v>
+        <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>1.88</v>
+        <v>2.9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="P3" t="n">
-        <v>1.51</v>
+        <v>1.65</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="R3" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="S3" t="n">
-        <v>2.14</v>
+        <v>4.3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.04</v>
+        <v>1.97</v>
       </c>
       <c r="U3" t="n">
-        <v>1.04</v>
+        <v>1.84</v>
       </c>
       <c r="V3" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="W3" t="n">
-        <v>1.16</v>
+        <v>1.32</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
@@ -883,10 +883,10 @@
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -937,46 +937,46 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="G4" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="I4" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>2.88</v>
+        <v>2.72</v>
       </c>
       <c r="O4" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
         <v>1.92</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="R4" t="n">
-        <v>1.39</v>
+        <v>1.27</v>
       </c>
       <c r="S4" t="n">
-        <v>2.56</v>
+        <v>2.18</v>
       </c>
       <c r="T4" t="n">
         <v>1.04</v>
@@ -985,10 +985,10 @@
         <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="W4" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1087,7 +1087,7 @@
         <v>2.96</v>
       </c>
       <c r="K5" t="n">
-        <v>500</v>
+        <v>980</v>
       </c>
       <c r="L5" t="n">
         <v>1.4</v>
@@ -1207,34 +1207,34 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="G6" t="n">
-        <v>1.66</v>
+        <v>1.5</v>
       </c>
       <c r="H6" t="n">
-        <v>6.4</v>
+        <v>1.09</v>
       </c>
       <c r="I6" t="n">
-        <v>870</v>
+        <v>980</v>
       </c>
       <c r="J6" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="K6" t="n">
-        <v>500</v>
+        <v>5.7</v>
       </c>
       <c r="L6" t="n">
         <v>1.3</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>2.76</v>
+        <v>3.35</v>
       </c>
       <c r="O6" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="P6" t="n">
         <v>1.84</v>
@@ -1243,22 +1243,22 @@
         <v>1.74</v>
       </c>
       <c r="R6" t="n">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="S6" t="n">
-        <v>2.56</v>
+        <v>3.15</v>
       </c>
       <c r="T6" t="n">
-        <v>1.04</v>
+        <v>1.76</v>
       </c>
       <c r="U6" t="n">
-        <v>1.04</v>
+        <v>1.52</v>
       </c>
       <c r="V6" t="n">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="W6" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1273,7 +1273,7 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC6" t="n">
         <v>1000</v>
@@ -1369,7 +1369,7 @@
         <v>4.3</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P7" t="n">
         <v>2.2</v>
@@ -1480,10 +1480,10 @@
         <v>2.36</v>
       </c>
       <c r="G8" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="H8" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="I8" t="n">
         <v>3.35</v>
@@ -1492,7 +1492,7 @@
         <v>3.5</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L8" t="n">
         <v>1.32</v>
@@ -1534,7 +1534,7 @@
         <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="Z8" t="n">
         <v>1000</v>
@@ -1543,25 +1543,25 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AC8" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AD8" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AE8" t="n">
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AG8" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AH8" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="G9" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="H9" t="n">
         <v>7.2</v>
       </c>
       <c r="I9" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
         <v>4.8</v>
       </c>
       <c r="K9" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L9" t="n">
         <v>1.31</v>
@@ -1660,10 +1660,10 @@
         <v>1.96</v>
       </c>
       <c r="V9" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W9" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="X9" t="n">
         <v>22</v>
@@ -1693,10 +1693,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AG9" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH9" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AI9" t="n">
         <v>100</v>
@@ -1717,7 +1717,7 @@
         <v>7</v>
       </c>
       <c r="AO9" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
@@ -1756,7 +1756,7 @@
         <v>3.55</v>
       </c>
       <c r="I10" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J10" t="n">
         <v>3.45</v>
@@ -1777,7 +1777,7 @@
         <v>1.26</v>
       </c>
       <c r="P10" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q10" t="n">
         <v>1.78</v>
@@ -1786,7 +1786,7 @@
         <v>1.45</v>
       </c>
       <c r="S10" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="T10" t="n">
         <v>1.65</v>
@@ -1795,13 +1795,13 @@
         <v>2.3</v>
       </c>
       <c r="V10" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W10" t="n">
         <v>1.78</v>
       </c>
       <c r="X10" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y10" t="n">
         <v>17</v>
@@ -1816,7 +1816,7 @@
         <v>12</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD10" t="n">
         <v>16</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="G11" t="n">
         <v>3.15</v>
@@ -1894,19 +1894,19 @@
         <v>2.8</v>
       </c>
       <c r="J11" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K11" t="n">
         <v>3.75</v>
       </c>
       <c r="L11" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="M11" t="n">
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>1.81</v>
+        <v>2.54</v>
       </c>
       <c r="O11" t="n">
         <v>1.01</v>
@@ -1918,16 +1918,16 @@
         <v>1.99</v>
       </c>
       <c r="R11" t="n">
-        <v>1.09</v>
+        <v>1.21</v>
       </c>
       <c r="S11" t="n">
-        <v>2</v>
+        <v>2.36</v>
       </c>
       <c r="T11" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U11" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V11" t="n">
         <v>1.55</v>
@@ -2023,7 +2023,7 @@
         <v>5.8</v>
       </c>
       <c r="H12" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="I12" t="n">
         <v>1.93</v>
@@ -2032,7 +2032,7 @@
         <v>3.45</v>
       </c>
       <c r="K12" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
@@ -2158,10 +2158,10 @@
         <v>2.18</v>
       </c>
       <c r="H13" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="I13" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="J13" t="n">
         <v>3.2</v>
@@ -2206,13 +2206,13 @@
         <v>1.84</v>
       </c>
       <c r="X13" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="Y13" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="Z13" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AA13" t="n">
         <v>95</v>
@@ -2221,43 +2221,43 @@
         <v>13</v>
       </c>
       <c r="AC13" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AD13" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AE13" t="n">
         <v>55</v>
       </c>
       <c r="AF13" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AG13" t="n">
         <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AI13" t="n">
         <v>60</v>
       </c>
       <c r="AJ13" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AK13" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AL13" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AO13" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
     </row>
     <row r="14">
@@ -2314,7 +2314,7 @@
         <v>4.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P14" t="n">
         <v>2.2</v>
@@ -2329,70 +2329,70 @@
         <v>2.62</v>
       </c>
       <c r="T14" t="n">
-        <v>1.43</v>
+        <v>1.58</v>
       </c>
       <c r="U14" t="n">
-        <v>2.12</v>
+        <v>2.34</v>
       </c>
       <c r="V14" t="n">
         <v>1.42</v>
       </c>
       <c r="W14" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="X14" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y14" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Z14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL14" t="n">
         <v>34</v>
       </c>
-      <c r="AA14" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>44</v>
-      </c>
       <c r="AM14" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AO14" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
@@ -2422,85 +2422,85 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.3</v>
+        <v>2.44</v>
       </c>
       <c r="G15" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="H15" t="n">
         <v>2.52</v>
       </c>
       <c r="I15" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="J15" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K15" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="P15" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="R15" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="S15" t="n">
-        <v>2.52</v>
+        <v>2.4</v>
       </c>
       <c r="T15" t="n">
-        <v>1.59</v>
+        <v>1.54</v>
       </c>
       <c r="U15" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="V15" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="W15" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="X15" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Y15" t="n">
         <v>960</v>
       </c>
       <c r="Z15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA15" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB15" t="n">
         <v>960</v>
       </c>
       <c r="AC15" t="n">
-        <v>11</v>
+        <v>960</v>
       </c>
       <c r="AD15" t="n">
         <v>960</v>
       </c>
       <c r="AE15" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AF15" t="n">
-        <v>23</v>
+        <v>960</v>
       </c>
       <c r="AG15" t="n">
         <v>960</v>
@@ -2509,25 +2509,25 @@
         <v>960</v>
       </c>
       <c r="AI15" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ15" t="n">
         <v>44</v>
       </c>
       <c r="AK15" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AL15" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AM15" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AN15" t="n">
-        <v>21</v>
+        <v>960</v>
       </c>
       <c r="AO15" t="n">
-        <v>25</v>
+        <v>960</v>
       </c>
     </row>
     <row r="16">
@@ -2563,7 +2563,7 @@
         <v>5.5</v>
       </c>
       <c r="H16" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="I16" t="n">
         <v>1.94</v>
@@ -2590,7 +2590,7 @@
         <v>1.92</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R16" t="n">
         <v>1.35</v>
@@ -2833,7 +2833,7 @@
         <v>2.32</v>
       </c>
       <c r="H18" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="I18" t="n">
         <v>4.2</v>
@@ -2851,7 +2851,7 @@
         <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="O18" t="n">
         <v>1.28</v>
@@ -2881,10 +2881,10 @@
         <v>1.75</v>
       </c>
       <c r="X18" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="Y18" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="Z18" t="n">
         <v>1000</v>
@@ -2896,31 +2896,31 @@
         <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AD18" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AE18" t="n">
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AG18" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AH18" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AK18" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AL18" t="n">
         <v>1000</v>
@@ -2929,7 +2929,7 @@
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="G20" t="n">
         <v>1.76</v>
@@ -3112,7 +3112,7 @@
         <v>3.35</v>
       </c>
       <c r="K20" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L20" t="n">
         <v>1.32</v>
@@ -3121,7 +3121,7 @@
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="O20" t="n">
         <v>1.31</v>
@@ -3151,10 +3151,10 @@
         <v>2.3</v>
       </c>
       <c r="X20" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="Y20" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="Z20" t="n">
         <v>60</v>
@@ -3166,40 +3166,40 @@
         <v>9.6</v>
       </c>
       <c r="AC20" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AD20" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AE20" t="n">
         <v>120</v>
       </c>
       <c r="AF20" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AG20" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AH20" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AI20" t="n">
         <v>110</v>
       </c>
       <c r="AJ20" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AK20" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AL20" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AM20" t="n">
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3244,7 +3244,7 @@
         <v>5.1</v>
       </c>
       <c r="J21" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K21" t="n">
         <v>4.5</v>
@@ -3274,10 +3274,10 @@
         <v>3.15</v>
       </c>
       <c r="T21" t="n">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="U21" t="n">
-        <v>1.83</v>
+        <v>1.96</v>
       </c>
       <c r="V21" t="n">
         <v>1.25</v>
@@ -3397,7 +3397,7 @@
         <v>1.2</v>
       </c>
       <c r="P22" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q22" t="n">
         <v>1.59</v>
@@ -3421,7 +3421,7 @@
         <v>4.3</v>
       </c>
       <c r="X22" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="Y22" t="n">
         <v>60</v>
@@ -3463,7 +3463,7 @@
         <v>960</v>
       </c>
       <c r="AL22" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
@@ -3505,10 +3505,10 @@
         <v>2.18</v>
       </c>
       <c r="G23" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H23" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I23" t="n">
         <v>3.5</v>
@@ -3547,19 +3547,19 @@
         <v>1.55</v>
       </c>
       <c r="U23" t="n">
-        <v>2.24</v>
+        <v>2.44</v>
       </c>
       <c r="V23" t="n">
         <v>1.4</v>
       </c>
       <c r="W23" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="X23" t="n">
         <v>22</v>
       </c>
       <c r="Y23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z23" t="n">
         <v>29</v>
@@ -3577,7 +3577,7 @@
         <v>16.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF23" t="n">
         <v>18</v>
@@ -3670,7 +3670,7 @@
         <v>2.74</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="R24" t="n">
         <v>1.69</v>
@@ -3775,16 +3775,16 @@
         <v>3.05</v>
       </c>
       <c r="G25" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H25" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I25" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="J25" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K25" t="n">
         <v>4.1</v>
@@ -3820,10 +3820,10 @@
         <v>2.22</v>
       </c>
       <c r="V25" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="W25" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X25" t="n">
         <v>17.5</v>
@@ -3835,7 +3835,7 @@
         <v>17</v>
       </c>
       <c r="AA25" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AB25" t="n">
         <v>15</v>
@@ -3847,10 +3847,10 @@
         <v>12</v>
       </c>
       <c r="AE25" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AF25" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AG25" t="n">
         <v>15</v>
@@ -3859,7 +3859,7 @@
         <v>17</v>
       </c>
       <c r="AI25" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AJ25" t="n">
         <v>60</v>
@@ -3868,13 +3868,13 @@
         <v>38</v>
       </c>
       <c r="AL25" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AM25" t="n">
         <v>80</v>
       </c>
       <c r="AN25" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AO25" t="n">
         <v>17.5</v>
@@ -3940,7 +3940,7 @@
         <v>1.76</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R26" t="n">
         <v>1.25</v>
@@ -3949,10 +3949,10 @@
         <v>3.15</v>
       </c>
       <c r="T26" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U26" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V26" t="n">
         <v>1.3</v>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="G27" t="n">
         <v>3</v>
@@ -4051,7 +4051,7 @@
         <v>2.52</v>
       </c>
       <c r="I27" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="J27" t="n">
         <v>3.4</v>
@@ -4060,16 +4060,16 @@
         <v>3.95</v>
       </c>
       <c r="L27" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="M27" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N27" t="n">
         <v>3.85</v>
       </c>
       <c r="O27" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P27" t="n">
         <v>1.98</v>
@@ -4090,7 +4090,7 @@
         <v>2.2</v>
       </c>
       <c r="V27" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="W27" t="n">
         <v>1.5</v>
@@ -4183,13 +4183,13 @@
         <v>2.7</v>
       </c>
       <c r="H28" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="I28" t="n">
         <v>3.35</v>
       </c>
       <c r="J28" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K28" t="n">
         <v>3.9</v>
@@ -4231,58 +4231,58 @@
         <v>1.58</v>
       </c>
       <c r="X28" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="Y28" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="Z28" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AA28" t="n">
         <v>65</v>
       </c>
       <c r="AB28" t="n">
-        <v>960</v>
+        <v>13.5</v>
       </c>
       <c r="AC28" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AD28" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AE28" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AF28" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AG28" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AH28" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AI28" t="n">
         <v>55</v>
       </c>
       <c r="AJ28" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AK28" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AL28" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AM28" t="n">
         <v>110</v>
       </c>
       <c r="AN28" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AO28" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
     </row>
     <row r="29">
@@ -4303,121 +4303,121 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Tamworth FC</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.25</v>
+        <v>1.51</v>
       </c>
       <c r="G29" t="n">
-        <v>1.31</v>
+        <v>1.53</v>
       </c>
       <c r="H29" t="n">
-        <v>1.09</v>
+        <v>6.6</v>
       </c>
       <c r="I29" t="n">
-        <v>13</v>
+        <v>9.4</v>
       </c>
       <c r="J29" t="n">
-        <v>6.2</v>
+        <v>4.4</v>
       </c>
       <c r="K29" t="n">
-        <v>11</v>
+        <v>5.1</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>3.6</v>
+        <v>2.14</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.29</v>
+        <v>1.71</v>
       </c>
       <c r="R29" t="n">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB29" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AC29" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE29" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF29" t="n">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="AG29" t="n">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="AH29" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AI29" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ29" t="n">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="AK29" t="n">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="AL29" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AM29" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN29" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AO29" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -4438,121 +4438,121 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Tamworth FC</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.51</v>
+        <v>1.25</v>
       </c>
       <c r="G30" t="n">
-        <v>1.63</v>
+        <v>1.28</v>
       </c>
       <c r="H30" t="n">
-        <v>5.4</v>
+        <v>10</v>
       </c>
       <c r="I30" t="n">
-        <v>9.6</v>
+        <v>13</v>
       </c>
       <c r="J30" t="n">
-        <v>4.2</v>
+        <v>6.6</v>
       </c>
       <c r="K30" t="n">
-        <v>5.1</v>
+        <v>11</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="P30" t="n">
-        <v>2.14</v>
+        <v>3.65</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.71</v>
+        <v>1.29</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK30" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL30" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AO30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
@@ -4621,10 +4621,10 @@
         <v>1.37</v>
       </c>
       <c r="S31" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T31" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U31" t="n">
         <v>1.97</v>
@@ -4669,7 +4669,7 @@
         <v>22</v>
       </c>
       <c r="AI31" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AJ31" t="n">
         <v>190</v>
@@ -4729,7 +4729,7 @@
         <v>3.35</v>
       </c>
       <c r="J32" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K32" t="n">
         <v>4.6</v>
@@ -4759,10 +4759,10 @@
         <v>2.56</v>
       </c>
       <c r="T32" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U32" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V32" t="n">
         <v>1.42</v>
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="G33" t="n">
         <v>1.57</v>
       </c>
       <c r="H33" t="n">
-        <v>6.6</v>
+        <v>5.6</v>
       </c>
       <c r="I33" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="J33" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="K33" t="n">
-        <v>5.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -4882,10 +4882,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.12</v>
+        <v>1.94</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -5017,7 +5017,7 @@
         <v>1.14</v>
       </c>
       <c r="P34" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="Q34" t="n">
         <v>1.43</v>
@@ -5122,112 +5122,112 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.26</v>
+        <v>2.4</v>
       </c>
       <c r="G35" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="H35" t="n">
         <v>3.1</v>
       </c>
-      <c r="H35" t="n">
-        <v>2.84</v>
-      </c>
       <c r="I35" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="J35" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="K35" t="n">
-        <v>5</v>
+        <v>3.85</v>
       </c>
       <c r="L35" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M35" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N35" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O35" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="P35" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="Q35" t="n">
         <v>2.24</v>
       </c>
       <c r="R35" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="S35" t="n">
-        <v>2.24</v>
+        <v>4.3</v>
       </c>
       <c r="T35" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="U35" t="n">
-        <v>1.01</v>
+        <v>1.91</v>
       </c>
       <c r="V35" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="W35" t="n">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="X35" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y35" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z35" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AA35" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB35" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD35" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF35" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AG35" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI35" t="n">
         <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AK35" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL35" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM35" t="n">
         <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO35" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36">
@@ -5257,31 +5257,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.46</v>
+        <v>2.22</v>
       </c>
       <c r="G36" t="n">
-        <v>3.3</v>
+        <v>2.94</v>
       </c>
       <c r="H36" t="n">
-        <v>2.56</v>
+        <v>2.84</v>
       </c>
       <c r="I36" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="J36" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="K36" t="n">
         <v>5</v>
       </c>
       <c r="L36" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M36" t="n">
         <v>1.01</v>
       </c>
       <c r="N36" t="n">
-        <v>1.5</v>
+        <v>1.94</v>
       </c>
       <c r="O36" t="n">
         <v>1.01</v>
@@ -5299,16 +5299,16 @@
         <v>2.26</v>
       </c>
       <c r="T36" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U36" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V36" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W36" t="n">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="X36" t="n">
         <v>1000</v>
@@ -5392,94 +5392,94 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="G37" t="n">
-        <v>12.5</v>
+        <v>6.4</v>
       </c>
       <c r="H37" t="n">
-        <v>1.56</v>
+        <v>1.86</v>
       </c>
       <c r="I37" t="n">
-        <v>1.87</v>
+        <v>2.38</v>
       </c>
       <c r="J37" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="K37" t="n">
-        <v>7.8</v>
+        <v>980</v>
       </c>
       <c r="L37" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M37" t="n">
         <v>1.01</v>
       </c>
       <c r="N37" t="n">
-        <v>1.63</v>
+        <v>2.1</v>
       </c>
       <c r="O37" t="n">
         <v>1.01</v>
       </c>
       <c r="P37" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="R37" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S37" t="n">
-        <v>1.98</v>
+        <v>3.7</v>
       </c>
       <c r="T37" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U37" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V37" t="n">
-        <v>2.14</v>
+        <v>1.73</v>
       </c>
       <c r="W37" t="n">
-        <v>1.09</v>
+        <v>1.19</v>
       </c>
       <c r="X37" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y37" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="Z37" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AA37" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AB37" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD37" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE37" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AF37" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AG37" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AH37" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI37" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ37" t="n">
         <v>1000</v>
@@ -5497,7 +5497,7 @@
         <v>1000</v>
       </c>
       <c r="AO37" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38">
@@ -5554,7 +5554,7 @@
         <v>3.1</v>
       </c>
       <c r="O38" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="P38" t="n">
         <v>1.83</v>
@@ -5569,10 +5569,10 @@
         <v>3.1</v>
       </c>
       <c r="T38" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U38" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V38" t="n">
         <v>1.39</v>
@@ -5584,34 +5584,34 @@
         <v>1000</v>
       </c>
       <c r="Y38" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="Z38" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AA38" t="n">
         <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AC38" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AD38" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AE38" t="n">
         <v>1000</v>
       </c>
       <c r="AF38" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AG38" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AH38" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AI38" t="n">
         <v>1000</v>
@@ -5620,7 +5620,7 @@
         <v>1000</v>
       </c>
       <c r="AK38" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AL38" t="n">
         <v>1000</v>
@@ -5629,7 +5629,7 @@
         <v>1000</v>
       </c>
       <c r="AN38" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AO38" t="n">
         <v>1000</v>
@@ -5662,13 +5662,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="G39" t="n">
         <v>5.7</v>
       </c>
       <c r="H39" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="I39" t="n">
         <v>1.76</v>
@@ -5680,16 +5680,16 @@
         <v>4.8</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P39" t="n">
         <v>2.36</v>
@@ -5698,82 +5698,82 @@
         <v>1.59</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Z39" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AA39" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB39" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AC39" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD39" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE39" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF39" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG39" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH39" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI39" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ39" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AK39" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AL39" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM39" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AN39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO39" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5783,126 +5783,126 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Sambenedettese</t>
+          <t>Atletico Huila</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Ternana</t>
+          <t>Internacional de Palmira</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P40" t="n">
-        <v>1.24</v>
+        <v>1.44</v>
       </c>
       <c r="Q40" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S40" t="n">
         <v>1.01</v>
       </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="41">
@@ -5923,127 +5923,127 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Triestina</t>
+          <t>Sambenedettese</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>A.C. Trento S.C.S.D.</t>
+          <t>Ternana</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P41" t="n">
-        <v>1.24</v>
+        <v>1.45</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6058,121 +6058,121 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Triestina</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Remo</t>
+          <t>A.C. Trento S.C.S.D.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P42" t="n">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.01</v>
+        <v>1.93</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="43">
@@ -6193,121 +6193,121 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Vila Nova</t>
+          <t>Remo</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P43" t="n">
-        <v>1.25</v>
+        <v>1.85</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AA43" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AB43" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AC43" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD43" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE43" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AF43" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AG43" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AH43" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI43" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AJ43" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AK43" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AL43" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM43" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AN43" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AO43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="44">
@@ -6328,127 +6328,127 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Operario PR</t>
+          <t>Vila Nova</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P44" t="n">
-        <v>1.25</v>
+        <v>1.83</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.01</v>
+        <v>1.99</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA44" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AB44" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC44" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD44" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AE44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF44" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AG44" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH44" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI44" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AJ44" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AK44" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL44" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM44" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AN44" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AO44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6458,132 +6458,132 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>San Martin de San Juan</t>
+          <t>Operario PR</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.72</v>
+        <v>2.12</v>
       </c>
       <c r="G45" t="n">
-        <v>3.2</v>
+        <v>2.28</v>
       </c>
       <c r="H45" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I45" t="n">
+        <v>5</v>
+      </c>
+      <c r="J45" t="n">
         <v>3.05</v>
       </c>
-      <c r="I45" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="J45" t="n">
-        <v>2.72</v>
-      </c>
       <c r="K45" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="P45" t="n">
-        <v>1.38</v>
+        <v>1.58</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.78</v>
+        <v>2.44</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA45" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AB45" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AC45" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD45" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE45" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF45" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG45" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH45" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI45" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AJ45" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK45" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL45" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM45" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN45" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AO45" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6598,127 +6598,127 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Godoy Cruz</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Granada</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="G46" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H46" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I46" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K46" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N46" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S46" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U46" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V46" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W46" t="n">
         <v>2.04</v>
       </c>
-      <c r="H46" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="I46" t="n">
-        <v>7</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="K46" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
-      </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Z46" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AA46" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AB46" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC46" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD46" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AE46" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AF46" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG46" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH46" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AI46" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ46" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AK46" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AL46" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AM46" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AN46" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO46" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6733,31 +6733,31 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>San Martin de San Juan</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.93</v>
+        <v>2.9</v>
       </c>
       <c r="G47" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="H47" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I47" t="n">
         <v>3.45</v>
       </c>
-      <c r="I47" t="n">
-        <v>4.1</v>
-      </c>
       <c r="J47" t="n">
-        <v>4</v>
+        <v>2.72</v>
       </c>
       <c r="K47" t="n">
-        <v>4.7</v>
+        <v>3.05</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -6772,10 +6772,10 @@
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>2.56</v>
+        <v>1.38</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.51</v>
+        <v>2.78</v>
       </c>
       <c r="R47" t="n">
         <v>0</v>
@@ -6853,7 +6853,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6868,31 +6868,31 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Godoy Cruz</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Granada</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="G48" t="n">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="H48" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="I48" t="n">
-        <v>4.6</v>
+        <v>7.4</v>
       </c>
       <c r="J48" t="n">
-        <v>3.95</v>
+        <v>2.96</v>
       </c>
       <c r="K48" t="n">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -6907,10 +6907,10 @@
         <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>2.16</v>
+        <v>1.35</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.73</v>
+        <v>2.98</v>
       </c>
       <c r="R48" t="n">
         <v>0</v>
@@ -6988,7 +6988,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -6998,260 +6998,530 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>11.5</v>
+        <v>1.9</v>
       </c>
       <c r="G49" t="n">
-        <v>15</v>
+        <v>2.12</v>
       </c>
       <c r="H49" t="n">
-        <v>1.33</v>
+        <v>3.5</v>
       </c>
       <c r="I49" t="n">
-        <v>1.35</v>
+        <v>4.1</v>
       </c>
       <c r="J49" t="n">
-        <v>5.3</v>
+        <v>4.1</v>
       </c>
       <c r="K49" t="n">
-        <v>5.9</v>
+        <v>4.7</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P49" t="n">
-        <v>2</v>
+        <v>2.54</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.73</v>
+        <v>1.51</v>
       </c>
       <c r="R49" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="T49" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="U49" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="V49" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="W49" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="X49" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y49" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z49" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA49" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AB49" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AC49" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD49" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE49" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF49" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG49" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH49" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AI49" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ49" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK49" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL49" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM49" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AN49" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO49" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Sport Recife</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="G50" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="J50" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K50" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N50" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P50" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T50" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="U50" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="V50" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="X50" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>130</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>48</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>760</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>300</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>280</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>330</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>520</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
           <t>Argentinian Primera Division</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>2025-11-15</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>19:15:00</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>San Lorenzo</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>Sarmiento de Junin</t>
         </is>
       </c>
-      <c r="F50" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="G50" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="H50" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="I50" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="J50" t="n">
+      <c r="F51" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H51" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I51" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J51" t="n">
         <v>3.2</v>
       </c>
-      <c r="K50" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="n">
-        <v>0</v>
-      </c>
-      <c r="O50" t="n">
-        <v>0</v>
-      </c>
-      <c r="P50" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>0</v>
-      </c>
-      <c r="R50" t="n">
-        <v>0</v>
-      </c>
-      <c r="S50" t="n">
-        <v>0</v>
-      </c>
-      <c r="T50" t="n">
-        <v>0</v>
-      </c>
-      <c r="U50" t="n">
-        <v>0</v>
-      </c>
-      <c r="V50" t="n">
-        <v>0</v>
-      </c>
-      <c r="W50" t="n">
-        <v>0</v>
-      </c>
-      <c r="X50" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO50" t="n">
+      <c r="K51" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>20:20:00</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Boyaca Patriotas</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Boca Juniors de Cali</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H52" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO52" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO52"/>
+  <dimension ref="A1:AO55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -811,7 +811,7 @@
         <v>2.02</v>
       </c>
       <c r="I3" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="J3" t="n">
         <v>3.3</v>
@@ -829,7 +829,7 @@
         <v>2.9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P3" t="n">
         <v>1.65</v>
@@ -847,10 +847,10 @@
         <v>1.97</v>
       </c>
       <c r="U3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.84</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.83</v>
       </c>
       <c r="W3" t="n">
         <v>1.32</v>
@@ -940,16 +940,16 @@
         <v>3.7</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="H4" t="n">
         <v>1.6</v>
       </c>
       <c r="I4" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>4.1</v>
       </c>
       <c r="K4" t="n">
         <v>1000</v>
@@ -961,7 +961,7 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>2.72</v>
+        <v>2.82</v>
       </c>
       <c r="O4" t="n">
         <v>1.25</v>
@@ -973,10 +973,10 @@
         <v>1.71</v>
       </c>
       <c r="R4" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="S4" t="n">
-        <v>2.18</v>
+        <v>2.66</v>
       </c>
       <c r="T4" t="n">
         <v>1.04</v>
@@ -985,10 +985,10 @@
         <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="G5" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>980</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>1.4</v>
@@ -1096,16 +1096,16 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="O5" t="n">
         <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="R5" t="n">
         <v>1.18</v>
@@ -1120,10 +1120,10 @@
         <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="W5" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="G6" t="n">
         <v>1.5</v>
@@ -1222,10 +1222,10 @@
         <v>4.1</v>
       </c>
       <c r="K6" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
@@ -1237,22 +1237,22 @@
         <v>1.28</v>
       </c>
       <c r="P6" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="R6" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S6" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="T6" t="n">
-        <v>1.76</v>
+        <v>1.04</v>
       </c>
       <c r="U6" t="n">
-        <v>1.52</v>
+        <v>1.04</v>
       </c>
       <c r="V6" t="n">
         <v>1.1</v>
@@ -1273,7 +1273,7 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
         <v>1000</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="G7" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="H7" t="n">
         <v>10</v>
@@ -1393,7 +1393,7 @@
         <v>1.08</v>
       </c>
       <c r="W7" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="X7" t="n">
         <v>23</v>
@@ -1492,10 +1492,10 @@
         <v>3.5</v>
       </c>
       <c r="K8" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1510,7 +1510,7 @@
         <v>1.93</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R8" t="n">
         <v>1.35</v>
@@ -1522,10 +1522,10 @@
         <v>1.73</v>
       </c>
       <c r="U8" t="n">
-        <v>1.96</v>
+        <v>2.12</v>
       </c>
       <c r="V8" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="W8" t="n">
         <v>1.64</v>
@@ -1615,19 +1615,19 @@
         <v>1.5</v>
       </c>
       <c r="G9" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="H9" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="I9" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J9" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="K9" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L9" t="n">
         <v>1.31</v>
@@ -1642,7 +1642,7 @@
         <v>1.23</v>
       </c>
       <c r="P9" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="Q9" t="n">
         <v>1.69</v>
@@ -1654,7 +1654,7 @@
         <v>2.74</v>
       </c>
       <c r="T9" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U9" t="n">
         <v>1.96</v>
@@ -1663,7 +1663,7 @@
         <v>1.14</v>
       </c>
       <c r="W9" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="X9" t="n">
         <v>22</v>
@@ -1687,7 +1687,7 @@
         <v>29</v>
       </c>
       <c r="AE9" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AF9" t="n">
         <v>9.800000000000001</v>
@@ -1699,7 +1699,7 @@
         <v>980</v>
       </c>
       <c r="AI9" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AJ9" t="n">
         <v>13.5</v>
@@ -1750,13 +1750,13 @@
         <v>2.14</v>
       </c>
       <c r="G10" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H10" t="n">
         <v>3.55</v>
       </c>
       <c r="I10" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
         <v>3.45</v>
@@ -1771,22 +1771,22 @@
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="O10" t="n">
         <v>1.26</v>
       </c>
       <c r="P10" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q10" t="n">
         <v>1.78</v>
       </c>
       <c r="R10" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="S10" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="T10" t="n">
         <v>1.65</v>
@@ -1795,7 +1795,7 @@
         <v>2.3</v>
       </c>
       <c r="V10" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W10" t="n">
         <v>1.78</v>
@@ -1804,7 +1804,7 @@
         <v>18</v>
       </c>
       <c r="Y10" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z10" t="n">
         <v>29</v>
@@ -1822,7 +1822,7 @@
         <v>16</v>
       </c>
       <c r="AE10" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AF10" t="n">
         <v>15.5</v>
@@ -1834,25 +1834,25 @@
         <v>16</v>
       </c>
       <c r="AI10" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AJ10" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AK10" t="n">
         <v>23</v>
       </c>
       <c r="AL10" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AM10" t="n">
         <v>75</v>
       </c>
       <c r="AN10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO10" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
     </row>
     <row r="11">
@@ -1894,19 +1894,19 @@
         <v>2.8</v>
       </c>
       <c r="J11" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K11" t="n">
         <v>3.75</v>
       </c>
       <c r="L11" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M11" t="n">
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="O11" t="n">
         <v>1.01</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="G12" t="n">
         <v>5.8</v>
@@ -2032,43 +2032,43 @@
         <v>3.45</v>
       </c>
       <c r="K12" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>1.96</v>
+        <v>3.9</v>
       </c>
       <c r="O12" t="n">
         <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>1.96</v>
+        <v>2.16</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="R12" t="n">
-        <v>1.35</v>
+        <v>1.46</v>
       </c>
       <c r="S12" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T12" t="n">
-        <v>1.04</v>
+        <v>1.57</v>
       </c>
       <c r="U12" t="n">
-        <v>1.04</v>
+        <v>2.02</v>
       </c>
       <c r="V12" t="n">
         <v>2.06</v>
       </c>
       <c r="W12" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="G13" t="n">
         <v>2.18</v>
       </c>
       <c r="H13" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="I13" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="J13" t="n">
         <v>3.2</v>
@@ -2173,19 +2173,19 @@
         <v>1.27</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P13" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R13" t="n">
         <v>1.37</v>
@@ -2215,13 +2215,13 @@
         <v>980</v>
       </c>
       <c r="AA13" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AB13" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AC13" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AD13" t="n">
         <v>980</v>
@@ -2233,7 +2233,7 @@
         <v>980</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AH13" t="n">
         <v>980</v>
@@ -2296,7 +2296,7 @@
         <v>2.92</v>
       </c>
       <c r="I14" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="J14" t="n">
         <v>3.6</v>
@@ -2314,7 +2314,7 @@
         <v>4.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P14" t="n">
         <v>2.2</v>
@@ -2335,7 +2335,7 @@
         <v>2.34</v>
       </c>
       <c r="V14" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="W14" t="n">
         <v>1.67</v>
@@ -2368,13 +2368,13 @@
         <v>21</v>
       </c>
       <c r="AG14" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
         <v>18.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AJ14" t="n">
         <v>38</v>
@@ -2383,7 +2383,7 @@
         <v>28</v>
       </c>
       <c r="AL14" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AM14" t="n">
         <v>80</v>
@@ -2392,7 +2392,7 @@
         <v>17</v>
       </c>
       <c r="AO14" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
@@ -2476,58 +2476,58 @@
         <v>1.56</v>
       </c>
       <c r="X15" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="Y15" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="Z15" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AA15" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AB15" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AC15" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AD15" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AE15" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AF15" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AG15" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AH15" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AI15" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AJ15" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AK15" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AL15" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AM15" t="n">
         <v>70</v>
       </c>
       <c r="AN15" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AO15" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
     </row>
     <row r="16">
@@ -2635,7 +2635,7 @@
         <v>21</v>
       </c>
       <c r="AF16" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AG16" t="n">
         <v>21</v>
@@ -2644,7 +2644,7 @@
         <v>21</v>
       </c>
       <c r="AI16" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AJ16" t="n">
         <v>1000</v>
@@ -3034,7 +3034,7 @@
         <v>11.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AE19" t="n">
         <v>180</v>
@@ -3046,7 +3046,7 @@
         <v>11</v>
       </c>
       <c r="AH19" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AI19" t="n">
         <v>160</v>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="G21" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H21" t="n">
         <v>4.2</v>
@@ -3244,7 +3244,7 @@
         <v>5.1</v>
       </c>
       <c r="J21" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="K21" t="n">
         <v>4.5</v>
@@ -3262,7 +3262,7 @@
         <v>1.32</v>
       </c>
       <c r="P21" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="Q21" t="n">
         <v>1.96</v>
@@ -3277,22 +3277,22 @@
         <v>1.81</v>
       </c>
       <c r="U21" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V21" t="n">
         <v>1.25</v>
       </c>
       <c r="W21" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="X21" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="Y21" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="Z21" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AA21" t="n">
         <v>130</v>
@@ -3304,37 +3304,37 @@
         <v>10</v>
       </c>
       <c r="AD21" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AE21" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF21" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AG21" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AH21" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AI21" t="n">
         <v>85</v>
       </c>
       <c r="AJ21" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AK21" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AL21" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AM21" t="n">
         <v>140</v>
       </c>
       <c r="AN21" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AO21" t="n">
         <v>90</v>
@@ -3397,7 +3397,7 @@
         <v>1.2</v>
       </c>
       <c r="P22" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="Q22" t="n">
         <v>1.59</v>
@@ -3421,7 +3421,7 @@
         <v>4.3</v>
       </c>
       <c r="X22" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="Y22" t="n">
         <v>60</v>
@@ -3433,10 +3433,10 @@
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AC22" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AD22" t="n">
         <v>75</v>
@@ -3445,10 +3445,10 @@
         <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>960</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG22" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AH22" t="n">
         <v>55</v>
@@ -3457,10 +3457,10 @@
         <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>960</v>
+        <v>11</v>
       </c>
       <c r="AK22" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AL22" t="n">
         <v>60</v>
@@ -3469,7 +3469,7 @@
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="G23" t="n">
         <v>2.24</v>
@@ -3514,7 +3514,7 @@
         <v>3.5</v>
       </c>
       <c r="J23" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K23" t="n">
         <v>4.1</v>
@@ -3556,25 +3556,25 @@
         <v>1.8</v>
       </c>
       <c r="X23" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z23" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AA23" t="n">
-        <v>960</v>
+        <v>70</v>
       </c>
       <c r="AB23" t="n">
         <v>15</v>
       </c>
       <c r="AC23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD23" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE23" t="n">
         <v>36</v>
@@ -3586,13 +3586,13 @@
         <v>12.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AI23" t="n">
         <v>40</v>
       </c>
       <c r="AJ23" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AK23" t="n">
         <v>22</v>
@@ -3601,13 +3601,13 @@
         <v>32</v>
       </c>
       <c r="AM23" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN23" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
@@ -3691,10 +3691,10 @@
         <v>3.1</v>
       </c>
       <c r="X24" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="Y24" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="Z24" t="n">
         <v>90</v>
@@ -3703,43 +3703,43 @@
         <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AC24" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AD24" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AE24" t="n">
         <v>120</v>
       </c>
       <c r="AF24" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AG24" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AH24" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AI24" t="n">
         <v>95</v>
       </c>
       <c r="AJ24" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AK24" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AL24" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AM24" t="n">
         <v>110</v>
       </c>
       <c r="AN24" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AO24" t="n">
         <v>110</v>
@@ -3772,10 +3772,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="G25" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H25" t="n">
         <v>2.22</v>
@@ -3814,7 +3814,7 @@
         <v>2.96</v>
       </c>
       <c r="T25" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U25" t="n">
         <v>2.22</v>
@@ -3823,7 +3823,7 @@
         <v>1.68</v>
       </c>
       <c r="W25" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="X25" t="n">
         <v>17.5</v>
@@ -3865,7 +3865,7 @@
         <v>60</v>
       </c>
       <c r="AK25" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AL25" t="n">
         <v>980</v>
@@ -3940,10 +3940,10 @@
         <v>1.76</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R26" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="S26" t="n">
         <v>3.15</v>
@@ -4060,7 +4060,7 @@
         <v>3.95</v>
       </c>
       <c r="L27" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="M27" t="n">
         <v>1.06</v>
@@ -4183,7 +4183,7 @@
         <v>2.7</v>
       </c>
       <c r="H28" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="I28" t="n">
         <v>3.35</v>
@@ -4210,7 +4210,7 @@
         <v>1.91</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R28" t="n">
         <v>1.35</v>
@@ -4303,121 +4303,121 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Tamworth FC</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.51</v>
+        <v>1.34</v>
       </c>
       <c r="G29" t="n">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="H29" t="n">
-        <v>6.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I29" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="J29" t="n">
-        <v>4.4</v>
+        <v>5.6</v>
       </c>
       <c r="K29" t="n">
-        <v>5.1</v>
+        <v>6.8</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="P29" t="n">
-        <v>2.14</v>
+        <v>2.9</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.71</v>
+        <v>1.43</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z29" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AK29" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AL29" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM29" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AO29" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30">
@@ -4438,121 +4438,121 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Tamworth FC</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="G30" t="n">
-        <v>1.28</v>
+        <v>1.53</v>
       </c>
       <c r="H30" t="n">
-        <v>10</v>
+        <v>6.6</v>
       </c>
       <c r="I30" t="n">
-        <v>13</v>
+        <v>8.4</v>
       </c>
       <c r="J30" t="n">
-        <v>6.6</v>
+        <v>4.6</v>
       </c>
       <c r="K30" t="n">
-        <v>11</v>
+        <v>5.1</v>
       </c>
       <c r="L30" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>3.65</v>
+        <v>2.14</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.29</v>
+        <v>1.72</v>
       </c>
       <c r="R30" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB30" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AC30" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE30" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF30" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AG30" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AH30" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AI30" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ30" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AK30" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AL30" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AM30" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN30" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -4573,121 +4573,121 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>5.3</v>
+        <v>1.25</v>
       </c>
       <c r="G31" t="n">
-        <v>5.9</v>
+        <v>1.28</v>
       </c>
       <c r="H31" t="n">
-        <v>1.64</v>
+        <v>10</v>
       </c>
       <c r="I31" t="n">
-        <v>1.79</v>
+        <v>13</v>
       </c>
       <c r="J31" t="n">
-        <v>3.8</v>
+        <v>6.6</v>
       </c>
       <c r="K31" t="n">
-        <v>4.5</v>
+        <v>11</v>
       </c>
       <c r="L31" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>3.8</v>
+        <v>8</v>
       </c>
       <c r="O31" t="n">
-        <v>1.28</v>
+        <v>1.09</v>
       </c>
       <c r="P31" t="n">
-        <v>1.98</v>
+        <v>3.65</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.83</v>
+        <v>1.29</v>
       </c>
       <c r="R31" t="n">
-        <v>1.37</v>
+        <v>2.1</v>
       </c>
       <c r="S31" t="n">
-        <v>3.05</v>
+        <v>1.62</v>
       </c>
       <c r="T31" t="n">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
       <c r="U31" t="n">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="V31" t="n">
-        <v>2.26</v>
+        <v>1.08</v>
       </c>
       <c r="W31" t="n">
-        <v>1.2</v>
+        <v>4.4</v>
       </c>
       <c r="X31" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y31" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z31" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AA31" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AC31" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AD31" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE31" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AG31" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AH31" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AI31" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>190</v>
+        <v>14</v>
       </c>
       <c r="AK31" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AL31" t="n">
-        <v>95</v>
+        <v>980</v>
       </c>
       <c r="AM31" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>120</v>
+        <v>2.96</v>
       </c>
       <c r="AO31" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
@@ -4708,121 +4708,121 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Braintree</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.28</v>
+        <v>5.3</v>
       </c>
       <c r="G32" t="n">
-        <v>2.6</v>
+        <v>5.9</v>
       </c>
       <c r="H32" t="n">
-        <v>2.86</v>
+        <v>1.64</v>
       </c>
       <c r="I32" t="n">
-        <v>3.35</v>
+        <v>1.79</v>
       </c>
       <c r="J32" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="K32" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L32" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M32" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N32" t="n">
-        <v>3.05</v>
+        <v>3.8</v>
       </c>
       <c r="O32" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="P32" t="n">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="R32" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="S32" t="n">
-        <v>2.56</v>
+        <v>3.1</v>
       </c>
       <c r="T32" t="n">
-        <v>1.04</v>
+        <v>1.83</v>
       </c>
       <c r="U32" t="n">
-        <v>1.04</v>
+        <v>1.97</v>
       </c>
       <c r="V32" t="n">
-        <v>1.42</v>
+        <v>2.26</v>
       </c>
       <c r="W32" t="n">
-        <v>1.62</v>
+        <v>1.2</v>
       </c>
       <c r="X32" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y32" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AB32" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AC32" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE32" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AF32" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AG32" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AH32" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI32" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AK32" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="AL32" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM32" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN32" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AO32" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
@@ -4843,121 +4843,121 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Braintree</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.41</v>
+        <v>2.12</v>
       </c>
       <c r="G33" t="n">
-        <v>1.57</v>
+        <v>2.86</v>
       </c>
       <c r="H33" t="n">
-        <v>5.6</v>
+        <v>2.56</v>
       </c>
       <c r="I33" t="n">
-        <v>1000</v>
+        <v>3.65</v>
       </c>
       <c r="J33" t="n">
-        <v>3.95</v>
+        <v>3.5</v>
       </c>
       <c r="K33" t="n">
-        <v>9.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P33" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34">
@@ -4978,121 +4978,121 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="G34" t="n">
-        <v>1.35</v>
+        <v>1.57</v>
       </c>
       <c r="H34" t="n">
-        <v>8.199999999999999</v>
+        <v>5.6</v>
       </c>
       <c r="I34" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="J34" t="n">
-        <v>5.6</v>
+        <v>3.95</v>
       </c>
       <c r="K34" t="n">
-        <v>6.8</v>
+        <v>9</v>
       </c>
       <c r="L34" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.9</v>
+        <v>1.94</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.43</v>
+        <v>1.64</v>
       </c>
       <c r="R34" t="n">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="Z34" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AA34" t="n">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="AB34" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AC34" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AD34" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AE34" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AF34" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AG34" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AH34" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AI34" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AJ34" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AK34" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AL34" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AM34" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AN34" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AO34" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -5122,67 +5122,67 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="G35" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="H35" t="n">
         <v>3.1</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="J35" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K35" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L35" t="n">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="M35" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N35" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="O35" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="P35" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="R35" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S35" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T35" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="U35" t="n">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="V35" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="W35" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="X35" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Z35" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA35" t="n">
         <v>80</v>
@@ -5194,25 +5194,25 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD35" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AE35" t="n">
         <v>60</v>
       </c>
       <c r="AF35" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH35" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI35" t="n">
         <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AK35" t="n">
         <v>40</v>
@@ -5224,7 +5224,7 @@
         <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AO35" t="n">
         <v>65</v>
@@ -5392,40 +5392,40 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="G37" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="H37" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="I37" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="J37" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K37" t="n">
-        <v>980</v>
+        <v>4.3</v>
       </c>
       <c r="L37" t="n">
         <v>1.39</v>
       </c>
       <c r="M37" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N37" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="O37" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="P37" t="n">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="R37" t="n">
         <v>1.23</v>
@@ -5434,16 +5434,16 @@
         <v>3.7</v>
       </c>
       <c r="T37" t="n">
-        <v>1.04</v>
+        <v>1.78</v>
       </c>
       <c r="U37" t="n">
-        <v>1.04</v>
+        <v>1.72</v>
       </c>
       <c r="V37" t="n">
-        <v>1.73</v>
+        <v>1.9</v>
       </c>
       <c r="W37" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="X37" t="n">
         <v>14</v>
@@ -5464,7 +5464,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD37" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AE37" t="n">
         <v>29</v>
@@ -5527,16 +5527,16 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G38" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="H38" t="n">
         <v>2.98</v>
       </c>
       <c r="I38" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J38" t="n">
         <v>2.98</v>
@@ -5551,19 +5551,19 @@
         <v>1.06</v>
       </c>
       <c r="N38" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O38" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P38" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="Q38" t="n">
         <v>1.96</v>
       </c>
       <c r="R38" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S38" t="n">
         <v>3.1</v>
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="G39" t="n">
         <v>5.7</v>
@@ -5671,13 +5671,13 @@
         <v>1.64</v>
       </c>
       <c r="I39" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="J39" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K39" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L39" t="n">
         <v>1.01</v>
@@ -5686,31 +5686,31 @@
         <v>1.03</v>
       </c>
       <c r="N39" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="O39" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P39" t="n">
-        <v>2.36</v>
+        <v>2.46</v>
       </c>
       <c r="Q39" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R39" t="n">
         <v>1.59</v>
       </c>
-      <c r="R39" t="n">
-        <v>1.54</v>
-      </c>
       <c r="S39" t="n">
-        <v>2.46</v>
+        <v>2.28</v>
       </c>
       <c r="T39" t="n">
         <v>1.55</v>
       </c>
       <c r="U39" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V39" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="W39" t="n">
         <v>1.21</v>
@@ -5719,7 +5719,7 @@
         <v>980</v>
       </c>
       <c r="Y39" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z39" t="n">
         <v>15</v>
@@ -5746,7 +5746,7 @@
         <v>980</v>
       </c>
       <c r="AH39" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AI39" t="n">
         <v>980</v>
@@ -5758,16 +5758,16 @@
         <v>70</v>
       </c>
       <c r="AL39" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM39" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN39" t="n">
         <v>1000</v>
       </c>
       <c r="AO39" t="n">
-        <v>9.199999999999999</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40">
@@ -5803,16 +5803,16 @@
         <v>2.14</v>
       </c>
       <c r="H40" t="n">
-        <v>1.87</v>
+        <v>4.3</v>
       </c>
       <c r="I40" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="J40" t="n">
-        <v>1.87</v>
+        <v>2.96</v>
       </c>
       <c r="K40" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="L40" t="n">
         <v>1.01</v>
@@ -5821,7 +5821,7 @@
         <v>1.01</v>
       </c>
       <c r="N40" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="O40" t="n">
         <v>1.01</v>
@@ -5833,10 +5833,10 @@
         <v>2.16</v>
       </c>
       <c r="R40" t="n">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="S40" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="T40" t="n">
         <v>1.04</v>
@@ -5845,10 +5845,10 @@
         <v>1.04</v>
       </c>
       <c r="V40" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="W40" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="X40" t="n">
         <v>1000</v>
@@ -6073,16 +6073,16 @@
         <v>3.4</v>
       </c>
       <c r="H42" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="I42" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J42" t="n">
         <v>2.88</v>
       </c>
       <c r="K42" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="L42" t="n">
         <v>1.01</v>
@@ -6106,7 +6106,7 @@
         <v>1.19</v>
       </c>
       <c r="S42" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="T42" t="n">
         <v>1.04</v>
@@ -6193,118 +6193,118 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Remo</t>
+          <t>Vila Nova</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3.95</v>
+        <v>1.71</v>
       </c>
       <c r="G43" t="n">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="H43" t="n">
-        <v>1.8</v>
+        <v>5.3</v>
       </c>
       <c r="I43" t="n">
-        <v>1.99</v>
+        <v>6.4</v>
       </c>
       <c r="J43" t="n">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="K43" t="n">
-        <v>5.9</v>
+        <v>4.2</v>
       </c>
       <c r="L43" t="n">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="M43" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N43" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O43" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="P43" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="R43" t="n">
         <v>1.31</v>
       </c>
       <c r="S43" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="T43" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="U43" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="V43" t="n">
-        <v>2</v>
+        <v>1.18</v>
       </c>
       <c r="W43" t="n">
-        <v>1.33</v>
+        <v>2.32</v>
       </c>
       <c r="X43" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Y43" t="n">
-        <v>10.5</v>
+        <v>22</v>
       </c>
       <c r="Z43" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AA43" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ43" t="n">
         <v>23</v>
       </c>
-      <c r="AB43" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>36</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>110</v>
-      </c>
       <c r="AK43" t="n">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="AL43" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="AM43" t="n">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="AN43" t="n">
-        <v>80</v>
+        <v>15.5</v>
       </c>
       <c r="AO43" t="n">
         <v>1000</v>
@@ -6328,121 +6328,121 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Vila Nova</t>
+          <t>Remo</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.68</v>
+        <v>4</v>
       </c>
       <c r="G44" t="n">
-        <v>1.75</v>
+        <v>4.2</v>
       </c>
       <c r="H44" t="n">
-        <v>5.3</v>
+        <v>1.93</v>
       </c>
       <c r="I44" t="n">
-        <v>6.4</v>
+        <v>1.96</v>
       </c>
       <c r="J44" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="K44" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="L44" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="M44" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N44" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O44" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="P44" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="R44" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V44" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="W44" t="n">
         <v>1.31</v>
       </c>
-      <c r="S44" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T44" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U44" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V44" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="W44" t="n">
-        <v>2.32</v>
-      </c>
       <c r="X44" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Y44" t="n">
-        <v>18.5</v>
+        <v>10</v>
       </c>
       <c r="Z44" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AA44" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AB44" t="n">
-        <v>8.199999999999999</v>
+        <v>16</v>
       </c>
       <c r="AC44" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AD44" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="AE44" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AF44" t="n">
-        <v>10.5</v>
+        <v>34</v>
       </c>
       <c r="AG44" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH44" t="n">
         <v>23</v>
       </c>
       <c r="AI44" t="n">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="AJ44" t="n">
-        <v>19.5</v>
+        <v>100</v>
       </c>
       <c r="AK44" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="AL44" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AM44" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN44" t="n">
-        <v>13.5</v>
+        <v>65</v>
       </c>
       <c r="AO44" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="45">
@@ -6499,7 +6499,7 @@
         <v>2.74</v>
       </c>
       <c r="O45" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P45" t="n">
         <v>1.58</v>
@@ -6583,7 +6583,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6598,121 +6598,121 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Granada</t>
+          <t>San Martin de San Juan</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.89</v>
+        <v>2.9</v>
       </c>
       <c r="G46" t="n">
-        <v>1.95</v>
+        <v>3.2</v>
       </c>
       <c r="H46" t="n">
-        <v>4.2</v>
+        <v>3.05</v>
       </c>
       <c r="I46" t="n">
-        <v>4.7</v>
+        <v>3.45</v>
       </c>
       <c r="J46" t="n">
-        <v>3.85</v>
+        <v>2.7</v>
       </c>
       <c r="K46" t="n">
-        <v>4.3</v>
+        <v>3.05</v>
       </c>
       <c r="L46" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.16</v>
+        <v>1.38</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.75</v>
+        <v>2.78</v>
       </c>
       <c r="R46" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="Z46" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AA46" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AB46" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AC46" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD46" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AE46" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AF46" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AG46" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AH46" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AI46" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AJ46" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AK46" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AL46" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AM46" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AN46" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO46" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -6733,31 +6733,31 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Godoy Cruz</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>San Martin de San Juan</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.9</v>
+        <v>1.91</v>
       </c>
       <c r="G47" t="n">
-        <v>3.2</v>
+        <v>2.04</v>
       </c>
       <c r="H47" t="n">
-        <v>3.05</v>
+        <v>4.4</v>
       </c>
       <c r="I47" t="n">
-        <v>3.45</v>
+        <v>7.4</v>
       </c>
       <c r="J47" t="n">
-        <v>2.72</v>
+        <v>2.96</v>
       </c>
       <c r="K47" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -6772,10 +6772,10 @@
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.78</v>
+        <v>2.98</v>
       </c>
       <c r="R47" t="n">
         <v>0</v>
@@ -6853,7 +6853,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6868,127 +6868,127 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Godoy Cruz</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="G48" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="H48" t="n">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="I48" t="n">
-        <v>7.4</v>
+        <v>4.1</v>
       </c>
       <c r="J48" t="n">
-        <v>2.96</v>
+        <v>4.1</v>
       </c>
       <c r="K48" t="n">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P48" t="n">
-        <v>1.35</v>
+        <v>2.54</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.98</v>
+        <v>1.51</v>
       </c>
       <c r="R48" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="S48" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="T48" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="U48" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="V48" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="W48" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="X48" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y48" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Z48" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA48" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AB48" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AC48" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD48" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE48" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF48" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG48" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH48" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AI48" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ48" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK48" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL48" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM48" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AN48" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO48" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -7003,115 +7003,115 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>Granada</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="G49" t="n">
-        <v>2.12</v>
+        <v>1.95</v>
       </c>
       <c r="H49" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="I49" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="J49" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="K49" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="L49" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M49" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N49" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="O49" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="P49" t="n">
-        <v>2.54</v>
+        <v>2.16</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.51</v>
+        <v>1.75</v>
       </c>
       <c r="R49" t="n">
-        <v>1.63</v>
+        <v>1.45</v>
       </c>
       <c r="S49" t="n">
-        <v>2.28</v>
+        <v>2.88</v>
       </c>
       <c r="T49" t="n">
-        <v>1.45</v>
+        <v>1.71</v>
       </c>
       <c r="U49" t="n">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="V49" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="W49" t="n">
-        <v>1.89</v>
+        <v>2.04</v>
       </c>
       <c r="X49" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="Y49" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="Z49" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AA49" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AB49" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AC49" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF49" t="n">
         <v>13</v>
       </c>
-      <c r="AD49" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>980</v>
-      </c>
       <c r="AG49" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AH49" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI49" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AJ49" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AK49" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AL49" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AM49" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AN49" t="n">
         <v>11</v>
@@ -7123,7 +7123,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -7133,132 +7133,132 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Jaguares de Cordoba</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>11.5</v>
+        <v>2.14</v>
       </c>
       <c r="G50" t="n">
-        <v>13.5</v>
+        <v>2.86</v>
       </c>
       <c r="H50" t="n">
-        <v>1.34</v>
+        <v>2.86</v>
       </c>
       <c r="I50" t="n">
-        <v>1.36</v>
+        <v>3.95</v>
       </c>
       <c r="J50" t="n">
-        <v>5.5</v>
+        <v>2.74</v>
       </c>
       <c r="K50" t="n">
-        <v>5.9</v>
+        <v>980</v>
       </c>
       <c r="L50" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="M50" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N50" t="n">
-        <v>3.85</v>
+        <v>1.56</v>
       </c>
       <c r="O50" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="P50" t="n">
-        <v>2.02</v>
+        <v>1.56</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.87</v>
+        <v>1.54</v>
       </c>
       <c r="R50" t="n">
-        <v>1.38</v>
+        <v>1.17</v>
       </c>
       <c r="S50" t="n">
-        <v>3.2</v>
+        <v>2.96</v>
       </c>
       <c r="T50" t="n">
-        <v>2.34</v>
+        <v>1.04</v>
       </c>
       <c r="U50" t="n">
-        <v>1.64</v>
+        <v>1.04</v>
       </c>
       <c r="V50" t="n">
-        <v>3.75</v>
+        <v>1.33</v>
       </c>
       <c r="W50" t="n">
-        <v>1.08</v>
+        <v>1.53</v>
       </c>
       <c r="X50" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y50" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="Z50" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AA50" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AB50" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC50" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD50" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE50" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AF50" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AG50" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AH50" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AI50" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ50" t="n">
-        <v>760</v>
+        <v>1000</v>
       </c>
       <c r="AK50" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AL50" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AM50" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AN50" t="n">
-        <v>520</v>
+        <v>1000</v>
       </c>
       <c r="AO50" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -7268,261 +7268,666 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>San Lorenzo</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Sarmiento de Junin</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.77</v>
+        <v>12</v>
       </c>
       <c r="G51" t="n">
-        <v>1.88</v>
+        <v>14.5</v>
       </c>
       <c r="H51" t="n">
-        <v>6.4</v>
+        <v>1.33</v>
       </c>
       <c r="I51" t="n">
-        <v>8.199999999999999</v>
+        <v>1.36</v>
       </c>
       <c r="J51" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K51" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N51" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S51" t="n">
         <v>3.2</v>
       </c>
-      <c r="K51" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" t="n">
-        <v>0</v>
-      </c>
-      <c r="O51" t="n">
-        <v>0</v>
-      </c>
-      <c r="P51" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>3</v>
-      </c>
-      <c r="R51" t="n">
-        <v>0</v>
-      </c>
-      <c r="S51" t="n">
-        <v>0</v>
-      </c>
       <c r="T51" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="U51" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="V51" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="W51" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="X51" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Y51" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="Z51" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AA51" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB51" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AC51" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD51" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE51" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AF51" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AG51" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AH51" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AI51" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ51" t="n">
-        <v>0</v>
+        <v>760</v>
       </c>
       <c r="AK51" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AL51" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="AM51" t="n">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="AN51" t="n">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="AO51" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
+          <t>Uruguayan Segunda Division</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Atenas</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Tacuarembo</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G52" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H52" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I52" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K52" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U52" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V52" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>19:15:00</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>San Lorenzo</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Sarmiento de Junin</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H53" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I53" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J53" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K53" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
           <t>Colombian Primera B</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>2025-11-15</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>20:20:00</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>Boyaca Patriotas</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>Boca Juniors de Cali</t>
         </is>
       </c>
-      <c r="F52" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="G52" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="K52" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" t="n">
-        <v>0</v>
-      </c>
-      <c r="O52" t="n">
-        <v>0</v>
-      </c>
-      <c r="P52" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R52" t="n">
-        <v>0</v>
-      </c>
-      <c r="S52" t="n">
-        <v>0</v>
-      </c>
-      <c r="T52" t="n">
-        <v>0</v>
-      </c>
-      <c r="U52" t="n">
-        <v>0</v>
-      </c>
-      <c r="V52" t="n">
-        <v>0</v>
-      </c>
-      <c r="W52" t="n">
-        <v>0</v>
-      </c>
-      <c r="X52" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y52" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO52" t="n">
-        <v>0</v>
+      <c r="F54" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H54" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J54" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K54" t="n">
+        <v>8</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="T54" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U54" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V54" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W54" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="X54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>US United Soccer League</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Pittsburgh Riverhounds</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Rhode Island FC</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H55" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I55" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K55" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N55" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T55" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U55" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V55" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="X55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO55"/>
+  <dimension ref="A1:AO58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,58 +667,58 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.5</v>
+        <v>2.66</v>
       </c>
       <c r="G2" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="H2" t="n">
-        <v>2.28</v>
+        <v>2.6</v>
       </c>
       <c r="I2" t="n">
-        <v>3.25</v>
+        <v>2.96</v>
       </c>
       <c r="J2" t="n">
         <v>3.2</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="L2" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>2.52</v>
+        <v>3.05</v>
       </c>
       <c r="O2" t="n">
-        <v>1.02</v>
+        <v>1.32</v>
       </c>
       <c r="P2" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T2" t="n">
         <v>1.73</v>
       </c>
-      <c r="Q2" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.04</v>
-      </c>
       <c r="U2" t="n">
-        <v>1.04</v>
+        <v>1.93</v>
       </c>
       <c r="V2" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="W2" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -736,7 +736,7 @@
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -802,100 +802,100 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.9</v>
+        <v>3.35</v>
       </c>
       <c r="G3" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="H3" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="I3" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
         <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M3" t="n">
         <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="P3" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="R3" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S3" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="T3" t="n">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="U3" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="V3" t="n">
-        <v>1.84</v>
+        <v>1.71</v>
       </c>
       <c r="W3" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="X3" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="Y3" t="n">
-        <v>8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z3" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AB3" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG3" t="n">
         <v>18.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -937,103 +937,103 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="G4" t="n">
-        <v>7.4</v>
+        <v>5.5</v>
       </c>
       <c r="H4" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="I4" t="n">
-        <v>2.06</v>
+        <v>1.87</v>
       </c>
       <c r="J4" t="n">
         <v>4.1</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="L4" t="n">
         <v>1.3</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>2.82</v>
+        <v>3.45</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P4" t="n">
-        <v>1.92</v>
+        <v>2.06</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="R4" t="n">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
       <c r="S4" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="T4" t="n">
-        <v>1.04</v>
+        <v>1.62</v>
       </c>
       <c r="U4" t="n">
-        <v>1.04</v>
+        <v>1.94</v>
       </c>
       <c r="V4" t="n">
-        <v>1.95</v>
+        <v>2.14</v>
       </c>
       <c r="W4" t="n">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -1063,67 +1063,67 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ASD Pineto Calcio</t>
+          <t>Crotone</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Carpi</t>
+          <t>Sorrento</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.9</v>
+        <v>1.41</v>
       </c>
       <c r="G5" t="n">
-        <v>2.48</v>
+        <v>1.5</v>
       </c>
       <c r="H5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="I5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N5" t="n">
         <v>3.6</v>
       </c>
-      <c r="I5" t="n">
-        <v>7</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="O5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W5" t="n">
         <v>3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>5</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.67</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1198,55 +1198,55 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Crotone</t>
+          <t>ASD Pineto Calcio</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sorrento</t>
+          <t>Carpi</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.42</v>
+        <v>1.9</v>
       </c>
       <c r="G6" t="n">
-        <v>1.5</v>
+        <v>2.48</v>
       </c>
       <c r="H6" t="n">
-        <v>1.09</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>980</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M6" t="n">
         <v>1.01</v>
       </c>
-      <c r="M6" t="n">
-        <v>1.05</v>
-      </c>
       <c r="N6" t="n">
-        <v>3.35</v>
+        <v>1.86</v>
       </c>
       <c r="O6" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>1.87</v>
+        <v>1.52</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.81</v>
+        <v>2.16</v>
       </c>
       <c r="R6" t="n">
-        <v>1.37</v>
+        <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T6" t="n">
         <v>1.04</v>
@@ -1255,10 +1255,10 @@
         <v>1.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="W6" t="n">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1345,25 +1345,25 @@
         <v>1.34</v>
       </c>
       <c r="G7" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="I7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="J7" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
         <v>4.3</v>
@@ -1381,7 +1381,7 @@
         <v>1.45</v>
       </c>
       <c r="S7" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="T7" t="n">
         <v>2.06</v>
@@ -1390,13 +1390,13 @@
         <v>1.76</v>
       </c>
       <c r="V7" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W7" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="X7" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Y7" t="n">
         <v>38</v>
@@ -1441,13 +1441,13 @@
         <v>42</v>
       </c>
       <c r="AM7" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN7" t="n">
         <v>6.2</v>
       </c>
       <c r="AO7" t="n">
-        <v>310</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8">
@@ -1477,58 +1477,58 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="G8" t="n">
-        <v>2.56</v>
+        <v>2.72</v>
       </c>
       <c r="H8" t="n">
-        <v>2.86</v>
+        <v>2.76</v>
       </c>
       <c r="I8" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="J8" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="L8" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
         <v>3.25</v>
       </c>
       <c r="O8" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P8" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="R8" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S8" t="n">
         <v>2.98</v>
       </c>
       <c r="T8" t="n">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="U8" t="n">
         <v>2.12</v>
       </c>
       <c r="V8" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="W8" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1621,13 +1621,13 @@
         <v>7</v>
       </c>
       <c r="I9" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
         <v>4.7</v>
       </c>
       <c r="K9" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L9" t="n">
         <v>1.31</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="G10" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="H10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J10" t="n">
         <v>3.55</v>
       </c>
-      <c r="I10" t="n">
-        <v>4</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.45</v>
-      </c>
       <c r="K10" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L10" t="n">
         <v>1.35</v>
@@ -1780,34 +1780,34 @@
         <v>2.08</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="R10" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="S10" t="n">
         <v>3</v>
       </c>
       <c r="T10" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="U10" t="n">
         <v>2.3</v>
       </c>
       <c r="V10" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W10" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="X10" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y10" t="n">
         <v>16.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA10" t="n">
         <v>70</v>
@@ -1882,25 +1882,25 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="G11" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="H11" t="n">
-        <v>2.54</v>
+        <v>2.46</v>
       </c>
       <c r="I11" t="n">
         <v>2.8</v>
       </c>
       <c r="J11" t="n">
-        <v>3.15</v>
+        <v>2.98</v>
       </c>
       <c r="K11" t="n">
         <v>3.75</v>
       </c>
       <c r="L11" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M11" t="n">
         <v>1.01</v>
@@ -1933,7 +1933,7 @@
         <v>1.55</v>
       </c>
       <c r="W11" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="G12" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="H12" t="n">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="I12" t="n">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="J12" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K12" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
@@ -2044,19 +2044,19 @@
         <v>3.9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P12" t="n">
-        <v>2.16</v>
+        <v>1.99</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="R12" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="S12" t="n">
-        <v>2.48</v>
+        <v>2.68</v>
       </c>
       <c r="T12" t="n">
         <v>1.57</v>
@@ -2065,10 +2065,10 @@
         <v>2.02</v>
       </c>
       <c r="V12" t="n">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="W12" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2155,13 +2155,13 @@
         <v>1.96</v>
       </c>
       <c r="G13" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H13" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="J13" t="n">
         <v>3.2</v>
@@ -2176,13 +2176,13 @@
         <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O13" t="n">
         <v>1.26</v>
       </c>
       <c r="P13" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q13" t="n">
         <v>1.66</v>
@@ -2191,7 +2191,7 @@
         <v>1.37</v>
       </c>
       <c r="S13" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="T13" t="n">
         <v>1.58</v>
@@ -2203,7 +2203,7 @@
         <v>1.3</v>
       </c>
       <c r="W13" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="X13" t="n">
         <v>980</v>
@@ -2221,7 +2221,7 @@
         <v>980</v>
       </c>
       <c r="AC13" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AD13" t="n">
         <v>980</v>
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="G14" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="H14" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="I14" t="n">
         <v>3.45</v>
       </c>
       <c r="J14" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="K14" t="n">
         <v>4.3</v>
@@ -2311,46 +2311,46 @@
         <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P14" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="Q14" t="n">
         <v>1.67</v>
       </c>
       <c r="R14" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="S14" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="T14" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="U14" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="V14" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W14" t="n">
         <v>1.67</v>
       </c>
       <c r="X14" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y14" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Z14" t="n">
         <v>26</v>
       </c>
       <c r="AA14" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB14" t="n">
         <v>14</v>
@@ -2365,7 +2365,7 @@
         <v>40</v>
       </c>
       <c r="AF14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG14" t="n">
         <v>14</v>
@@ -2377,7 +2377,7 @@
         <v>980</v>
       </c>
       <c r="AJ14" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AK14" t="n">
         <v>28</v>
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="G15" t="n">
-        <v>2.84</v>
+        <v>2.96</v>
       </c>
       <c r="H15" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="I15" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="J15" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K15" t="n">
         <v>4.6</v>
@@ -2449,7 +2449,7 @@
         <v>4.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P15" t="n">
         <v>2.24</v>
@@ -2461,7 +2461,7 @@
         <v>1.5</v>
       </c>
       <c r="S15" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="T15" t="n">
         <v>1.54</v>
@@ -2473,7 +2473,7 @@
         <v>1.51</v>
       </c>
       <c r="W15" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="X15" t="n">
         <v>980</v>
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="G16" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="H16" t="n">
         <v>1.77</v>
       </c>
       <c r="I16" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="J16" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K16" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="O16" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="P16" t="n">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.87</v>
+        <v>1.77</v>
       </c>
       <c r="R16" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="S16" t="n">
-        <v>3.25</v>
+        <v>2.96</v>
       </c>
       <c r="T16" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="U16" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V16" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="W16" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="X16" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AA16" t="n">
         <v>21</v>
       </c>
       <c r="AB16" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AD16" t="n">
         <v>11</v>
       </c>
       <c r="AE16" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AF16" t="n">
         <v>980</v>
       </c>
       <c r="AG16" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI16" t="n">
         <v>980</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AK16" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AL16" t="n">
         <v>70</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN16" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AO16" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="17">
@@ -2683,127 +2683,127 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Peterhead</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.4</v>
+        <v>2.04</v>
       </c>
       <c r="G17" t="n">
-        <v>5.2</v>
+        <v>2.34</v>
       </c>
       <c r="H17" t="n">
-        <v>1.77</v>
+        <v>3.35</v>
       </c>
       <c r="I17" t="n">
-        <v>1.9</v>
+        <v>4.1</v>
       </c>
       <c r="J17" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="K17" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="L17" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O17" t="n">
         <v>1.28</v>
       </c>
-      <c r="M17" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N17" t="n">
-        <v>4</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.26</v>
-      </c>
       <c r="P17" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="R17" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="S17" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="T17" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="U17" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
-        <v>2.1</v>
+        <v>1.32</v>
       </c>
       <c r="W17" t="n">
-        <v>1.24</v>
+        <v>1.74</v>
       </c>
       <c r="X17" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="Y17" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="Z17" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AD17" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AE17" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AG17" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AH17" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AI17" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>130</v>
+        <v>980</v>
       </c>
       <c r="AK17" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AL17" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AO17" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Scottish League One</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Peterhead</t>
+          <t>Raith</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Airdrieonians</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.02</v>
+        <v>1.57</v>
       </c>
       <c r="G18" t="n">
-        <v>2.32</v>
+        <v>1.62</v>
       </c>
       <c r="H18" t="n">
-        <v>3.45</v>
+        <v>7.2</v>
       </c>
       <c r="I18" t="n">
-        <v>4.2</v>
+        <v>7.6</v>
       </c>
       <c r="J18" t="n">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="K18" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L18" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R18" t="n">
         <v>1.29</v>
       </c>
-      <c r="M18" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N18" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.38</v>
-      </c>
       <c r="S18" t="n">
-        <v>3.05</v>
+        <v>3.7</v>
       </c>
       <c r="T18" t="n">
-        <v>1.69</v>
+        <v>2.1</v>
       </c>
       <c r="U18" t="n">
-        <v>2.14</v>
+        <v>1.73</v>
       </c>
       <c r="V18" t="n">
-        <v>1.32</v>
+        <v>1.15</v>
       </c>
       <c r="W18" t="n">
-        <v>1.75</v>
+        <v>2.58</v>
       </c>
       <c r="X18" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AC18" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AD18" t="n">
         <v>980</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AF18" t="n">
-        <v>980</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG18" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AH18" t="n">
         <v>980</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ18" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN18" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Raith</t>
+          <t>Ayr</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Airdrieonians</t>
+          <t>Arbroath</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.54</v>
+        <v>1.66</v>
       </c>
       <c r="G19" t="n">
-        <v>1.63</v>
+        <v>1.81</v>
       </c>
       <c r="H19" t="n">
-        <v>7.2</v>
+        <v>5.3</v>
       </c>
       <c r="I19" t="n">
-        <v>7.6</v>
+        <v>6.4</v>
       </c>
       <c r="J19" t="n">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="K19" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="L19" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="M19" t="n">
         <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="O19" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="P19" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="R19" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="S19" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="T19" t="n">
-        <v>2.08</v>
+        <v>1.78</v>
       </c>
       <c r="U19" t="n">
-        <v>1.74</v>
+        <v>1.89</v>
       </c>
       <c r="V19" t="n">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="W19" t="n">
-        <v>2.58</v>
+        <v>2.22</v>
       </c>
       <c r="X19" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="Y19" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK19" t="n">
         <v>23</v>
       </c>
-      <c r="Z19" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>350</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>180</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI19" t="n">
+      <c r="AL19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM19" t="n">
         <v>160</v>
       </c>
-      <c r="AJ19" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>220</v>
-      </c>
       <c r="AN19" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AO19" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -3088,67 +3088,67 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Ayr</t>
+          <t>Ross Co</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Arbroath</t>
+          <t>Morton</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.62</v>
+        <v>1.86</v>
       </c>
       <c r="G20" t="n">
-        <v>1.76</v>
+        <v>2.04</v>
       </c>
       <c r="H20" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="I20" t="n">
-        <v>6.4</v>
+        <v>5.1</v>
       </c>
       <c r="J20" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K20" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="L20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O20" t="n">
         <v>1.32</v>
       </c>
-      <c r="M20" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N20" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.31</v>
-      </c>
       <c r="P20" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="R20" t="n">
         <v>1.32</v>
       </c>
       <c r="S20" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T20" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="U20" t="n">
-        <v>1.75</v>
+        <v>1.98</v>
       </c>
       <c r="V20" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="W20" t="n">
-        <v>2.3</v>
+        <v>1.96</v>
       </c>
       <c r="X20" t="n">
         <v>980</v>
@@ -3157,13 +3157,13 @@
         <v>980</v>
       </c>
       <c r="Z20" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB20" t="n">
-        <v>9.6</v>
+        <v>980</v>
       </c>
       <c r="AC20" t="n">
         <v>980</v>
@@ -3172,7 +3172,7 @@
         <v>980</v>
       </c>
       <c r="AE20" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AF20" t="n">
         <v>980</v>
@@ -3184,7 +3184,7 @@
         <v>980</v>
       </c>
       <c r="AI20" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AJ20" t="n">
         <v>980</v>
@@ -3196,13 +3196,13 @@
         <v>980</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN20" t="n">
         <v>980</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
@@ -3223,94 +3223,94 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Ross Co</t>
+          <t>St Johnstone</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Morton</t>
+          <t>Queens Park</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.85</v>
+        <v>1.26</v>
       </c>
       <c r="G21" t="n">
-        <v>2.04</v>
+        <v>1.29</v>
       </c>
       <c r="H21" t="n">
-        <v>4.2</v>
+        <v>13</v>
       </c>
       <c r="I21" t="n">
-        <v>5.1</v>
+        <v>14.5</v>
       </c>
       <c r="J21" t="n">
-        <v>3.45</v>
+        <v>6</v>
       </c>
       <c r="K21" t="n">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="L21" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N21" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="V21" t="n">
         <v>1.07</v>
       </c>
-      <c r="N21" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S21" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.25</v>
-      </c>
       <c r="W21" t="n">
-        <v>1.94</v>
+        <v>4.3</v>
       </c>
       <c r="X21" t="n">
         <v>980</v>
       </c>
       <c r="Y21" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="Z21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AC21" t="n">
-        <v>10</v>
+        <v>980</v>
       </c>
       <c r="AD21" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AE21" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>980</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG21" t="n">
         <v>980</v>
@@ -3319,31 +3319,31 @@
         <v>980</v>
       </c>
       <c r="AI21" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AK21" t="n">
         <v>980</v>
       </c>
       <c r="AL21" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AM21" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
         <v>980</v>
       </c>
       <c r="AO21" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>St Johnstone</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Queens Park</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.26</v>
+        <v>4</v>
       </c>
       <c r="G22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K22" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O22" t="n">
         <v>1.3</v>
       </c>
-      <c r="H22" t="n">
+      <c r="P22" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X22" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>75</v>
+      </c>
+      <c r="AO22" t="n">
         <v>13</v>
-      </c>
-      <c r="I22" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J22" t="n">
-        <v>6</v>
-      </c>
-      <c r="K22" t="n">
-        <v>7</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N22" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W22" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="X22" t="n">
-        <v>980</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>980</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>75</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>55</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>980</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -3493,121 +3493,121 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Boston Utd</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="H23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K23" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S23" t="n">
         <v>3.2</v>
       </c>
-      <c r="I23" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K23" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N23" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2.48</v>
-      </c>
       <c r="T23" t="n">
-        <v>1.55</v>
+        <v>1.04</v>
       </c>
       <c r="U23" t="n">
-        <v>2.44</v>
+        <v>1.04</v>
       </c>
       <c r="V23" t="n">
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="W23" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X23" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD23" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE23" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
@@ -3628,121 +3628,121 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Forest Green</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.38</v>
+        <v>2.26</v>
       </c>
       <c r="G24" t="n">
-        <v>1.47</v>
+        <v>2.36</v>
       </c>
       <c r="H24" t="n">
-        <v>6.4</v>
+        <v>3.05</v>
       </c>
       <c r="I24" t="n">
-        <v>10.5</v>
+        <v>3.3</v>
       </c>
       <c r="J24" t="n">
-        <v>4.7</v>
+        <v>3.85</v>
       </c>
       <c r="K24" t="n">
-        <v>7.2</v>
+        <v>3.95</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="O24" t="n">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="P24" t="n">
-        <v>2.74</v>
+        <v>2.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.42</v>
+        <v>1.63</v>
       </c>
       <c r="R24" t="n">
-        <v>1.69</v>
+        <v>1.52</v>
       </c>
       <c r="S24" t="n">
-        <v>2.12</v>
+        <v>2.54</v>
       </c>
       <c r="T24" t="n">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="U24" t="n">
-        <v>1.96</v>
+        <v>2.46</v>
       </c>
       <c r="V24" t="n">
-        <v>1.12</v>
+        <v>1.43</v>
       </c>
       <c r="W24" t="n">
-        <v>3.1</v>
+        <v>1.73</v>
       </c>
       <c r="X24" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="Y24" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="Z24" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="AB24" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AC24" t="n">
-        <v>980</v>
+        <v>9.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>120</v>
+        <v>980</v>
       </c>
       <c r="AF24" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AI24" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="AJ24" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AK24" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AL24" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AM24" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AN24" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>110</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
@@ -3763,106 +3763,106 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Forest Green</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.96</v>
+        <v>1.38</v>
       </c>
       <c r="G25" t="n">
-        <v>3.3</v>
+        <v>1.47</v>
       </c>
       <c r="H25" t="n">
-        <v>2.22</v>
+        <v>6.4</v>
       </c>
       <c r="I25" t="n">
-        <v>2.48</v>
+        <v>10.5</v>
       </c>
       <c r="J25" t="n">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="K25" t="n">
-        <v>4.1</v>
+        <v>6.4</v>
       </c>
       <c r="L25" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="M25" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N25" t="n">
-        <v>3.95</v>
+        <v>5.4</v>
       </c>
       <c r="O25" t="n">
-        <v>1.26</v>
+        <v>1.15</v>
       </c>
       <c r="P25" t="n">
-        <v>2.02</v>
+        <v>2.76</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.78</v>
+        <v>1.45</v>
       </c>
       <c r="R25" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="S25" t="n">
-        <v>2.96</v>
+        <v>2.12</v>
       </c>
       <c r="T25" t="n">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="U25" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="V25" t="n">
-        <v>1.68</v>
+        <v>1.12</v>
       </c>
       <c r="W25" t="n">
-        <v>1.43</v>
+        <v>3.1</v>
       </c>
       <c r="X25" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="Y25" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="Z25" t="n">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="AA25" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AC25" t="n">
-        <v>9</v>
+        <v>980</v>
       </c>
       <c r="AD25" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AE25" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AF25" t="n">
         <v>980</v>
       </c>
       <c r="AG25" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AH25" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AI25" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AJ25" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AK25" t="n">
         <v>980</v>
@@ -3871,13 +3871,13 @@
         <v>980</v>
       </c>
       <c r="AM25" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AN25" t="n">
         <v>980</v>
       </c>
       <c r="AO25" t="n">
-        <v>17.5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26">
@@ -3898,55 +3898,55 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Boston Utd</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.06</v>
+        <v>2.92</v>
       </c>
       <c r="G26" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="H26" t="n">
-        <v>3.5</v>
+        <v>2.16</v>
       </c>
       <c r="I26" t="n">
-        <v>4.7</v>
+        <v>2.52</v>
       </c>
       <c r="J26" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="K26" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L26" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="M26" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>1.76</v>
+        <v>1.16</v>
       </c>
       <c r="O26" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="P26" t="n">
-        <v>1.76</v>
+        <v>1.16</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.93</v>
+        <v>1.26</v>
       </c>
       <c r="R26" t="n">
-        <v>1.17</v>
+        <v>1.09</v>
       </c>
       <c r="S26" t="n">
-        <v>3.15</v>
+        <v>1.26</v>
       </c>
       <c r="T26" t="n">
         <v>1.04</v>
@@ -3955,10 +3955,10 @@
         <v>1.04</v>
       </c>
       <c r="V26" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="W26" t="n">
-        <v>1.83</v>
+        <v>1.43</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
@@ -3970,10 +3970,10 @@
         <v>1000</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AB26" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AC26" t="n">
         <v>1000</v>
@@ -3982,19 +3982,19 @@
         <v>1000</v>
       </c>
       <c r="AE26" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF26" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG26" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH26" t="n">
         <v>1000</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ26" t="n">
         <v>1000</v>
@@ -4006,13 +4006,13 @@
         <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
@@ -4033,121 +4033,121 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Sutton Utd</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>FC Halifax Town</t>
+          <t>Brackley Town</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.74</v>
+        <v>2.38</v>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>2.66</v>
       </c>
       <c r="H27" t="n">
-        <v>2.52</v>
+        <v>2.9</v>
       </c>
       <c r="I27" t="n">
-        <v>2.8</v>
+        <v>3.45</v>
       </c>
       <c r="J27" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="K27" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="L27" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="M27" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>3.85</v>
+        <v>3.3</v>
       </c>
       <c r="O27" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="P27" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U27" t="n">
         <v>1.98</v>
       </c>
-      <c r="Q27" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S27" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U27" t="n">
-        <v>2.2</v>
-      </c>
       <c r="V27" t="n">
-        <v>1.55</v>
+        <v>1.43</v>
       </c>
       <c r="W27" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="X27" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="Y27" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="Z27" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AA27" t="n">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AB27" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AC27" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD27" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AE27" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AF27" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AG27" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AH27" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AI27" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AJ27" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AK27" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AL27" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AM27" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AN27" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AO27" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
     </row>
     <row r="28">
@@ -4168,121 +4168,121 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Sutton Utd</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Brackley Town</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.36</v>
+        <v>2.74</v>
       </c>
       <c r="G28" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="H28" t="n">
-        <v>2.88</v>
+        <v>2.52</v>
       </c>
       <c r="I28" t="n">
-        <v>3.35</v>
+        <v>2.8</v>
       </c>
       <c r="J28" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="K28" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L28" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="M28" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>3.3</v>
+        <v>3.85</v>
       </c>
       <c r="O28" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P28" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="R28" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="S28" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="T28" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="U28" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="V28" t="n">
-        <v>1.42</v>
+        <v>1.56</v>
       </c>
       <c r="W28" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="X28" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="Z28" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AA28" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="AB28" t="n">
         <v>13.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD28" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AE28" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AF28" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AG28" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AI28" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ28" t="n">
         <v>55</v>
       </c>
-      <c r="AJ28" t="n">
-        <v>980</v>
-      </c>
       <c r="AK28" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AL28" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AM28" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AN28" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AO28" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
@@ -4303,121 +4303,121 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Tamworth FC</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="G29" t="n">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="H29" t="n">
-        <v>8.199999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="I29" t="n">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="J29" t="n">
-        <v>5.6</v>
+        <v>4.6</v>
       </c>
       <c r="K29" t="n">
-        <v>6.8</v>
+        <v>5.1</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>2.9</v>
+        <v>2.14</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.43</v>
+        <v>1.72</v>
       </c>
       <c r="R29" t="n">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="AB29" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AC29" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AE29" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AF29" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AG29" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AH29" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AI29" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AJ29" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AK29" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AL29" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AM29" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AN29" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AO29" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -4438,121 +4438,121 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Tamworth FC</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.5</v>
+        <v>1.23</v>
       </c>
       <c r="G30" t="n">
-        <v>1.53</v>
+        <v>1.27</v>
       </c>
       <c r="H30" t="n">
+        <v>10</v>
+      </c>
+      <c r="I30" t="n">
+        <v>13</v>
+      </c>
+      <c r="J30" t="n">
         <v>6.6</v>
       </c>
-      <c r="I30" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="J30" t="n">
-        <v>4.6</v>
-      </c>
       <c r="K30" t="n">
-        <v>5.1</v>
+        <v>11</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="P30" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R30" t="n">
         <v>2.14</v>
       </c>
-      <c r="Q30" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0</v>
-      </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AK30" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL30" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AO30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
@@ -4573,121 +4573,121 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.25</v>
+        <v>5.3</v>
       </c>
       <c r="G31" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K31" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N31" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O31" t="n">
         <v>1.28</v>
       </c>
-      <c r="H31" t="n">
-        <v>10</v>
-      </c>
-      <c r="I31" t="n">
-        <v>13</v>
-      </c>
-      <c r="J31" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="K31" t="n">
-        <v>11</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N31" t="n">
-        <v>8</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.09</v>
-      </c>
       <c r="P31" t="n">
-        <v>3.65</v>
+        <v>1.98</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.29</v>
+        <v>1.84</v>
       </c>
       <c r="R31" t="n">
-        <v>2.1</v>
+        <v>1.37</v>
       </c>
       <c r="S31" t="n">
-        <v>1.62</v>
+        <v>3.1</v>
       </c>
       <c r="T31" t="n">
-        <v>1.63</v>
+        <v>1.81</v>
       </c>
       <c r="U31" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="V31" t="n">
-        <v>1.08</v>
+        <v>2.28</v>
       </c>
       <c r="W31" t="n">
-        <v>4.4</v>
+        <v>1.2</v>
       </c>
       <c r="X31" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AB31" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AC31" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE31" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AF31" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AG31" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AH31" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ31" t="n">
-        <v>14</v>
+        <v>190</v>
       </c>
       <c r="AK31" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AL31" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AM31" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN31" t="n">
-        <v>2.96</v>
+        <v>120</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="32">
@@ -4708,121 +4708,121 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>Braintree</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>5.3</v>
+        <v>2.12</v>
       </c>
       <c r="G32" t="n">
-        <v>5.9</v>
+        <v>2.86</v>
       </c>
       <c r="H32" t="n">
-        <v>1.64</v>
+        <v>2.56</v>
       </c>
       <c r="I32" t="n">
-        <v>1.79</v>
+        <v>3.65</v>
       </c>
       <c r="J32" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="K32" t="n">
-        <v>4.5</v>
+        <v>7.4</v>
       </c>
       <c r="L32" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>3.8</v>
+        <v>1.93</v>
       </c>
       <c r="O32" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="P32" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="R32" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S32" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="T32" t="n">
-        <v>1.83</v>
+        <v>1.04</v>
       </c>
       <c r="U32" t="n">
-        <v>1.97</v>
+        <v>1.04</v>
       </c>
       <c r="V32" t="n">
-        <v>2.26</v>
+        <v>1.38</v>
       </c>
       <c r="W32" t="n">
-        <v>1.2</v>
+        <v>1.54</v>
       </c>
       <c r="X32" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y32" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z32" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AA32" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AC32" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD32" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE32" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AF32" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AG32" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AH32" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI32" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ32" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AK32" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AL32" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AM32" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="33">
@@ -4843,121 +4843,121 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Braintree</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.12</v>
+        <v>1.48</v>
       </c>
       <c r="G33" t="n">
-        <v>2.86</v>
+        <v>1.57</v>
       </c>
       <c r="H33" t="n">
-        <v>2.56</v>
+        <v>6.2</v>
       </c>
       <c r="I33" t="n">
-        <v>3.65</v>
+        <v>9.4</v>
       </c>
       <c r="J33" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="K33" t="n">
-        <v>7.4</v>
+        <v>5.5</v>
       </c>
       <c r="L33" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1.92</v>
+        <v>2.14</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="R33" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>2.56</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z33" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA33" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB33" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC33" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE33" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF33" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG33" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH33" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI33" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK33" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL33" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM33" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN33" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO33" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -4978,121 +4978,121 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="G34" t="n">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="H34" t="n">
-        <v>5.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I34" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="J34" t="n">
-        <v>3.95</v>
+        <v>5.7</v>
       </c>
       <c r="K34" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="P34" t="n">
-        <v>1.94</v>
+        <v>2.98</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.64</v>
+        <v>1.4</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z34" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AA34" t="n">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="AB34" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC34" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AD34" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AF34" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI34" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AK34" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AL34" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM34" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN34" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AO34" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35">
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="G35" t="n">
         <v>2.7</v>
@@ -5131,49 +5131,49 @@
         <v>3.1</v>
       </c>
       <c r="I35" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J35" t="n">
         <v>3.05</v>
       </c>
       <c r="K35" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L35" t="n">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
       <c r="M35" t="n">
         <v>1.1</v>
       </c>
       <c r="N35" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="O35" t="n">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
       <c r="P35" t="n">
         <v>1.63</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="R35" t="n">
         <v>1.23</v>
       </c>
       <c r="S35" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T35" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U35" t="n">
-        <v>1.84</v>
+        <v>1.72</v>
       </c>
       <c r="V35" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="W35" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="X35" t="n">
         <v>12.5</v>
@@ -5182,43 +5182,43 @@
         <v>11</v>
       </c>
       <c r="Z35" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA35" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC35" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AD35" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE35" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH35" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI35" t="n">
         <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AK35" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL35" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM35" t="n">
         <v>1000</v>
@@ -5227,7 +5227,7 @@
         <v>1000</v>
       </c>
       <c r="AO35" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36">
@@ -5257,37 +5257,37 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94</v>
+        <v>2.86</v>
       </c>
       <c r="H36" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="I36" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="J36" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="K36" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="L36" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M36" t="n">
         <v>1.01</v>
       </c>
       <c r="N36" t="n">
-        <v>1.94</v>
+        <v>1.51</v>
       </c>
       <c r="O36" t="n">
         <v>1.01</v>
       </c>
       <c r="P36" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="Q36" t="n">
         <v>2.26</v>
@@ -5296,7 +5296,7 @@
         <v>1.18</v>
       </c>
       <c r="S36" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="T36" t="n">
         <v>1.04</v>
@@ -5305,10 +5305,10 @@
         <v>1.04</v>
       </c>
       <c r="V36" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="W36" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="X36" t="n">
         <v>1000</v>
@@ -5392,91 +5392,91 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="G37" t="n">
-        <v>5.7</v>
+        <v>4.3</v>
       </c>
       <c r="H37" t="n">
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
       <c r="I37" t="n">
-        <v>2.1</v>
+        <v>2.32</v>
       </c>
       <c r="J37" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="K37" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="L37" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M37" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N37" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="O37" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P37" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="R37" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="S37" t="n">
         <v>3.7</v>
       </c>
       <c r="T37" t="n">
-        <v>1.78</v>
+        <v>1.04</v>
       </c>
       <c r="U37" t="n">
-        <v>1.72</v>
+        <v>1.04</v>
       </c>
       <c r="V37" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W37" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="X37" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y37" t="n">
         <v>9.4</v>
       </c>
       <c r="Z37" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AA37" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AB37" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AC37" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD37" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AE37" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AF37" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AG37" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AH37" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI37" t="n">
         <v>60</v>
@@ -5497,7 +5497,7 @@
         <v>1000</v>
       </c>
       <c r="AO37" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38">
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G38" t="n">
         <v>2.64</v>
@@ -5539,13 +5539,13 @@
         <v>3.65</v>
       </c>
       <c r="J38" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K38" t="n">
         <v>4.3</v>
       </c>
       <c r="L38" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M38" t="n">
         <v>1.06</v>
@@ -5557,13 +5557,13 @@
         <v>1.31</v>
       </c>
       <c r="P38" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="R38" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S38" t="n">
         <v>3.1</v>
@@ -5572,10 +5572,10 @@
         <v>1.65</v>
       </c>
       <c r="U38" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="V38" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W38" t="n">
         <v>1.62</v>
@@ -5719,10 +5719,10 @@
         <v>980</v>
       </c>
       <c r="Y39" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="Z39" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AA39" t="n">
         <v>980</v>
@@ -5731,7 +5731,7 @@
         <v>980</v>
       </c>
       <c r="AC39" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AD39" t="n">
         <v>980</v>
@@ -5746,7 +5746,7 @@
         <v>980</v>
       </c>
       <c r="AH39" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AI39" t="n">
         <v>980</v>
@@ -5755,19 +5755,19 @@
         <v>140</v>
       </c>
       <c r="AK39" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AL39" t="n">
         <v>65</v>
       </c>
       <c r="AM39" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AN39" t="n">
         <v>1000</v>
       </c>
       <c r="AO39" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40">
@@ -5797,22 +5797,22 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="G40" t="n">
-        <v>2.14</v>
+        <v>1.87</v>
       </c>
       <c r="H40" t="n">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
       <c r="I40" t="n">
-        <v>980</v>
+        <v>8.4</v>
       </c>
       <c r="J40" t="n">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="K40" t="n">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="L40" t="n">
         <v>1.01</v>
@@ -5821,34 +5821,34 @@
         <v>1.01</v>
       </c>
       <c r="N40" t="n">
-        <v>1.84</v>
+        <v>1.99</v>
       </c>
       <c r="O40" t="n">
         <v>1.01</v>
       </c>
       <c r="P40" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.16</v>
+        <v>2.4</v>
       </c>
       <c r="R40" t="n">
         <v>1.14</v>
       </c>
       <c r="S40" t="n">
-        <v>2.16</v>
+        <v>3.5</v>
       </c>
       <c r="T40" t="n">
-        <v>1.04</v>
+        <v>2.04</v>
       </c>
       <c r="U40" t="n">
-        <v>1.04</v>
+        <v>1.66</v>
       </c>
       <c r="V40" t="n">
-        <v>1.06</v>
+        <v>1.13</v>
       </c>
       <c r="W40" t="n">
-        <v>1.87</v>
+        <v>2.12</v>
       </c>
       <c r="X40" t="n">
         <v>1000</v>
@@ -5944,7 +5944,7 @@
         <v>2.64</v>
       </c>
       <c r="J41" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="K41" t="n">
         <v>980</v>
@@ -5956,13 +5956,13 @@
         <v>1.01</v>
       </c>
       <c r="N41" t="n">
-        <v>1.1</v>
+        <v>2.68</v>
       </c>
       <c r="O41" t="n">
         <v>1.01</v>
       </c>
       <c r="P41" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q41" t="n">
         <v>2.24</v>
@@ -6091,7 +6091,7 @@
         <v>1.01</v>
       </c>
       <c r="N42" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="O42" t="n">
         <v>1.01</v>
@@ -6193,121 +6193,121 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Vila Nova</t>
+          <t>Operario PR</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.71</v>
+        <v>2.08</v>
       </c>
       <c r="G43" t="n">
-        <v>1.75</v>
+        <v>2.28</v>
       </c>
       <c r="H43" t="n">
-        <v>5.3</v>
+        <v>4.2</v>
       </c>
       <c r="I43" t="n">
-        <v>6.4</v>
+        <v>5.2</v>
       </c>
       <c r="J43" t="n">
-        <v>3.65</v>
+        <v>2.98</v>
       </c>
       <c r="K43" t="n">
-        <v>4.2</v>
+        <v>3.45</v>
       </c>
       <c r="L43" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="M43" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N43" t="n">
-        <v>3.4</v>
+        <v>2.74</v>
       </c>
       <c r="O43" t="n">
-        <v>1.36</v>
+        <v>1.49</v>
       </c>
       <c r="P43" t="n">
-        <v>1.83</v>
+        <v>1.58</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.02</v>
+        <v>2.44</v>
       </c>
       <c r="R43" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="S43" t="n">
-        <v>3.55</v>
+        <v>4.3</v>
       </c>
       <c r="T43" t="n">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="U43" t="n">
-        <v>1.89</v>
+        <v>1.68</v>
       </c>
       <c r="V43" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="W43" t="n">
-        <v>2.32</v>
+        <v>1.8</v>
       </c>
       <c r="X43" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Y43" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="Z43" t="n">
         <v>980</v>
       </c>
       <c r="AA43" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="AB43" t="n">
-        <v>9.4</v>
+        <v>980</v>
       </c>
       <c r="AC43" t="n">
-        <v>9.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="AD43" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AE43" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI43" t="n">
         <v>110</v>
       </c>
-      <c r="AF43" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>95</v>
-      </c>
       <c r="AJ43" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AK43" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AL43" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AM43" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN43" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AO43" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44">
@@ -6340,19 +6340,19 @@
         <v>4</v>
       </c>
       <c r="G44" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H44" t="n">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="I44" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="J44" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="K44" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L44" t="n">
         <v>1.01</v>
@@ -6361,73 +6361,73 @@
         <v>1.06</v>
       </c>
       <c r="N44" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="O44" t="n">
         <v>1.3</v>
       </c>
       <c r="P44" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="R44" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="S44" t="n">
         <v>3.35</v>
       </c>
       <c r="T44" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="U44" t="n">
-        <v>1.92</v>
+        <v>1.78</v>
       </c>
       <c r="V44" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="W44" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="X44" t="n">
         <v>15</v>
       </c>
       <c r="Y44" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z44" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="AA44" t="n">
         <v>1000</v>
       </c>
       <c r="AB44" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AC44" t="n">
         <v>10</v>
       </c>
       <c r="AD44" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE44" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AF44" t="n">
         <v>34</v>
       </c>
       <c r="AG44" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AH44" t="n">
         <v>23</v>
       </c>
       <c r="AI44" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ44" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AK44" t="n">
         <v>60</v>
@@ -6439,10 +6439,10 @@
         <v>1000</v>
       </c>
       <c r="AN44" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AO44" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
@@ -6463,121 +6463,121 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Operario PR</t>
+          <t>Vila Nova</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.12</v>
+        <v>1.65</v>
       </c>
       <c r="G45" t="n">
-        <v>2.28</v>
+        <v>1.75</v>
       </c>
       <c r="H45" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="I45" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K45" t="n">
         <v>4.2</v>
       </c>
-      <c r="I45" t="n">
-        <v>5</v>
-      </c>
-      <c r="J45" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K45" t="n">
-        <v>3.45</v>
-      </c>
       <c r="L45" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M45" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N45" t="n">
-        <v>2.74</v>
+        <v>3.25</v>
       </c>
       <c r="O45" t="n">
-        <v>1.49</v>
+        <v>1.36</v>
       </c>
       <c r="P45" t="n">
-        <v>1.58</v>
+        <v>1.77</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.44</v>
+        <v>2.02</v>
       </c>
       <c r="R45" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="S45" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="T45" t="n">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="U45" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V45" t="n">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="W45" t="n">
-        <v>1.78</v>
+        <v>2.32</v>
       </c>
       <c r="X45" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="Y45" t="n">
-        <v>14.5</v>
+        <v>22</v>
       </c>
       <c r="Z45" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AA45" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI45" t="n">
         <v>120</v>
       </c>
-      <c r="AB45" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>980</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>110</v>
-      </c>
       <c r="AJ45" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AK45" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AL45" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="AM45" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN45" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AO45" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="46">
@@ -6607,22 +6607,22 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="G46" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H46" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I46" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J46" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="K46" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -6637,10 +6637,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -6742,22 +6742,22 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="G47" t="n">
-        <v>2.04</v>
+        <v>2.26</v>
       </c>
       <c r="H47" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="I47" t="n">
-        <v>7.4</v>
+        <v>6</v>
       </c>
       <c r="J47" t="n">
-        <v>2.96</v>
+        <v>2.8</v>
       </c>
       <c r="K47" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="Q47" t="n">
         <v>2.98</v>
@@ -6880,7 +6880,7 @@
         <v>1.9</v>
       </c>
       <c r="G48" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H48" t="n">
         <v>3.5</v>
@@ -6907,10 +6907,10 @@
         <v>1.18</v>
       </c>
       <c r="P48" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="R48" t="n">
         <v>1.63</v>
@@ -6928,13 +6928,13 @@
         <v>1.32</v>
       </c>
       <c r="W48" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="X48" t="n">
         <v>980</v>
       </c>
       <c r="Y48" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="Z48" t="n">
         <v>980</v>
@@ -6946,7 +6946,7 @@
         <v>970</v>
       </c>
       <c r="AC48" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD48" t="n">
         <v>980</v>
@@ -6955,7 +6955,7 @@
         <v>980</v>
       </c>
       <c r="AF48" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AG48" t="n">
         <v>13</v>
@@ -7045,13 +7045,13 @@
         <v>2.16</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="R49" t="n">
         <v>1.45</v>
       </c>
       <c r="S49" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="T49" t="n">
         <v>1.71</v>
@@ -7084,7 +7084,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD49" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE49" t="n">
         <v>60</v>
@@ -7108,7 +7108,7 @@
         <v>20</v>
       </c>
       <c r="AL49" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AM49" t="n">
         <v>85</v>
@@ -7147,55 +7147,55 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G50" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="H50" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="I50" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="J50" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="K50" t="n">
-        <v>980</v>
+        <v>4</v>
       </c>
       <c r="L50" t="n">
         <v>1.01</v>
       </c>
       <c r="M50" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N50" t="n">
-        <v>1.56</v>
+        <v>2.68</v>
       </c>
       <c r="O50" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="P50" t="n">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.54</v>
+        <v>2.18</v>
       </c>
       <c r="R50" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="S50" t="n">
-        <v>2.96</v>
+        <v>3.7</v>
       </c>
       <c r="T50" t="n">
-        <v>1.04</v>
+        <v>1.74</v>
       </c>
       <c r="U50" t="n">
-        <v>1.04</v>
+        <v>1.92</v>
       </c>
       <c r="V50" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W50" t="n">
         <v>1.53</v>
@@ -7288,10 +7288,10 @@
         <v>14.5</v>
       </c>
       <c r="H51" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="I51" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="J51" t="n">
         <v>5.5</v>
@@ -7303,7 +7303,7 @@
         <v>1.37</v>
       </c>
       <c r="M51" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N51" t="n">
         <v>3.95</v>
@@ -7324,13 +7324,13 @@
         <v>3.2</v>
       </c>
       <c r="T51" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="U51" t="n">
         <v>1.61</v>
       </c>
       <c r="V51" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="W51" t="n">
         <v>1.07</v>
@@ -7375,13 +7375,13 @@
         <v>760</v>
       </c>
       <c r="AK51" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="AL51" t="n">
         <v>280</v>
       </c>
       <c r="AM51" t="n">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="AN51" t="n">
         <v>520</v>
@@ -7450,13 +7450,13 @@
         <v>1.51</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.32</v>
+        <v>1.76</v>
       </c>
       <c r="R52" t="n">
         <v>1.15</v>
       </c>
       <c r="S52" t="n">
-        <v>1.05</v>
+        <v>2.32</v>
       </c>
       <c r="T52" t="n">
         <v>1.04</v>
@@ -7552,22 +7552,22 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="G53" t="n">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="H53" t="n">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
       <c r="I53" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="J53" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K53" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -7582,10 +7582,10 @@
         <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="Q53" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="R53" t="n">
         <v>0</v>
@@ -7858,7 +7858,7 @@
         <v>2.28</v>
       </c>
       <c r="R55" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S55" t="n">
         <v>4.1</v>
@@ -7928,6 +7928,411 @@
       </c>
       <c r="AO55" t="n">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>SE Palmeiras</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G56" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="I56" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="J56" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K56" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N56" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="T56" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U56" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V56" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X56" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>44</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Rosario Central</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+      <c r="I57" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J57" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K57" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>US United Soccer League</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Tulsa Roughnecks FC</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>New Mexico United</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H58" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I58" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J58" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K58" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N58" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S58" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U58" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V58" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="X58" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-15.xlsx
@@ -667,64 +667,64 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.66</v>
+        <v>3.15</v>
       </c>
       <c r="G2" t="n">
-        <v>3.05</v>
+        <v>3.8</v>
       </c>
       <c r="H2" t="n">
-        <v>2.6</v>
+        <v>2.14</v>
       </c>
       <c r="I2" t="n">
-        <v>2.96</v>
+        <v>2.38</v>
       </c>
       <c r="J2" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K2" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="O2" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="P2" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S2" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="T2" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="U2" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="V2" t="n">
-        <v>1.51</v>
+        <v>1.72</v>
       </c>
       <c r="W2" t="n">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -736,10 +736,10 @@
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -751,7 +751,7 @@
         <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -802,79 +802,79 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="G3" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="H3" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="I3" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="J3" t="n">
         <v>3.2</v>
       </c>
       <c r="K3" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="M3" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>3</v>
+        <v>2.86</v>
       </c>
       <c r="O3" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="R3" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="S3" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.91</v>
+        <v>1.81</v>
       </c>
       <c r="U3" t="n">
-        <v>1.9</v>
+        <v>1.72</v>
       </c>
       <c r="V3" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="W3" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="X3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y3" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="Z3" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AB3" t="n">
         <v>14</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE3" t="n">
         <v>34</v>
@@ -883,19 +883,19 @@
         <v>32</v>
       </c>
       <c r="AG3" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AH3" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI3" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
@@ -904,10 +904,10 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AO3" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="G4" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="H4" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="I4" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="J4" t="n">
         <v>4.1</v>
@@ -955,58 +955,58 @@
         <v>5.1</v>
       </c>
       <c r="L4" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>3.45</v>
+        <v>4.3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P4" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="R4" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="S4" t="n">
-        <v>2.62</v>
+        <v>2.74</v>
       </c>
       <c r="T4" t="n">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="U4" t="n">
-        <v>1.94</v>
+        <v>2.18</v>
       </c>
       <c r="V4" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="W4" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="X4" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="Z4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA4" t="n">
         <v>24</v>
       </c>
       <c r="AB4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD4" t="n">
         <v>12.5</v>
@@ -1018,28 +1018,28 @@
         <v>46</v>
       </c>
       <c r="AG4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH4" t="n">
         <v>22</v>
       </c>
-      <c r="AH4" t="n">
-        <v>23</v>
-      </c>
       <c r="AI4" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO4" t="n">
         <v>12</v>
@@ -1072,58 +1072,58 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="G5" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H5" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="I5" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="J5" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K5" t="n">
         <v>5.7</v>
       </c>
       <c r="L5" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.86</v>
+        <v>1.76</v>
       </c>
       <c r="R5" t="n">
         <v>1.36</v>
       </c>
       <c r="S5" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T5" t="n">
-        <v>2.08</v>
+        <v>1.97</v>
       </c>
       <c r="U5" t="n">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="V5" t="n">
         <v>1.1</v>
       </c>
       <c r="W5" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1138,7 +1138,7 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC5" t="n">
         <v>1000</v>
@@ -1150,7 +1150,7 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG5" t="n">
         <v>1000</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1216,7 +1216,7 @@
         <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J6" t="n">
         <v>3</v>
@@ -1231,7 +1231,7 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.86</v>
+        <v>1.1</v>
       </c>
       <c r="O6" t="n">
         <v>1.01</v>
@@ -1348,22 +1348,22 @@
         <v>1.4</v>
       </c>
       <c r="H7" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="I7" t="n">
         <v>12.5</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="K7" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
         <v>4.3</v>
@@ -1372,7 +1372,7 @@
         <v>1.24</v>
       </c>
       <c r="P7" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="Q7" t="n">
         <v>1.7</v>
@@ -1390,10 +1390,10 @@
         <v>1.76</v>
       </c>
       <c r="V7" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W7" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="X7" t="n">
         <v>20</v>
@@ -1408,7 +1408,7 @@
         <v>520</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC7" t="n">
         <v>12.5</v>
@@ -1417,7 +1417,7 @@
         <v>42</v>
       </c>
       <c r="AE7" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AF7" t="n">
         <v>8.4</v>
@@ -1426,7 +1426,7 @@
         <v>10.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AI7" t="n">
         <v>180</v>
@@ -1441,13 +1441,13 @@
         <v>42</v>
       </c>
       <c r="AM7" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AN7" t="n">
         <v>6.2</v>
       </c>
       <c r="AO7" t="n">
-        <v>270</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8">
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="G8" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="H8" t="n">
         <v>2.76</v>
@@ -1489,28 +1489,28 @@
         <v>3.15</v>
       </c>
       <c r="J8" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="K8" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L8" t="n">
         <v>1.32</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P8" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="R8" t="n">
         <v>1.34</v>
@@ -1519,16 +1519,16 @@
         <v>2.98</v>
       </c>
       <c r="T8" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="U8" t="n">
-        <v>2.12</v>
+        <v>1.95</v>
       </c>
       <c r="V8" t="n">
         <v>1.47</v>
       </c>
       <c r="W8" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1615,22 +1615,22 @@
         <v>1.5</v>
       </c>
       <c r="G9" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="I9" t="n">
         <v>8</v>
       </c>
       <c r="J9" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="K9" t="n">
         <v>5.1</v>
       </c>
       <c r="L9" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M9" t="n">
         <v>1.05</v>
@@ -1645,10 +1645,10 @@
         <v>2.28</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R9" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S9" t="n">
         <v>2.74</v>
@@ -1657,13 +1657,13 @@
         <v>1.87</v>
       </c>
       <c r="U9" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V9" t="n">
         <v>1.14</v>
       </c>
       <c r="W9" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="X9" t="n">
         <v>22</v>
@@ -1675,7 +1675,7 @@
         <v>70</v>
       </c>
       <c r="AA9" t="n">
-        <v>240</v>
+        <v>980</v>
       </c>
       <c r="AB9" t="n">
         <v>9.6</v>
@@ -1696,7 +1696,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH9" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AI9" t="n">
         <v>95</v>
@@ -1747,25 +1747,25 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="G10" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="H10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
         <v>3.8</v>
       </c>
       <c r="J10" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K10" t="n">
         <v>3.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
@@ -1783,22 +1783,22 @@
         <v>1.82</v>
       </c>
       <c r="R10" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S10" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T10" t="n">
         <v>1.67</v>
       </c>
       <c r="U10" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="V10" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W10" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="X10" t="n">
         <v>17.5</v>
@@ -1822,37 +1822,37 @@
         <v>16</v>
       </c>
       <c r="AE10" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AF10" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG10" t="n">
         <v>11.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AJ10" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AK10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL10" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM10" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AN10" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="G11" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="H11" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="I11" t="n">
         <v>2.8</v>
       </c>
       <c r="J11" t="n">
-        <v>2.98</v>
+        <v>3.15</v>
       </c>
       <c r="K11" t="n">
         <v>3.75</v>
@@ -1903,13 +1903,13 @@
         <v>1.41</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>2.56</v>
+        <v>3.35</v>
       </c>
       <c r="O11" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="P11" t="n">
         <v>1.8</v>
@@ -1918,76 +1918,76 @@
         <v>1.99</v>
       </c>
       <c r="R11" t="n">
-        <v>1.21</v>
+        <v>1.31</v>
       </c>
       <c r="S11" t="n">
-        <v>2.36</v>
+        <v>3.5</v>
       </c>
       <c r="T11" t="n">
-        <v>1.04</v>
+        <v>1.75</v>
       </c>
       <c r="U11" t="n">
-        <v>1.04</v>
+        <v>2.04</v>
       </c>
       <c r="V11" t="n">
         <v>1.55</v>
       </c>
       <c r="W11" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
@@ -2017,55 +2017,55 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="G12" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="H12" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="I12" t="n">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="J12" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K12" t="n">
         <v>5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O12" t="n">
         <v>1.24</v>
       </c>
       <c r="P12" t="n">
-        <v>1.99</v>
+        <v>2.12</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R12" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="S12" t="n">
         <v>2.68</v>
       </c>
       <c r="T12" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
         <v>2.02</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.96</v>
       </c>
       <c r="W12" t="n">
         <v>1.23</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="G13" t="n">
         <v>2.2</v>
       </c>
       <c r="H13" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="I13" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J13" t="n">
         <v>3.2</v>
       </c>
       <c r="K13" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="L13" t="n">
         <v>1.27</v>
@@ -2176,13 +2176,13 @@
         <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="O13" t="n">
         <v>1.26</v>
       </c>
       <c r="P13" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q13" t="n">
         <v>1.66</v>
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="G14" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="H14" t="n">
         <v>2.98</v>
@@ -2299,7 +2299,7 @@
         <v>3.45</v>
       </c>
       <c r="J14" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="K14" t="n">
         <v>4.3</v>
@@ -2311,46 +2311,46 @@
         <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P14" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="Q14" t="n">
         <v>1.67</v>
       </c>
       <c r="R14" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="S14" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="T14" t="n">
         <v>1.6</v>
       </c>
       <c r="U14" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="V14" t="n">
         <v>1.41</v>
       </c>
       <c r="W14" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="X14" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Y14" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AA14" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AB14" t="n">
         <v>14</v>
@@ -2359,13 +2359,13 @@
         <v>11</v>
       </c>
       <c r="AD14" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AE14" t="n">
         <v>40</v>
       </c>
       <c r="AF14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG14" t="n">
         <v>14</v>
@@ -2374,10 +2374,10 @@
         <v>18.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AJ14" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AK14" t="n">
         <v>28</v>
@@ -2422,34 +2422,34 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G15" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="H15" t="n">
         <v>2.5</v>
       </c>
       <c r="I15" t="n">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="J15" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K15" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="O15" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P15" t="n">
         <v>2.24</v>
@@ -2464,17 +2464,17 @@
         <v>2.44</v>
       </c>
       <c r="T15" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W15" t="n">
         <v>1.54</v>
       </c>
-      <c r="U15" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.52</v>
-      </c>
       <c r="X15" t="n">
         <v>980</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>980</v>
       </c>
       <c r="AC15" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AD15" t="n">
         <v>980</v>
@@ -2521,7 +2521,7 @@
         <v>980</v>
       </c>
       <c r="AM15" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN15" t="n">
         <v>980</v>
@@ -2560,19 +2560,19 @@
         <v>4.4</v>
       </c>
       <c r="G16" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="H16" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="I16" t="n">
         <v>1.92</v>
       </c>
       <c r="J16" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K16" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L16" t="n">
         <v>1.28</v>
@@ -2596,7 +2596,7 @@
         <v>1.41</v>
       </c>
       <c r="S16" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="T16" t="n">
         <v>1.73</v>
@@ -2608,61 +2608,61 @@
         <v>2.08</v>
       </c>
       <c r="W16" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="X16" t="n">
         <v>21</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="Z16" t="n">
         <v>14.5</v>
       </c>
       <c r="AA16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB16" t="n">
         <v>21</v>
       </c>
-      <c r="AB16" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AC16" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD16" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AF16" t="n">
         <v>980</v>
       </c>
       <c r="AG16" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AH16" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AI16" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AJ16" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM16" t="n">
         <v>110</v>
       </c>
-      <c r="AK16" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>100</v>
-      </c>
       <c r="AN16" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AO16" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -2692,31 +2692,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="G17" t="n">
-        <v>2.34</v>
+        <v>2.06</v>
       </c>
       <c r="H17" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="I17" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="J17" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K17" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L17" t="n">
         <v>1.29</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O17" t="n">
         <v>1.28</v>
@@ -2725,25 +2725,25 @@
         <v>2</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
       <c r="R17" t="n">
         <v>1.38</v>
       </c>
       <c r="S17" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="T17" t="n">
-        <v>1.69</v>
+        <v>1.61</v>
       </c>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V17" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="W17" t="n">
-        <v>1.74</v>
+        <v>1.94</v>
       </c>
       <c r="X17" t="n">
         <v>980</v>
@@ -2848,19 +2848,19 @@
         <v>1.35</v>
       </c>
       <c r="M18" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O18" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P18" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R18" t="n">
         <v>1.29</v>
@@ -2869,10 +2869,10 @@
         <v>3.7</v>
       </c>
       <c r="T18" t="n">
-        <v>2.1</v>
+        <v>1.94</v>
       </c>
       <c r="U18" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="V18" t="n">
         <v>1.15</v>
@@ -2884,7 +2884,7 @@
         <v>15.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z18" t="n">
         <v>70</v>
@@ -2923,7 +2923,7 @@
         <v>19.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AM18" t="n">
         <v>220</v>
@@ -2962,10 +2962,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="G19" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="H19" t="n">
         <v>5.3</v>
@@ -2974,13 +2974,13 @@
         <v>6.4</v>
       </c>
       <c r="J19" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="K19" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M19" t="n">
         <v>1.07</v>
@@ -2989,13 +2989,13 @@
         <v>3.45</v>
       </c>
       <c r="O19" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P19" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R19" t="n">
         <v>1.32</v>
@@ -3004,16 +3004,16 @@
         <v>3.45</v>
       </c>
       <c r="T19" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="U19" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V19" t="n">
         <v>1.19</v>
       </c>
       <c r="W19" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="X19" t="n">
         <v>980</v>
@@ -3022,16 +3022,16 @@
         <v>980</v>
       </c>
       <c r="Z19" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB19" t="n">
         <v>9.4</v>
       </c>
       <c r="AC19" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD19" t="n">
         <v>980</v>
@@ -3040,10 +3040,10 @@
         <v>110</v>
       </c>
       <c r="AF19" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AG19" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH19" t="n">
         <v>980</v>
@@ -3055,19 +3055,19 @@
         <v>21</v>
       </c>
       <c r="AK19" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AL19" t="n">
         <v>980</v>
       </c>
       <c r="AM19" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN19" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20">
@@ -3118,7 +3118,7 @@
         <v>1.33</v>
       </c>
       <c r="M20" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N20" t="n">
         <v>3.45</v>
@@ -3130,16 +3130,16 @@
         <v>1.84</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.96</v>
+        <v>1.83</v>
       </c>
       <c r="R20" t="n">
         <v>1.32</v>
       </c>
       <c r="S20" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="T20" t="n">
-        <v>1.81</v>
+        <v>1.7</v>
       </c>
       <c r="U20" t="n">
         <v>1.98</v>
@@ -3235,10 +3235,10 @@
         <v>1.26</v>
       </c>
       <c r="G21" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="H21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I21" t="n">
         <v>14.5</v>
@@ -3250,34 +3250,34 @@
         <v>7</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="M21" t="n">
         <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="O21" t="n">
         <v>1.2</v>
       </c>
       <c r="P21" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.59</v>
+        <v>1.52</v>
       </c>
       <c r="R21" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="S21" t="n">
         <v>2.46</v>
       </c>
       <c r="T21" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="U21" t="n">
-        <v>1.64</v>
+        <v>1.56</v>
       </c>
       <c r="V21" t="n">
         <v>1.07</v>
@@ -3289,7 +3289,7 @@
         <v>980</v>
       </c>
       <c r="Y21" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Z21" t="n">
         <v>1000</v>
@@ -3304,13 +3304,13 @@
         <v>980</v>
       </c>
       <c r="AD21" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AE21" t="n">
         <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>9.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="AG21" t="n">
         <v>980</v>
@@ -3322,7 +3322,7 @@
         <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AK21" t="n">
         <v>980</v>
@@ -3334,7 +3334,7 @@
         <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>980</v>
+        <v>4.6</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>
@@ -3367,25 +3367,25 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="G22" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="H22" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="I22" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="J22" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="K22" t="n">
         <v>4.2</v>
       </c>
       <c r="L22" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M22" t="n">
         <v>1.06</v>
@@ -3397,46 +3397,46 @@
         <v>1.3</v>
       </c>
       <c r="P22" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="R22" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S22" t="n">
         <v>3.25</v>
       </c>
       <c r="T22" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U22" t="n">
         <v>2</v>
       </c>
       <c r="V22" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="W22" t="n">
         <v>1.22</v>
       </c>
       <c r="X22" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AA22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AB22" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AD22" t="n">
         <v>11</v>
@@ -3445,16 +3445,16 @@
         <v>21</v>
       </c>
       <c r="AF22" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AG22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI22" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AJ22" t="n">
         <v>1000</v>
@@ -3463,16 +3463,16 @@
         <v>70</v>
       </c>
       <c r="AL22" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AO22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -3502,55 +3502,55 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G23" t="n">
         <v>2.2</v>
       </c>
       <c r="H23" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="I23" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="J23" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K23" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L23" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="M23" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>1.77</v>
+        <v>3.25</v>
       </c>
       <c r="O23" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="P23" t="n">
         <v>1.77</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R23" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="S23" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="T23" t="n">
-        <v>1.04</v>
+        <v>1.71</v>
       </c>
       <c r="U23" t="n">
-        <v>1.04</v>
+        <v>1.83</v>
       </c>
       <c r="V23" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W23" t="n">
         <v>1.83</v>
@@ -3568,10 +3568,10 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD23" t="n">
         <v>1000</v>
@@ -3583,7 +3583,7 @@
         <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH23" t="n">
         <v>1000</v>
@@ -3637,34 +3637,34 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="G24" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="H24" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I24" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="J24" t="n">
         <v>3.85</v>
       </c>
       <c r="K24" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O24" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P24" t="n">
         <v>2.3</v>
@@ -3673,22 +3673,22 @@
         <v>1.63</v>
       </c>
       <c r="R24" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S24" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="T24" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="U24" t="n">
         <v>2.46</v>
       </c>
       <c r="V24" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="W24" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="X24" t="n">
         <v>24</v>
@@ -3697,10 +3697,10 @@
         <v>21</v>
       </c>
       <c r="Z24" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA24" t="n">
-        <v>960</v>
+        <v>70</v>
       </c>
       <c r="AB24" t="n">
         <v>15</v>
@@ -3712,10 +3712,10 @@
         <v>14.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AF24" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG24" t="n">
         <v>12.5</v>
@@ -3727,7 +3727,7 @@
         <v>40</v>
       </c>
       <c r="AJ24" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK24" t="n">
         <v>23</v>
@@ -3742,7 +3742,7 @@
         <v>14.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
@@ -3775,55 +3775,55 @@
         <v>1.38</v>
       </c>
       <c r="G25" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="H25" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="I25" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="J25" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="K25" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="M25" t="n">
         <v>1.02</v>
       </c>
       <c r="N25" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="O25" t="n">
         <v>1.15</v>
       </c>
       <c r="P25" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="Q25" t="n">
         <v>1.45</v>
       </c>
       <c r="R25" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S25" t="n">
-        <v>2.12</v>
+        <v>1.97</v>
       </c>
       <c r="T25" t="n">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="U25" t="n">
-        <v>2.14</v>
+        <v>1.96</v>
       </c>
       <c r="V25" t="n">
         <v>1.12</v>
       </c>
       <c r="W25" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="X25" t="n">
         <v>980</v>
@@ -3832,52 +3832,52 @@
         <v>980</v>
       </c>
       <c r="Z25" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AA25" t="n">
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AD25" t="n">
         <v>980</v>
       </c>
       <c r="AE25" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM25" t="n">
         <v>120</v>
       </c>
-      <c r="AF25" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>110</v>
-      </c>
       <c r="AN25" t="n">
-        <v>980</v>
+        <v>5.2</v>
       </c>
       <c r="AO25" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26">
@@ -3907,112 +3907,112 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="G26" t="n">
         <v>3.3</v>
       </c>
       <c r="H26" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="I26" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="J26" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="K26" t="n">
         <v>4.2</v>
       </c>
       <c r="L26" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M26" t="n">
         <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>1.16</v>
+        <v>4.2</v>
       </c>
       <c r="O26" t="n">
         <v>1.26</v>
       </c>
       <c r="P26" t="n">
-        <v>1.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.26</v>
+        <v>1.72</v>
       </c>
       <c r="R26" t="n">
-        <v>1.09</v>
+        <v>1.44</v>
       </c>
       <c r="S26" t="n">
-        <v>1.26</v>
+        <v>2.8</v>
       </c>
       <c r="T26" t="n">
-        <v>1.04</v>
+        <v>1.63</v>
       </c>
       <c r="U26" t="n">
-        <v>1.04</v>
+        <v>2.3</v>
       </c>
       <c r="V26" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="W26" t="n">
         <v>1.43</v>
       </c>
       <c r="X26" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y26" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z26" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AA26" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL26" t="n">
         <v>46</v>
       </c>
-      <c r="AB26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM26" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AN26" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AO26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
@@ -4051,13 +4051,13 @@
         <v>2.9</v>
       </c>
       <c r="I27" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="J27" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K27" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="L27" t="n">
         <v>1.3</v>
@@ -4066,25 +4066,25 @@
         <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="O27" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="P27" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="R27" t="n">
         <v>1.36</v>
       </c>
       <c r="S27" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="T27" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="U27" t="n">
         <v>1.98</v>
@@ -4096,10 +4096,10 @@
         <v>1.6</v>
       </c>
       <c r="X27" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="Y27" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="Z27" t="n">
         <v>980</v>
@@ -4108,22 +4108,22 @@
         <v>65</v>
       </c>
       <c r="AB27" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AC27" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AD27" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AE27" t="n">
         <v>980</v>
       </c>
       <c r="AF27" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AG27" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AH27" t="n">
         <v>980</v>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="G28" t="n">
         <v>3</v>
@@ -4186,16 +4186,16 @@
         <v>2.52</v>
       </c>
       <c r="I28" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="J28" t="n">
         <v>3.4</v>
       </c>
       <c r="K28" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L28" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M28" t="n">
         <v>1.06</v>
@@ -4225,7 +4225,7 @@
         <v>2.2</v>
       </c>
       <c r="V28" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="W28" t="n">
         <v>1.5</v>
@@ -4234,16 +4234,16 @@
         <v>19.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA28" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AB28" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC28" t="n">
         <v>10</v>
@@ -4261,7 +4261,7 @@
         <v>15.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI28" t="n">
         <v>46</v>
@@ -4273,16 +4273,16 @@
         <v>38</v>
       </c>
       <c r="AL28" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AM28" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AN28" t="n">
         <v>26</v>
       </c>
       <c r="AO28" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29">
@@ -4318,16 +4318,16 @@
         <v>1.53</v>
       </c>
       <c r="H29" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I29" t="n">
-        <v>8.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J29" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K29" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -4342,10 +4342,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -4450,7 +4450,7 @@
         <v>1.23</v>
       </c>
       <c r="G30" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="H30" t="n">
         <v>10</v>
@@ -4459,7 +4459,7 @@
         <v>13</v>
       </c>
       <c r="J30" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="K30" t="n">
         <v>11</v>
@@ -4471,34 +4471,34 @@
         <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="O30" t="n">
         <v>1.09</v>
       </c>
       <c r="P30" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q30" t="n">
         <v>1.25</v>
       </c>
       <c r="R30" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="S30" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="T30" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="U30" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="V30" t="n">
         <v>1.08</v>
       </c>
       <c r="W30" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="X30" t="n">
         <v>1000</v>
@@ -4525,10 +4525,10 @@
         <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AG30" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AH30" t="n">
         <v>980</v>
@@ -4549,7 +4549,7 @@
         <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
@@ -4606,7 +4606,7 @@
         <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O31" t="n">
         <v>1.28</v>
@@ -4615,19 +4615,19 @@
         <v>1.98</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="R31" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S31" t="n">
         <v>3.1</v>
       </c>
       <c r="T31" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U31" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="V31" t="n">
         <v>2.28</v>
@@ -4636,7 +4636,7 @@
         <v>1.2</v>
       </c>
       <c r="X31" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y31" t="n">
         <v>10.5</v>
@@ -4666,16 +4666,16 @@
         <v>26</v>
       </c>
       <c r="AH31" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI31" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ31" t="n">
         <v>190</v>
       </c>
       <c r="AK31" t="n">
-        <v>960</v>
+        <v>100</v>
       </c>
       <c r="AL31" t="n">
         <v>95</v>
@@ -4687,7 +4687,7 @@
         <v>120</v>
       </c>
       <c r="AO31" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
@@ -4720,13 +4720,13 @@
         <v>2.12</v>
       </c>
       <c r="G32" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="H32" t="n">
         <v>2.56</v>
       </c>
       <c r="I32" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="J32" t="n">
         <v>3.5</v>
@@ -4741,19 +4741,19 @@
         <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="O32" t="n">
         <v>1.24</v>
       </c>
       <c r="P32" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R32" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="S32" t="n">
         <v>2.6</v>
@@ -4765,10 +4765,10 @@
         <v>1.04</v>
       </c>
       <c r="V32" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="W32" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="X32" t="n">
         <v>1000</v>
@@ -4858,16 +4858,16 @@
         <v>1.57</v>
       </c>
       <c r="H33" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="I33" t="n">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="J33" t="n">
         <v>4.3</v>
       </c>
       <c r="K33" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -4885,7 +4885,7 @@
         <v>2.14</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -4987,64 +4987,64 @@
         </is>
       </c>
       <c r="F34" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G34" t="n">
         <v>1.34</v>
       </c>
-      <c r="G34" t="n">
-        <v>1.36</v>
-      </c>
       <c r="H34" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="I34" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="J34" t="n">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="K34" t="n">
         <v>7</v>
       </c>
       <c r="L34" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M34" t="n">
         <v>1.02</v>
       </c>
       <c r="N34" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="O34" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P34" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="R34" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="S34" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="T34" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U34" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V34" t="n">
         <v>1.12</v>
       </c>
       <c r="W34" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="X34" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="Y34" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="Z34" t="n">
         <v>110</v>
@@ -5053,43 +5053,43 @@
         <v>310</v>
       </c>
       <c r="AB34" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AC34" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AD34" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AE34" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AF34" t="n">
         <v>11.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AH34" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AI34" t="n">
         <v>110</v>
       </c>
       <c r="AJ34" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AK34" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL34" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AM34" t="n">
         <v>120</v>
       </c>
       <c r="AN34" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="AO34" t="n">
         <v>120</v>
@@ -5122,109 +5122,109 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="G35" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="H35" t="n">
         <v>3.1</v>
       </c>
       <c r="I35" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="J35" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K35" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="L35" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="M35" t="n">
         <v>1.1</v>
       </c>
       <c r="N35" t="n">
-        <v>2.92</v>
+        <v>2.74</v>
       </c>
       <c r="O35" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="P35" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="R35" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S35" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="T35" t="n">
         <v>2</v>
       </c>
       <c r="U35" t="n">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="V35" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="W35" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="X35" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y35" t="n">
         <v>11</v>
       </c>
       <c r="Z35" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AA35" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB35" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD35" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF35" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH35" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI35" t="n">
         <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AK35" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL35" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM35" t="n">
         <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AO35" t="n">
         <v>1000</v>
@@ -5257,61 +5257,61 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="G36" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="H36" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="I36" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="J36" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="K36" t="n">
-        <v>4.7</v>
+        <v>3.75</v>
       </c>
       <c r="L36" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M36" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N36" t="n">
-        <v>1.51</v>
+        <v>2.6</v>
       </c>
       <c r="O36" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="P36" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R36" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S36" t="n">
-        <v>2.28</v>
+        <v>4.4</v>
       </c>
       <c r="T36" t="n">
-        <v>1.04</v>
+        <v>1.86</v>
       </c>
       <c r="U36" t="n">
-        <v>1.04</v>
+        <v>1.68</v>
       </c>
       <c r="V36" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="W36" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="X36" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y36" t="n">
         <v>1000</v>
@@ -5323,10 +5323,10 @@
         <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC36" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD36" t="n">
         <v>1000</v>
@@ -5392,94 +5392,94 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.75</v>
+        <v>5.4</v>
       </c>
       <c r="G37" t="n">
-        <v>4.3</v>
+        <v>7.4</v>
       </c>
       <c r="H37" t="n">
-        <v>2.1</v>
+        <v>1.71</v>
       </c>
       <c r="I37" t="n">
-        <v>2.32</v>
+        <v>1.86</v>
       </c>
       <c r="J37" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K37" t="n">
+        <v>4</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N37" t="n">
         <v>3</v>
       </c>
-      <c r="K37" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N37" t="n">
-        <v>2.94</v>
-      </c>
       <c r="O37" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="P37" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="R37" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="S37" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="T37" t="n">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="U37" t="n">
-        <v>1.04</v>
+        <v>1.79</v>
       </c>
       <c r="V37" t="n">
-        <v>1.75</v>
+        <v>2.16</v>
       </c>
       <c r="W37" t="n">
-        <v>1.3</v>
+        <v>1.15</v>
       </c>
       <c r="X37" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y37" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="Z37" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AA37" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AB37" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AC37" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AD37" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AF37" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AG37" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AH37" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AI37" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ37" t="n">
         <v>1000</v>
@@ -5497,7 +5497,7 @@
         <v>1000</v>
       </c>
       <c r="AO37" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
@@ -5530,7 +5530,7 @@
         <v>2.28</v>
       </c>
       <c r="G38" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="H38" t="n">
         <v>2.98</v>
@@ -5539,7 +5539,7 @@
         <v>3.65</v>
       </c>
       <c r="J38" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K38" t="n">
         <v>4.3</v>
@@ -5551,34 +5551,34 @@
         <v>1.06</v>
       </c>
       <c r="N38" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="O38" t="n">
         <v>1.31</v>
       </c>
       <c r="P38" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="R38" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S38" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="T38" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U38" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="V38" t="n">
         <v>1.4</v>
       </c>
       <c r="W38" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="X38" t="n">
         <v>1000</v>
@@ -5596,7 +5596,7 @@
         <v>980</v>
       </c>
       <c r="AC38" t="n">
-        <v>980</v>
+        <v>9.6</v>
       </c>
       <c r="AD38" t="n">
         <v>980</v>
@@ -5668,16 +5668,16 @@
         <v>5.7</v>
       </c>
       <c r="H39" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="I39" t="n">
         <v>1.75</v>
       </c>
       <c r="J39" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="K39" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L39" t="n">
         <v>1.01</v>
@@ -5695,19 +5695,19 @@
         <v>2.46</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="R39" t="n">
         <v>1.59</v>
       </c>
       <c r="S39" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="T39" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="U39" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V39" t="n">
         <v>2.32</v>
@@ -5716,13 +5716,13 @@
         <v>1.21</v>
       </c>
       <c r="X39" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="Y39" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="Z39" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA39" t="n">
         <v>980</v>
@@ -5731,10 +5731,10 @@
         <v>980</v>
       </c>
       <c r="AC39" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AD39" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AE39" t="n">
         <v>980</v>
@@ -5746,7 +5746,7 @@
         <v>980</v>
       </c>
       <c r="AH39" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AI39" t="n">
         <v>980</v>
@@ -5755,19 +5755,19 @@
         <v>140</v>
       </c>
       <c r="AK39" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AL39" t="n">
         <v>65</v>
       </c>
       <c r="AM39" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AN39" t="n">
         <v>1000</v>
       </c>
       <c r="AO39" t="n">
-        <v>26</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="40">
@@ -5797,58 +5797,58 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="G40" t="n">
         <v>1.87</v>
       </c>
       <c r="H40" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I40" t="n">
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
       <c r="J40" t="n">
         <v>3.2</v>
       </c>
       <c r="K40" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L40" t="n">
         <v>1.01</v>
       </c>
       <c r="M40" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N40" t="n">
-        <v>1.99</v>
+        <v>2.4</v>
       </c>
       <c r="O40" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="P40" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="R40" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="S40" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T40" t="n">
         <v>2.04</v>
       </c>
       <c r="U40" t="n">
-        <v>1.66</v>
+        <v>1.56</v>
       </c>
       <c r="V40" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="W40" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="X40" t="n">
         <v>1000</v>
@@ -5863,7 +5863,7 @@
         <v>1000</v>
       </c>
       <c r="AB40" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AC40" t="n">
         <v>1000</v>
@@ -5932,91 +5932,91 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="G41" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="H41" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="I41" t="n">
-        <v>2.64</v>
+        <v>2.44</v>
       </c>
       <c r="J41" t="n">
-        <v>2.76</v>
+        <v>2.96</v>
       </c>
       <c r="K41" t="n">
-        <v>980</v>
+        <v>3.75</v>
       </c>
       <c r="L41" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="M41" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N41" t="n">
         <v>2.68</v>
       </c>
       <c r="O41" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="P41" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.24</v>
+        <v>2.44</v>
       </c>
       <c r="R41" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S41" t="n">
-        <v>2.24</v>
+        <v>4.9</v>
       </c>
       <c r="T41" t="n">
-        <v>1.04</v>
+        <v>2.02</v>
       </c>
       <c r="U41" t="n">
-        <v>1.04</v>
+        <v>1.8</v>
       </c>
       <c r="V41" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="W41" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X41" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y41" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="Z41" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AA41" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AB41" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC41" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD41" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF41" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG41" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH41" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI41" t="n">
         <v>1000</v>
@@ -6028,7 +6028,7 @@
         <v>1000</v>
       </c>
       <c r="AL41" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM41" t="n">
         <v>1000</v>
@@ -6037,7 +6037,7 @@
         <v>1000</v>
       </c>
       <c r="AO41" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42">
@@ -6067,64 +6067,64 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.36</v>
+        <v>2.64</v>
       </c>
       <c r="G42" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="I42" t="n">
         <v>3.4</v>
       </c>
-      <c r="H42" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="I42" t="n">
-        <v>3.45</v>
-      </c>
       <c r="J42" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="K42" t="n">
-        <v>5.8</v>
+        <v>4.2</v>
       </c>
       <c r="L42" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M42" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N42" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O42" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="P42" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="R42" t="n">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="S42" t="n">
-        <v>2.62</v>
+        <v>3.3</v>
       </c>
       <c r="T42" t="n">
-        <v>1.04</v>
+        <v>1.66</v>
       </c>
       <c r="U42" t="n">
-        <v>1.04</v>
+        <v>1.88</v>
       </c>
       <c r="V42" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W42" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="X42" t="n">
         <v>1000</v>
       </c>
       <c r="Y42" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z42" t="n">
         <v>1000</v>
@@ -6133,10 +6133,10 @@
         <v>1000</v>
       </c>
       <c r="AB42" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC42" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD42" t="n">
         <v>1000</v>
@@ -6202,61 +6202,61 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G43" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H43" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I43" t="n">
         <v>5.2</v>
       </c>
       <c r="J43" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K43" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L43" t="n">
         <v>1.01</v>
       </c>
       <c r="M43" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N43" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="O43" t="n">
         <v>1.49</v>
       </c>
       <c r="P43" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="R43" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S43" t="n">
         <v>4.3</v>
       </c>
       <c r="T43" t="n">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="U43" t="n">
         <v>1.68</v>
       </c>
       <c r="V43" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W43" t="n">
         <v>1.8</v>
       </c>
       <c r="X43" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y43" t="n">
         <v>980</v>
@@ -6298,7 +6298,7 @@
         <v>980</v>
       </c>
       <c r="AL43" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM43" t="n">
         <v>1000</v>
@@ -6337,112 +6337,112 @@
         </is>
       </c>
       <c r="F44" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="G44" t="n">
         <v>4</v>
       </c>
-      <c r="G44" t="n">
-        <v>4.3</v>
-      </c>
       <c r="H44" t="n">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="I44" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K44" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="L44" t="n">
         <v>1.01</v>
       </c>
       <c r="M44" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N44" t="n">
         <v>3.35</v>
       </c>
       <c r="O44" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="P44" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="R44" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="S44" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="T44" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="U44" t="n">
-        <v>1.78</v>
+        <v>2.02</v>
       </c>
       <c r="V44" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W44" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X44" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y44" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="Z44" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AA44" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AB44" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC44" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD44" t="n">
         <v>11</v>
       </c>
       <c r="AE44" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AF44" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG44" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AH44" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AI44" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ44" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AK44" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN44" t="n">
         <v>60</v>
       </c>
-      <c r="AL44" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>70</v>
-      </c>
       <c r="AO44" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45">
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="G45" t="n">
         <v>1.75</v>
@@ -6481,46 +6481,46 @@
         <v>5.6</v>
       </c>
       <c r="I45" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="J45" t="n">
         <v>3.65</v>
       </c>
       <c r="K45" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L45" t="n">
         <v>1.43</v>
       </c>
       <c r="M45" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N45" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O45" t="n">
         <v>1.36</v>
       </c>
       <c r="P45" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="Q45" t="n">
         <v>2.02</v>
       </c>
       <c r="R45" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S45" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="T45" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U45" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="V45" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W45" t="n">
         <v>2.32</v>
@@ -6541,16 +6541,16 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC45" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AD45" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE45" t="n">
         <v>1000</v>
       </c>
       <c r="AF45" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AG45" t="n">
         <v>12</v>
@@ -6559,7 +6559,7 @@
         <v>27</v>
       </c>
       <c r="AI45" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AJ45" t="n">
         <v>22</v>
@@ -6607,22 +6607,22 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.94</v>
+        <v>2.72</v>
       </c>
       <c r="G46" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H46" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I46" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="J46" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="K46" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -6640,7 +6640,7 @@
         <v>1.39</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -6742,22 +6742,22 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="G47" t="n">
-        <v>2.26</v>
+        <v>2.12</v>
       </c>
       <c r="H47" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="I47" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="J47" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="K47" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -6772,10 +6772,10 @@
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.98</v>
+        <v>3.4</v>
       </c>
       <c r="R47" t="n">
         <v>0</v>
@@ -6877,19 +6877,19 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G48" t="n">
         <v>2.1</v>
       </c>
       <c r="H48" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I48" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J48" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K48" t="n">
         <v>4.7</v>
@@ -6901,7 +6901,7 @@
         <v>1.02</v>
       </c>
       <c r="N48" t="n">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="O48" t="n">
         <v>1.18</v>
@@ -6910,7 +6910,7 @@
         <v>2.56</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="R48" t="n">
         <v>1.63</v>
@@ -6919,19 +6919,19 @@
         <v>2.28</v>
       </c>
       <c r="T48" t="n">
-        <v>1.45</v>
+        <v>1.54</v>
       </c>
       <c r="U48" t="n">
         <v>2.3</v>
       </c>
       <c r="V48" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="W48" t="n">
         <v>1.9</v>
       </c>
       <c r="X48" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="Y48" t="n">
         <v>980</v>
@@ -6940,13 +6940,13 @@
         <v>980</v>
       </c>
       <c r="AA48" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AB48" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AC48" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD48" t="n">
         <v>980</v>
@@ -6958,10 +6958,10 @@
         <v>19.5</v>
       </c>
       <c r="AG48" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH48" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AI48" t="n">
         <v>980</v>
@@ -6970,7 +6970,7 @@
         <v>980</v>
       </c>
       <c r="AK48" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AL48" t="n">
         <v>980</v>
@@ -7015,7 +7015,7 @@
         <v>1.89</v>
       </c>
       <c r="G49" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="H49" t="n">
         <v>4.2</v>
@@ -7024,55 +7024,55 @@
         <v>4.7</v>
       </c>
       <c r="J49" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K49" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L49" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M49" t="n">
         <v>1.05</v>
       </c>
       <c r="N49" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O49" t="n">
         <v>1.25</v>
       </c>
       <c r="P49" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R49" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="S49" t="n">
         <v>2.84</v>
       </c>
       <c r="T49" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U49" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="V49" t="n">
         <v>1.27</v>
       </c>
       <c r="W49" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X49" t="n">
         <v>19.5</v>
       </c>
       <c r="Y49" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="Z49" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AA49" t="n">
         <v>90</v>
@@ -7087,7 +7087,7 @@
         <v>21</v>
       </c>
       <c r="AE49" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF49" t="n">
         <v>13</v>
@@ -7096,22 +7096,22 @@
         <v>10.5</v>
       </c>
       <c r="AH49" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI49" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ49" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK49" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL49" t="n">
         <v>980</v>
       </c>
       <c r="AM49" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN49" t="n">
         <v>11</v>
@@ -7153,7 +7153,7 @@
         <v>2.88</v>
       </c>
       <c r="H50" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="I50" t="n">
         <v>4.1</v>
@@ -7165,7 +7165,7 @@
         <v>4</v>
       </c>
       <c r="L50" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M50" t="n">
         <v>1.08</v>
@@ -7174,10 +7174,10 @@
         <v>2.68</v>
       </c>
       <c r="O50" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P50" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q50" t="n">
         <v>2.18</v>
@@ -7186,13 +7186,13 @@
         <v>1.25</v>
       </c>
       <c r="S50" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="T50" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="U50" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="V50" t="n">
         <v>1.32</v>
@@ -7282,25 +7282,25 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="G51" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="H51" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="I51" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="J51" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="K51" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="L51" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M51" t="n">
         <v>1.05</v>
@@ -7312,25 +7312,25 @@
         <v>1.29</v>
       </c>
       <c r="P51" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q51" t="n">
         <v>1.9</v>
       </c>
       <c r="R51" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S51" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T51" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="U51" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="V51" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="W51" t="n">
         <v>1.07</v>
@@ -7345,10 +7345,10 @@
         <v>7</v>
       </c>
       <c r="AA51" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AB51" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AC51" t="n">
         <v>12.5</v>
@@ -7363,7 +7363,7 @@
         <v>130</v>
       </c>
       <c r="AG51" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AH51" t="n">
         <v>40</v>
@@ -7381,7 +7381,7 @@
         <v>280</v>
       </c>
       <c r="AM51" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AN51" t="n">
         <v>520</v>
@@ -7417,13 +7417,13 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="G52" t="n">
         <v>3.1</v>
       </c>
       <c r="H52" t="n">
-        <v>2.62</v>
+        <v>2.82</v>
       </c>
       <c r="I52" t="n">
         <v>4.2</v>
@@ -7435,34 +7435,34 @@
         <v>3.7</v>
       </c>
       <c r="L52" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="M52" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N52" t="n">
-        <v>1.76</v>
+        <v>2.3</v>
       </c>
       <c r="O52" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="P52" t="n">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.76</v>
+        <v>2.32</v>
       </c>
       <c r="R52" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="S52" t="n">
-        <v>2.32</v>
+        <v>3.45</v>
       </c>
       <c r="T52" t="n">
-        <v>1.04</v>
+        <v>2.02</v>
       </c>
       <c r="U52" t="n">
-        <v>1.04</v>
+        <v>1.66</v>
       </c>
       <c r="V52" t="n">
         <v>1.32</v>
@@ -7552,40 +7552,40 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="G53" t="n">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="H53" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="I53" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="J53" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K53" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Q53" t="n">
         <v>3</v>
-      </c>
-      <c r="K53" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O53" t="n">
-        <v>0</v>
-      </c>
-      <c r="P53" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>2.88</v>
       </c>
       <c r="R53" t="n">
         <v>0</v>
@@ -7714,7 +7714,7 @@
         <v>1.89</v>
       </c>
       <c r="O54" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="P54" t="n">
         <v>1.5</v>
@@ -7822,22 +7822,22 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="G55" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="H55" t="n">
         <v>3.7</v>
       </c>
       <c r="I55" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J55" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="K55" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="L55" t="n">
         <v>1.44</v>
@@ -7846,16 +7846,16 @@
         <v>1.01</v>
       </c>
       <c r="N55" t="n">
-        <v>1.97</v>
+        <v>1.1</v>
       </c>
       <c r="O55" t="n">
         <v>1.01</v>
       </c>
       <c r="P55" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R55" t="n">
         <v>1.18</v>
@@ -7870,10 +7870,10 @@
         <v>1.04</v>
       </c>
       <c r="V55" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W55" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="X55" t="n">
         <v>1000</v>
@@ -7963,16 +7963,16 @@
         <v>3.6</v>
       </c>
       <c r="H56" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="I56" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="J56" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K56" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L56" t="n">
         <v>1.44</v>
@@ -7984,31 +7984,31 @@
         <v>3.4</v>
       </c>
       <c r="O56" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P56" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R56" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S56" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T56" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U56" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V56" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="W56" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X56" t="n">
         <v>13.5</v>
@@ -8095,19 +8095,19 @@
         <v>1.89</v>
       </c>
       <c r="G57" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="H57" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="I57" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="J57" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K57" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -8125,7 +8125,7 @@
         <v>1.6</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.16</v>
+        <v>2.44</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
@@ -8227,58 +8227,58 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="G58" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H58" t="n">
         <v>3.95</v>
       </c>
       <c r="I58" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="J58" t="n">
         <v>3.55</v>
       </c>
       <c r="K58" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L58" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="M58" t="n">
         <v>1.05</v>
       </c>
       <c r="N58" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O58" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P58" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="R58" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S58" t="n">
         <v>2.86</v>
       </c>
       <c r="T58" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U58" t="n">
         <v>1.93</v>
       </c>
       <c r="V58" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="W58" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="X58" t="n">
         <v>980</v>
@@ -8314,7 +8314,7 @@
         <v>980</v>
       </c>
       <c r="AI58" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ58" t="n">
         <v>980</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO58"/>
+  <dimension ref="A1:AO59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="G2" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="I2" t="n">
-        <v>2.38</v>
+        <v>2.66</v>
       </c>
       <c r="J2" t="n">
-        <v>3.3</v>
+        <v>2.92</v>
       </c>
       <c r="K2" t="n">
         <v>3.8</v>
@@ -688,19 +688,19 @@
         <v>1.36</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="O2" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="R2" t="n">
         <v>1.31</v>
@@ -709,22 +709,22 @@
         <v>3.2</v>
       </c>
       <c r="T2" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="U2" t="n">
         <v>1.91</v>
       </c>
       <c r="V2" t="n">
-        <v>1.72</v>
+        <v>1.61</v>
       </c>
       <c r="W2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -739,7 +739,7 @@
         <v>9.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -751,7 +751,7 @@
         <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -832,7 +832,7 @@
         <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q3" t="n">
         <v>2.26</v>
@@ -844,7 +844,7 @@
         <v>4.3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.81</v>
+        <v>1.96</v>
       </c>
       <c r="U3" t="n">
         <v>1.72</v>
@@ -856,13 +856,13 @@
         <v>1.33</v>
       </c>
       <c r="X3" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y3" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="Z3" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AA3" t="n">
         <v>36</v>
@@ -874,7 +874,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AE3" t="n">
         <v>34</v>
@@ -889,7 +889,7 @@
         <v>26</v>
       </c>
       <c r="AI3" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -937,109 +937,109 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="G4" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="I4" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="J4" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
         <v>5.1</v>
       </c>
       <c r="L4" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="P4" t="n">
-        <v>2.16</v>
+        <v>2.42</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.69</v>
+        <v>1.58</v>
       </c>
       <c r="R4" t="n">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="S4" t="n">
-        <v>2.74</v>
+        <v>2.44</v>
       </c>
       <c r="T4" t="n">
-        <v>1.69</v>
+        <v>1.61</v>
       </c>
       <c r="U4" t="n">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="V4" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="W4" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="X4" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Y4" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD4" t="n">
         <v>13</v>
       </c>
-      <c r="Z4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AE4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="n">
         <v>46</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL4" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN4" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AO4" t="n">
         <v>12</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Lithuanian A Lyga</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,72 +1058,72 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Crotone</t>
+          <t>FC Neptunas Klaipeda</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sorrento</t>
+          <t>Riteriai</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.44</v>
+        <v>1.04</v>
       </c>
       <c r="G5" t="n">
-        <v>1.53</v>
+        <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>7.2</v>
+        <v>1.04</v>
       </c>
       <c r="I5" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>4.2</v>
+        <v>1.04</v>
       </c>
       <c r="K5" t="n">
-        <v>5.7</v>
+        <v>1000</v>
       </c>
       <c r="L5" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>3.7</v>
+        <v>1.26</v>
       </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="P5" t="n">
-        <v>1.92</v>
+        <v>1.26</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.76</v>
+        <v>1.18</v>
       </c>
       <c r="R5" t="n">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>3.1</v>
+        <v>1.18</v>
       </c>
       <c r="T5" t="n">
-        <v>1.97</v>
+        <v>1.04</v>
       </c>
       <c r="U5" t="n">
-        <v>1.64</v>
+        <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>2.88</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1138,7 +1138,7 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
         <v>1000</v>
@@ -1150,7 +1150,7 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
         <v>1000</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1198,67 +1198,67 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ASD Pineto Calcio</t>
+          <t>Crotone</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Carpi</t>
+          <t>Sorrento</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.9</v>
+        <v>1.44</v>
       </c>
       <c r="G6" t="n">
-        <v>2.48</v>
+        <v>1.56</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>7.2</v>
       </c>
       <c r="I6" t="n">
-        <v>6.8</v>
+        <v>12</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="K6" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="P6" t="n">
-        <v>1.52</v>
+        <v>1.92</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.16</v>
+        <v>1.78</v>
       </c>
       <c r="R6" t="n">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="S6" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="T6" t="n">
-        <v>1.04</v>
+        <v>1.97</v>
       </c>
       <c r="U6" t="n">
-        <v>1.04</v>
+        <v>1.64</v>
       </c>
       <c r="V6" t="n">
-        <v>1.17</v>
+        <v>1.09</v>
       </c>
       <c r="W6" t="n">
-        <v>1.67</v>
+        <v>2.78</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1273,7 +1273,7 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC6" t="n">
         <v>1000</v>
@@ -1285,7 +1285,7 @@
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG6" t="n">
         <v>1000</v>
@@ -1309,7 +1309,7 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,126 +1328,126 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Penybont FC</t>
+          <t>ASD Pineto Calcio</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Bala Town</t>
+          <t>Carpi</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.34</v>
+        <v>2.02</v>
       </c>
       <c r="G7" t="n">
-        <v>1.4</v>
+        <v>2.26</v>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>12.5</v>
+        <v>5.3</v>
       </c>
       <c r="J7" t="n">
-        <v>5.3</v>
+        <v>3.05</v>
       </c>
       <c r="K7" t="n">
-        <v>6</v>
+        <v>3.95</v>
       </c>
       <c r="L7" t="n">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>4.3</v>
+        <v>2.76</v>
       </c>
       <c r="O7" t="n">
-        <v>1.24</v>
+        <v>1.45</v>
       </c>
       <c r="P7" t="n">
-        <v>2.14</v>
+        <v>1.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.7</v>
+        <v>2.34</v>
       </c>
       <c r="R7" t="n">
-        <v>1.45</v>
+        <v>1.22</v>
       </c>
       <c r="S7" t="n">
-        <v>2.74</v>
+        <v>4.1</v>
       </c>
       <c r="T7" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="U7" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="V7" t="n">
-        <v>1.08</v>
+        <v>1.25</v>
       </c>
       <c r="W7" t="n">
-        <v>3.5</v>
+        <v>1.79</v>
       </c>
       <c r="X7" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Y7" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z7" t="n">
         <v>38</v>
       </c>
-      <c r="Z7" t="n">
-        <v>110</v>
-      </c>
       <c r="AA7" t="n">
-        <v>520</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="AD7" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="AE7" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.4</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="AI7" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11.5</v>
+        <v>34</v>
       </c>
       <c r="AK7" t="n">
-        <v>15.5</v>
+        <v>34</v>
       </c>
       <c r="AL7" t="n">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AM7" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>6.2</v>
+        <v>30</v>
       </c>
       <c r="AO7" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Haverfordwest County</t>
+          <t>Penybont FC</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Bala Town</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.42</v>
+        <v>1.34</v>
       </c>
       <c r="G8" t="n">
-        <v>2.68</v>
+        <v>1.4</v>
       </c>
       <c r="H8" t="n">
-        <v>2.76</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>3.15</v>
+        <v>12</v>
       </c>
       <c r="J8" t="n">
-        <v>3.3</v>
+        <v>5.3</v>
       </c>
       <c r="K8" t="n">
-        <v>4.1</v>
+        <v>5.9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="P8" t="n">
-        <v>1.91</v>
+        <v>2.12</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.89</v>
+        <v>1.72</v>
       </c>
       <c r="R8" t="n">
-        <v>1.34</v>
+        <v>1.45</v>
       </c>
       <c r="S8" t="n">
-        <v>2.98</v>
+        <v>2.8</v>
       </c>
       <c r="T8" t="n">
-        <v>1.62</v>
+        <v>2.04</v>
       </c>
       <c r="U8" t="n">
-        <v>1.95</v>
+        <v>1.77</v>
       </c>
       <c r="V8" t="n">
-        <v>1.47</v>
+        <v>1.09</v>
       </c>
       <c r="W8" t="n">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y8" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>520</v>
       </c>
       <c r="AB8" t="n">
-        <v>980</v>
+        <v>10</v>
       </c>
       <c r="AC8" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AF8" t="n">
-        <v>980</v>
+        <v>8.4</v>
       </c>
       <c r="AG8" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,36 +1598,36 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CD Castellon</t>
+          <t>Haverfordwest County</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sociedad B</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.5</v>
+        <v>2.42</v>
       </c>
       <c r="G9" t="n">
-        <v>1.52</v>
+        <v>2.68</v>
       </c>
       <c r="H9" t="n">
-        <v>7.4</v>
+        <v>2.76</v>
       </c>
       <c r="I9" t="n">
-        <v>8</v>
+        <v>3.15</v>
       </c>
       <c r="J9" t="n">
-        <v>4.9</v>
+        <v>3.3</v>
       </c>
       <c r="K9" t="n">
-        <v>5.1</v>
+        <v>4.1</v>
       </c>
       <c r="L9" t="n">
         <v>1.32</v>
@@ -1636,88 +1636,88 @@
         <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="P9" t="n">
-        <v>2.28</v>
+        <v>1.91</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.7</v>
+        <v>1.89</v>
       </c>
       <c r="R9" t="n">
-        <v>1.5</v>
+        <v>1.34</v>
       </c>
       <c r="S9" t="n">
-        <v>2.74</v>
+        <v>2.98</v>
       </c>
       <c r="T9" t="n">
-        <v>1.87</v>
+        <v>1.62</v>
       </c>
       <c r="U9" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="V9" t="n">
-        <v>1.14</v>
+        <v>1.47</v>
       </c>
       <c r="W9" t="n">
-        <v>2.94</v>
+        <v>1.6</v>
       </c>
       <c r="X9" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="Z9" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.6</v>
+        <v>980</v>
       </c>
       <c r="AC9" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AD9" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AE9" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="AG9" t="n">
-        <v>9.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="AH9" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AI9" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>CD Castellon</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Andorra CF</t>
+          <t>Sociedad B</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.16</v>
+        <v>1.48</v>
       </c>
       <c r="G10" t="n">
-        <v>2.28</v>
+        <v>1.5</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>7.6</v>
       </c>
       <c r="I10" t="n">
-        <v>3.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J10" t="n">
-        <v>3.45</v>
+        <v>4.8</v>
       </c>
       <c r="K10" t="n">
-        <v>3.8</v>
+        <v>5.1</v>
       </c>
       <c r="L10" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="P10" t="n">
-        <v>2.08</v>
+        <v>2.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="R10" t="n">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="S10" t="n">
-        <v>3.05</v>
+        <v>2.74</v>
       </c>
       <c r="T10" t="n">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="U10" t="n">
-        <v>2.26</v>
+        <v>2.02</v>
       </c>
       <c r="V10" t="n">
-        <v>1.35</v>
+        <v>1.13</v>
       </c>
       <c r="W10" t="n">
-        <v>1.78</v>
+        <v>3</v>
       </c>
       <c r="X10" t="n">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="Z10" t="n">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="AA10" t="n">
-        <v>70</v>
+        <v>260</v>
       </c>
       <c r="AB10" t="n">
-        <v>12</v>
+        <v>9.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.6</v>
+        <v>11</v>
       </c>
       <c r="AD10" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK10" t="n">
         <v>16</v>
       </c>
-      <c r="AE10" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ10" t="n">
+      <c r="AL10" t="n">
         <v>34</v>
       </c>
-      <c r="AK10" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>42</v>
-      </c>
       <c r="AM10" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="AN10" t="n">
-        <v>17.5</v>
+        <v>6.6</v>
       </c>
       <c r="AO10" t="n">
-        <v>42</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Scottish League Two</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Stirling</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Forfar</t>
+          <t>Andorra CF</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.72</v>
+        <v>2.1</v>
       </c>
       <c r="G11" t="n">
-        <v>3.15</v>
+        <v>2.2</v>
       </c>
       <c r="H11" t="n">
-        <v>2.54</v>
+        <v>3.55</v>
       </c>
       <c r="I11" t="n">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="J11" t="n">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="K11" t="n">
         <v>3.75</v>
       </c>
       <c r="L11" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>3.35</v>
+        <v>4.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="P11" t="n">
-        <v>1.8</v>
+        <v>2.08</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.99</v>
+        <v>1.82</v>
       </c>
       <c r="R11" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="S11" t="n">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="T11" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="U11" t="n">
-        <v>2.04</v>
+        <v>2.26</v>
       </c>
       <c r="V11" t="n">
-        <v>1.55</v>
+        <v>1.34</v>
       </c>
       <c r="W11" t="n">
-        <v>1.46</v>
+        <v>1.83</v>
       </c>
       <c r="X11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD11" t="n">
         <v>16</v>
       </c>
-      <c r="Y11" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AE11" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AF11" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AI11" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ11" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="AK11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL11" t="n">
         <v>42</v>
       </c>
-      <c r="AL11" t="n">
-        <v>60</v>
-      </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN11" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="AO11" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
     </row>
     <row r="12">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>Stirling</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>East Kilbride</t>
+          <t>Forfar</t>
         </is>
       </c>
       <c r="F12" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K12" t="n">
         <v>3.75</v>
       </c>
-      <c r="G12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="H12" t="n">
+      <c r="L12" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P12" t="n">
         <v>1.8</v>
       </c>
-      <c r="I12" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K12" t="n">
-        <v>5</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N12" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.12</v>
-      </c>
       <c r="Q12" t="n">
-        <v>1.61</v>
+        <v>1.99</v>
       </c>
       <c r="R12" t="n">
-        <v>1.45</v>
+        <v>1.31</v>
       </c>
       <c r="S12" t="n">
-        <v>2.68</v>
+        <v>3.5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.58</v>
+        <v>1.75</v>
       </c>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="V12" t="n">
-        <v>2.02</v>
+        <v>1.55</v>
       </c>
       <c r="W12" t="n">
-        <v>1.23</v>
+        <v>1.47</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>East Kilbride</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.97</v>
+        <v>3.3</v>
       </c>
       <c r="G13" t="n">
-        <v>2.2</v>
+        <v>4.1</v>
       </c>
       <c r="H13" t="n">
-        <v>3.35</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>4.5</v>
+        <v>2.32</v>
       </c>
       <c r="J13" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K13" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="O13" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P13" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="R13" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="S13" t="n">
-        <v>2.7</v>
+        <v>2.78</v>
       </c>
       <c r="T13" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="U13" t="n">
-        <v>2.02</v>
+        <v>2.22</v>
       </c>
       <c r="V13" t="n">
-        <v>1.3</v>
+        <v>1.76</v>
       </c>
       <c r="W13" t="n">
-        <v>1.83</v>
+        <v>1.32</v>
       </c>
       <c r="X13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2278,31 +2278,31 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Elgin City FC</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Dumbarton</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.2</v>
+        <v>1.79</v>
       </c>
       <c r="G14" t="n">
-        <v>2.46</v>
+        <v>1.97</v>
       </c>
       <c r="H14" t="n">
-        <v>2.98</v>
+        <v>4.1</v>
       </c>
       <c r="I14" t="n">
-        <v>3.45</v>
+        <v>5.1</v>
       </c>
       <c r="J14" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K14" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2311,88 +2311,88 @@
         <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R14" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="S14" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="T14" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="U14" t="n">
-        <v>2.34</v>
+        <v>2.04</v>
       </c>
       <c r="V14" t="n">
-        <v>1.41</v>
+        <v>1.24</v>
       </c>
       <c r="W14" t="n">
-        <v>1.68</v>
+        <v>2.02</v>
       </c>
       <c r="X14" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="Y14" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="Z14" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AA14" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="AB14" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AC14" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AD14" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AE14" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AF14" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AG14" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AH14" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AI14" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AJ14" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AK14" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AL14" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AM14" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AO14" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
     </row>
     <row r="15">
@@ -2413,127 +2413,127 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Elgin City FC</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Dumbarton</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.42</v>
+        <v>2.1</v>
       </c>
       <c r="G15" t="n">
-        <v>3.1</v>
+        <v>2.36</v>
       </c>
       <c r="H15" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>2.88</v>
+        <v>3.6</v>
       </c>
       <c r="J15" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="K15" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L15" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O15" t="n">
         <v>1.21</v>
       </c>
       <c r="P15" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="R15" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S15" t="n">
-        <v>2.44</v>
+        <v>2.64</v>
       </c>
       <c r="T15" t="n">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="U15" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="V15" t="n">
-        <v>1.53</v>
+        <v>1.39</v>
       </c>
       <c r="W15" t="n">
-        <v>1.54</v>
+        <v>1.73</v>
       </c>
       <c r="X15" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="Y15" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AA15" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AB15" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD15" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AE15" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AF15" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AH15" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AI15" t="n">
         <v>980</v>
       </c>
       <c r="AJ15" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AK15" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AL15" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AM15" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AN15" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AO15" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Scottish League One</t>
+          <t>Scottish League Two</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="F16" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K16" t="n">
         <v>4.4</v>
       </c>
-      <c r="G16" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N16" t="n">
         <v>4.2</v>
       </c>
-      <c r="L16" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N16" t="n">
-        <v>4</v>
-      </c>
       <c r="O16" t="n">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="P16" t="n">
-        <v>2.04</v>
+        <v>2.24</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.77</v>
+        <v>1.63</v>
       </c>
       <c r="R16" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="S16" t="n">
-        <v>2.92</v>
+        <v>2.44</v>
       </c>
       <c r="T16" t="n">
-        <v>1.73</v>
+        <v>1.48</v>
       </c>
       <c r="U16" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="V16" t="n">
-        <v>2.08</v>
+        <v>1.53</v>
       </c>
       <c r="W16" t="n">
-        <v>1.24</v>
+        <v>1.54</v>
       </c>
       <c r="X16" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="Y16" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="Z16" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AA16" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AB16" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AC16" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AE16" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AF16" t="n">
         <v>980</v>
       </c>
       <c r="AG16" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AH16" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AI16" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AJ16" t="n">
-        <v>130</v>
+        <v>980</v>
       </c>
       <c r="AK16" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AL16" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AM16" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AN16" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AO16" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
     </row>
     <row r="17">
@@ -2683,127 +2683,127 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Peterhead</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.96</v>
+        <v>4.4</v>
       </c>
       <c r="G17" t="n">
-        <v>2.06</v>
+        <v>5</v>
       </c>
       <c r="H17" t="n">
-        <v>3.55</v>
+        <v>1.79</v>
       </c>
       <c r="I17" t="n">
-        <v>4.4</v>
+        <v>1.92</v>
       </c>
       <c r="J17" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K17" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="L17" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="O17" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="P17" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="Q17" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="T17" t="n">
         <v>1.73</v>
       </c>
-      <c r="R17" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.61</v>
-      </c>
       <c r="U17" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="V17" t="n">
-        <v>1.29</v>
+        <v>2.08</v>
       </c>
       <c r="W17" t="n">
-        <v>1.94</v>
+        <v>1.25</v>
       </c>
       <c r="X17" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="Y17" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AC17" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AD17" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF17" t="n">
         <v>980</v>
       </c>
       <c r="AG17" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AH17" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ17" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AK17" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN17" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Raith</t>
+          <t>Peterhead</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Airdrieonians</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.57</v>
+        <v>1.72</v>
       </c>
       <c r="G18" t="n">
-        <v>1.62</v>
+        <v>1.84</v>
       </c>
       <c r="H18" t="n">
-        <v>7.2</v>
+        <v>4.1</v>
       </c>
       <c r="I18" t="n">
-        <v>7.6</v>
+        <v>4.8</v>
       </c>
       <c r="J18" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K18" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="L18" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="O18" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="P18" t="n">
-        <v>1.78</v>
+        <v>2.06</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.06</v>
+        <v>1.73</v>
       </c>
       <c r="R18" t="n">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="S18" t="n">
-        <v>3.7</v>
+        <v>2.78</v>
       </c>
       <c r="T18" t="n">
-        <v>1.94</v>
+        <v>1.64</v>
       </c>
       <c r="U18" t="n">
-        <v>1.62</v>
+        <v>1.98</v>
       </c>
       <c r="V18" t="n">
-        <v>1.15</v>
+        <v>1.26</v>
       </c>
       <c r="W18" t="n">
-        <v>2.58</v>
+        <v>2.18</v>
       </c>
       <c r="X18" t="n">
-        <v>15.5</v>
+        <v>22</v>
       </c>
       <c r="Y18" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="Z18" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AD18" t="n">
         <v>980</v>
       </c>
       <c r="AE18" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>8.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AH18" t="n">
         <v>980</v>
       </c>
       <c r="AI18" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AK18" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AL18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AO18" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Ayr</t>
+          <t>Raith</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Arbroath</t>
+          <t>Airdrieonians</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.74</v>
+        <v>1.57</v>
       </c>
       <c r="G19" t="n">
-        <v>1.86</v>
+        <v>1.62</v>
       </c>
       <c r="H19" t="n">
-        <v>5.3</v>
+        <v>7.2</v>
       </c>
       <c r="I19" t="n">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="J19" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="K19" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M19" t="n">
         <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="O19" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="P19" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="R19" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="S19" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="T19" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="U19" t="n">
-        <v>1.9</v>
+        <v>1.74</v>
       </c>
       <c r="V19" t="n">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="W19" t="n">
-        <v>2.16</v>
+        <v>2.58</v>
       </c>
       <c r="X19" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="Z19" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AA19" t="n">
-        <v>190</v>
+        <v>350</v>
       </c>
       <c r="AB19" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="AC19" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD19" t="n">
         <v>980</v>
       </c>
       <c r="AE19" t="n">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="AF19" t="n">
-        <v>12</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG19" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH19" t="n">
         <v>980</v>
       </c>
       <c r="AI19" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="AJ19" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AL19" t="n">
         <v>980</v>
       </c>
       <c r="AM19" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="AN19" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AO19" t="n">
-        <v>140</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20">
@@ -3088,67 +3088,67 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Ross Co</t>
+          <t>Ayr</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Morton</t>
+          <t>Arbroath</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="G20" t="n">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="H20" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="I20" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="J20" t="n">
         <v>3.45</v>
       </c>
       <c r="K20" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="L20" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="O20" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="P20" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="R20" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="S20" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T20" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="U20" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="V20" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W20" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="X20" t="n">
         <v>980</v>
@@ -3157,34 +3157,34 @@
         <v>980</v>
       </c>
       <c r="Z20" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AA20" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AB20" t="n">
-        <v>980</v>
+        <v>9.4</v>
       </c>
       <c r="AC20" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AD20" t="n">
         <v>980</v>
       </c>
       <c r="AE20" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AF20" t="n">
         <v>980</v>
       </c>
       <c r="AG20" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AH20" t="n">
         <v>980</v>
       </c>
       <c r="AI20" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AJ20" t="n">
         <v>980</v>
@@ -3199,10 +3199,10 @@
         <v>140</v>
       </c>
       <c r="AN20" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AO20" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21">
@@ -3223,79 +3223,79 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>St Johnstone</t>
+          <t>Ross Co</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Queens Park</t>
+          <t>Morton</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.26</v>
+        <v>1.85</v>
       </c>
       <c r="G21" t="n">
-        <v>1.3</v>
+        <v>2.04</v>
       </c>
       <c r="H21" t="n">
-        <v>14</v>
+        <v>4.2</v>
       </c>
       <c r="I21" t="n">
-        <v>14.5</v>
+        <v>5.1</v>
       </c>
       <c r="J21" t="n">
-        <v>6</v>
+        <v>3.55</v>
       </c>
       <c r="K21" t="n">
-        <v>7</v>
+        <v>4.4</v>
       </c>
       <c r="L21" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>4.9</v>
+        <v>3.45</v>
       </c>
       <c r="O21" t="n">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="P21" t="n">
-        <v>2.34</v>
+        <v>1.85</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.52</v>
+        <v>1.83</v>
       </c>
       <c r="R21" t="n">
-        <v>1.53</v>
+        <v>1.32</v>
       </c>
       <c r="S21" t="n">
-        <v>2.46</v>
+        <v>3.15</v>
       </c>
       <c r="T21" t="n">
-        <v>2.04</v>
+        <v>1.7</v>
       </c>
       <c r="U21" t="n">
-        <v>1.56</v>
+        <v>1.98</v>
       </c>
       <c r="V21" t="n">
-        <v>1.07</v>
+        <v>1.25</v>
       </c>
       <c r="W21" t="n">
-        <v>4.3</v>
+        <v>1.97</v>
       </c>
       <c r="X21" t="n">
         <v>980</v>
       </c>
       <c r="Y21" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB21" t="n">
         <v>980</v>
@@ -3304,10 +3304,10 @@
         <v>980</v>
       </c>
       <c r="AD21" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF21" t="n">
         <v>980</v>
@@ -3319,7 +3319,7 @@
         <v>980</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ21" t="n">
         <v>980</v>
@@ -3328,22 +3328,22 @@
         <v>980</v>
       </c>
       <c r="AL21" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN21" t="n">
-        <v>4.6</v>
+        <v>980</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Scottish League One</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>St Johnstone</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Queens Park</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>4.5</v>
+        <v>1.26</v>
       </c>
       <c r="G22" t="n">
-        <v>5.4</v>
+        <v>1.3</v>
       </c>
       <c r="H22" t="n">
-        <v>1.78</v>
+        <v>14</v>
       </c>
       <c r="I22" t="n">
-        <v>1.95</v>
+        <v>14.5</v>
       </c>
       <c r="J22" t="n">
-        <v>3.55</v>
+        <v>5.8</v>
       </c>
       <c r="K22" t="n">
-        <v>4.2</v>
+        <v>7.2</v>
       </c>
       <c r="L22" t="n">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>3.65</v>
+        <v>4.9</v>
       </c>
       <c r="O22" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="P22" t="n">
-        <v>1.91</v>
+        <v>2.36</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.89</v>
+        <v>1.52</v>
       </c>
       <c r="R22" t="n">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="S22" t="n">
-        <v>3.25</v>
+        <v>2.46</v>
       </c>
       <c r="T22" t="n">
-        <v>1.79</v>
+        <v>2.04</v>
       </c>
       <c r="U22" t="n">
-        <v>2</v>
+        <v>1.56</v>
       </c>
       <c r="V22" t="n">
-        <v>2.04</v>
+        <v>1.07</v>
       </c>
       <c r="W22" t="n">
-        <v>1.22</v>
+        <v>4.3</v>
       </c>
       <c r="X22" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="Y22" t="n">
-        <v>10.5</v>
+        <v>55</v>
       </c>
       <c r="Z22" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AC22" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="AE22" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AG22" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AH22" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AI22" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK22" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AL22" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>90</v>
+        <v>4.6</v>
       </c>
       <c r="AO22" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,126 +3488,126 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>12:03:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Boston Utd</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.02</v>
+        <v>4.5</v>
       </c>
       <c r="G23" t="n">
-        <v>2.2</v>
+        <v>5.4</v>
       </c>
       <c r="H23" t="n">
-        <v>3.75</v>
+        <v>1.78</v>
       </c>
       <c r="I23" t="n">
-        <v>4.4</v>
+        <v>1.95</v>
       </c>
       <c r="J23" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="K23" t="n">
         <v>4.2</v>
       </c>
       <c r="L23" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="M23" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S23" t="n">
         <v>3.25</v>
       </c>
-      <c r="O23" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S23" t="n">
-        <v>3.35</v>
-      </c>
       <c r="T23" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="U23" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="V23" t="n">
-        <v>1.29</v>
+        <v>2.04</v>
       </c>
       <c r="W23" t="n">
-        <v>1.83</v>
+        <v>1.22</v>
       </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AB23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC23" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC23" t="n">
-        <v>9.6</v>
-      </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AF23" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ23" t="n">
         <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM23" t="n">
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
@@ -3628,121 +3628,121 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Boston Utd</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.22</v>
+        <v>2.02</v>
       </c>
       <c r="G24" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="H24" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="I24" t="n">
-        <v>3.45</v>
+        <v>4.4</v>
       </c>
       <c r="J24" t="n">
-        <v>3.85</v>
+        <v>3.25</v>
       </c>
       <c r="K24" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M24" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>4.9</v>
+        <v>3.25</v>
       </c>
       <c r="O24" t="n">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="P24" t="n">
-        <v>2.3</v>
+        <v>1.77</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.63</v>
+        <v>1.9</v>
       </c>
       <c r="R24" t="n">
-        <v>1.53</v>
+        <v>1.29</v>
       </c>
       <c r="S24" t="n">
-        <v>2.5</v>
+        <v>3.35</v>
       </c>
       <c r="T24" t="n">
-        <v>1.56</v>
+        <v>1.71</v>
       </c>
       <c r="U24" t="n">
-        <v>2.46</v>
+        <v>1.83</v>
       </c>
       <c r="V24" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="W24" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="X24" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Z24" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="AC24" t="n">
         <v>9.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE24" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH24" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
@@ -3763,121 +3763,121 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Forest Green</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.38</v>
+        <v>2.22</v>
       </c>
       <c r="G25" t="n">
-        <v>1.44</v>
+        <v>2.28</v>
       </c>
       <c r="H25" t="n">
-        <v>6.8</v>
+        <v>3.2</v>
       </c>
       <c r="I25" t="n">
-        <v>11</v>
+        <v>3.45</v>
       </c>
       <c r="J25" t="n">
-        <v>5</v>
+        <v>3.85</v>
       </c>
       <c r="K25" t="n">
-        <v>7</v>
+        <v>4.1</v>
       </c>
       <c r="L25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N25" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O25" t="n">
         <v>1.2</v>
       </c>
-      <c r="M25" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N25" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.15</v>
-      </c>
       <c r="P25" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.45</v>
+        <v>1.63</v>
       </c>
       <c r="R25" t="n">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="S25" t="n">
-        <v>1.97</v>
+        <v>2.5</v>
       </c>
       <c r="T25" t="n">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="U25" t="n">
-        <v>1.96</v>
+        <v>2.26</v>
       </c>
       <c r="V25" t="n">
-        <v>1.12</v>
+        <v>1.4</v>
       </c>
       <c r="W25" t="n">
-        <v>3.25</v>
+        <v>1.78</v>
       </c>
       <c r="X25" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="Y25" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="Z25" t="n">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB25" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC25" t="n">
-        <v>17</v>
+        <v>9.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="AF25" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AI25" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AJ25" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="AK25" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AL25" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AM25" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AN25" t="n">
-        <v>5.2</v>
+        <v>14.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>120</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Forest Green</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.96</v>
+        <v>1.38</v>
       </c>
       <c r="G26" t="n">
-        <v>3.3</v>
+        <v>1.44</v>
       </c>
       <c r="H26" t="n">
-        <v>2.24</v>
+        <v>6.6</v>
       </c>
       <c r="I26" t="n">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="J26" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="K26" t="n">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="L26" t="n">
-        <v>1.34</v>
+        <v>1.2</v>
       </c>
       <c r="M26" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N26" t="n">
-        <v>4.2</v>
+        <v>6.2</v>
       </c>
       <c r="O26" t="n">
-        <v>1.26</v>
+        <v>1.15</v>
       </c>
       <c r="P26" t="n">
-        <v>2.14</v>
+        <v>2.8</v>
       </c>
       <c r="Q26" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R26" t="n">
         <v>1.72</v>
       </c>
-      <c r="R26" t="n">
-        <v>1.44</v>
-      </c>
       <c r="S26" t="n">
-        <v>2.8</v>
+        <v>1.97</v>
       </c>
       <c r="T26" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="U26" t="n">
-        <v>2.3</v>
+        <v>1.96</v>
       </c>
       <c r="V26" t="n">
-        <v>1.66</v>
+        <v>1.12</v>
       </c>
       <c r="W26" t="n">
-        <v>1.43</v>
+        <v>3.25</v>
       </c>
       <c r="X26" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="Y26" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>95</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>15</v>
       </c>
-      <c r="Z26" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB26" t="n">
+      <c r="AK26" t="n">
         <v>17</v>
       </c>
-      <c r="AC26" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>40</v>
-      </c>
       <c r="AL26" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AM26" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AN26" t="n">
-        <v>32</v>
+        <v>5.2</v>
       </c>
       <c r="AO26" t="n">
-        <v>19</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27">
@@ -4033,121 +4033,121 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Brackley Town</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.38</v>
+        <v>2.94</v>
       </c>
       <c r="G27" t="n">
-        <v>2.66</v>
+        <v>3</v>
       </c>
       <c r="H27" t="n">
-        <v>2.9</v>
+        <v>2.32</v>
       </c>
       <c r="I27" t="n">
-        <v>3.65</v>
+        <v>2.5</v>
       </c>
       <c r="J27" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="K27" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="L27" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M27" t="n">
         <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="O27" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="P27" t="n">
-        <v>1.92</v>
+        <v>2.12</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="R27" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="S27" t="n">
-        <v>2.98</v>
+        <v>2.84</v>
       </c>
       <c r="T27" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="U27" t="n">
-        <v>1.98</v>
+        <v>2.3</v>
       </c>
       <c r="V27" t="n">
-        <v>1.43</v>
+        <v>1.66</v>
       </c>
       <c r="W27" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="X27" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Y27" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="Z27" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AA27" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="AB27" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="AC27" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AE27" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AF27" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AG27" t="n">
         <v>14.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AI27" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AJ27" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AK27" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AL27" t="n">
         <v>980</v>
       </c>
       <c r="AM27" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AN27" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AO27" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="G28" t="n">
         <v>3</v>
@@ -4186,16 +4186,16 @@
         <v>2.52</v>
       </c>
       <c r="I28" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="J28" t="n">
         <v>3.4</v>
       </c>
       <c r="K28" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L28" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="M28" t="n">
         <v>1.06</v>
@@ -4225,7 +4225,7 @@
         <v>2.2</v>
       </c>
       <c r="V28" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="W28" t="n">
         <v>1.5</v>
@@ -4279,10 +4279,10 @@
         <v>100</v>
       </c>
       <c r="AN28" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AO28" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
@@ -4303,121 +4303,121 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Tamworth FC</t>
+          <t>Brackley Town</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.5</v>
+        <v>2.38</v>
       </c>
       <c r="G29" t="n">
-        <v>1.53</v>
+        <v>2.66</v>
       </c>
       <c r="H29" t="n">
-        <v>6.8</v>
+        <v>2.9</v>
       </c>
       <c r="I29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N29" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X29" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC29" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="J29" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K29" t="n">
-        <v>5</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>0</v>
-      </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK29" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL29" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM29" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN29" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AO29" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
     </row>
     <row r="30">
@@ -4438,121 +4438,121 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Tamworth FC</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.23</v>
+        <v>1.5</v>
       </c>
       <c r="G30" t="n">
-        <v>1.28</v>
+        <v>1.57</v>
       </c>
       <c r="H30" t="n">
-        <v>10</v>
+        <v>6.6</v>
       </c>
       <c r="I30" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J30" t="n">
-        <v>7.2</v>
+        <v>4.3</v>
       </c>
       <c r="K30" t="n">
-        <v>11</v>
+        <v>5.3</v>
       </c>
       <c r="L30" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>3.75</v>
+        <v>2.12</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.25</v>
+        <v>1.72</v>
       </c>
       <c r="R30" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB30" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AC30" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE30" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF30" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG30" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AH30" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AI30" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ30" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AK30" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AL30" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AM30" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN30" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -4573,121 +4573,121 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>5.3</v>
+        <v>1.22</v>
       </c>
       <c r="G31" t="n">
-        <v>5.9</v>
+        <v>1.28</v>
       </c>
       <c r="H31" t="n">
-        <v>1.64</v>
+        <v>9.6</v>
       </c>
       <c r="I31" t="n">
-        <v>1.78</v>
+        <v>13</v>
       </c>
       <c r="J31" t="n">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="K31" t="n">
-        <v>4.5</v>
+        <v>11</v>
       </c>
       <c r="L31" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>3.75</v>
+        <v>9.6</v>
       </c>
       <c r="O31" t="n">
-        <v>1.28</v>
+        <v>1.07</v>
       </c>
       <c r="P31" t="n">
-        <v>1.98</v>
+        <v>4.2</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.83</v>
+        <v>1.23</v>
       </c>
       <c r="R31" t="n">
-        <v>1.38</v>
+        <v>2.32</v>
       </c>
       <c r="S31" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="T31" t="n">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
       <c r="U31" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="V31" t="n">
-        <v>2.28</v>
+        <v>1.08</v>
       </c>
       <c r="W31" t="n">
-        <v>1.2</v>
+        <v>4.4</v>
       </c>
       <c r="X31" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y31" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z31" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AA31" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AC31" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AD31" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE31" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AG31" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AH31" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AI31" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>190</v>
+        <v>980</v>
       </c>
       <c r="AK31" t="n">
-        <v>100</v>
+        <v>980</v>
       </c>
       <c r="AL31" t="n">
-        <v>95</v>
+        <v>980</v>
       </c>
       <c r="AM31" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>120</v>
+        <v>3.05</v>
       </c>
       <c r="AO31" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
@@ -4708,121 +4708,121 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Braintree</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.12</v>
+        <v>5.3</v>
       </c>
       <c r="G32" t="n">
-        <v>2.82</v>
+        <v>5.9</v>
       </c>
       <c r="H32" t="n">
-        <v>2.56</v>
+        <v>1.64</v>
       </c>
       <c r="I32" t="n">
-        <v>3.55</v>
+        <v>1.78</v>
       </c>
       <c r="J32" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="K32" t="n">
-        <v>7.4</v>
+        <v>4.5</v>
       </c>
       <c r="L32" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M32" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N32" t="n">
-        <v>1.94</v>
+        <v>3.85</v>
       </c>
       <c r="O32" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="P32" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="R32" t="n">
         <v>1.38</v>
       </c>
       <c r="S32" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="T32" t="n">
-        <v>1.04</v>
+        <v>1.72</v>
       </c>
       <c r="U32" t="n">
-        <v>1.04</v>
+        <v>1.96</v>
       </c>
       <c r="V32" t="n">
-        <v>1.4</v>
+        <v>2.28</v>
       </c>
       <c r="W32" t="n">
-        <v>1.55</v>
+        <v>1.2</v>
       </c>
       <c r="X32" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y32" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AB32" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AC32" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE32" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AF32" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AG32" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AH32" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI32" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AK32" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AL32" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM32" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN32" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AO32" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
@@ -4843,121 +4843,121 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Braintree</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.48</v>
+        <v>2.16</v>
       </c>
       <c r="G33" t="n">
-        <v>1.57</v>
+        <v>2.82</v>
       </c>
       <c r="H33" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K33" t="n">
         <v>6.6</v>
       </c>
-      <c r="I33" t="n">
-        <v>8</v>
-      </c>
-      <c r="J33" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K33" t="n">
-        <v>5.1</v>
-      </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P33" t="n">
-        <v>2.14</v>
+        <v>1.84</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.61</v>
+        <v>1.77</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34">
@@ -4978,127 +4978,127 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
       <c r="G34" t="n">
-        <v>1.34</v>
+        <v>1.57</v>
       </c>
       <c r="H34" t="n">
-        <v>9</v>
+        <v>6.8</v>
       </c>
       <c r="I34" t="n">
-        <v>10</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J34" t="n">
-        <v>6.4</v>
+        <v>4.4</v>
       </c>
       <c r="K34" t="n">
-        <v>7</v>
+        <v>5.7</v>
       </c>
       <c r="L34" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.92</v>
+        <v>2.14</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.42</v>
+        <v>1.61</v>
       </c>
       <c r="R34" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z34" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AA34" t="n">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="AB34" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AC34" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AD34" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AE34" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AF34" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AG34" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AH34" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AI34" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AJ34" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AK34" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AL34" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AM34" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AN34" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="AO34" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,126 +5108,126 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>12:03:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Sassari Torres</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.4</v>
+        <v>1.33</v>
       </c>
       <c r="G35" t="n">
-        <v>2.74</v>
+        <v>1.34</v>
       </c>
       <c r="H35" t="n">
-        <v>3.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I35" t="n">
-        <v>3.85</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J35" t="n">
-        <v>3</v>
+        <v>6.4</v>
       </c>
       <c r="K35" t="n">
-        <v>3.65</v>
+        <v>6.8</v>
       </c>
       <c r="L35" t="n">
-        <v>1.5</v>
+        <v>1.24</v>
       </c>
       <c r="M35" t="n">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
       <c r="N35" t="n">
-        <v>2.74</v>
+        <v>6</v>
       </c>
       <c r="O35" t="n">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="P35" t="n">
-        <v>1.6</v>
+        <v>2.78</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.36</v>
+        <v>1.46</v>
       </c>
       <c r="R35" t="n">
-        <v>1.22</v>
+        <v>1.71</v>
       </c>
       <c r="S35" t="n">
-        <v>4.1</v>
+        <v>2.16</v>
       </c>
       <c r="T35" t="n">
-        <v>2</v>
+        <v>1.77</v>
       </c>
       <c r="U35" t="n">
-        <v>1.82</v>
+        <v>2.06</v>
       </c>
       <c r="V35" t="n">
-        <v>1.36</v>
+        <v>1.11</v>
       </c>
       <c r="W35" t="n">
-        <v>1.58</v>
+        <v>3.9</v>
       </c>
       <c r="X35" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="Y35" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>110</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>310</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF35" t="n">
         <v>11</v>
       </c>
-      <c r="Z35" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AG35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH35" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AI35" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ35" t="n">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="AK35" t="n">
-        <v>42</v>
+        <v>16.5</v>
       </c>
       <c r="AL35" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AM35" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN35" t="n">
-        <v>42</v>
+        <v>4.9</v>
       </c>
       <c r="AO35" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36">
@@ -5248,97 +5248,97 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Lumezzane</t>
+          <t>Sassari Torres</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Pro Vercelli</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="G36" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="H36" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I36" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="J36" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="K36" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="L36" t="n">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="M36" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="N36" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="O36" t="n">
-        <v>1.49</v>
+        <v>1.6</v>
       </c>
       <c r="P36" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S36" t="n">
+        <v>6</v>
+      </c>
+      <c r="T36" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W36" t="n">
         <v>1.54</v>
       </c>
-      <c r="Q36" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S36" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T36" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="V36" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="W36" t="n">
-        <v>1.56</v>
-      </c>
       <c r="X36" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y36" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z36" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA36" t="n">
         <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>9.6</v>
+        <v>7.6</v>
       </c>
       <c r="AC36" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD36" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE36" t="n">
         <v>1000</v>
       </c>
       <c r="AF36" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG36" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH36" t="n">
         <v>1000</v>
@@ -5383,103 +5383,103 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Lumezzane</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Ascoli</t>
+          <t>Pro Vercelli</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>5.4</v>
+        <v>2.42</v>
       </c>
       <c r="G37" t="n">
-        <v>7.4</v>
+        <v>2.8</v>
       </c>
       <c r="H37" t="n">
-        <v>1.71</v>
+        <v>3.15</v>
       </c>
       <c r="I37" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K37" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T37" t="n">
         <v>1.86</v>
       </c>
-      <c r="J37" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K37" t="n">
-        <v>4</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N37" t="n">
-        <v>3</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S37" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T37" t="n">
-        <v>2</v>
-      </c>
       <c r="U37" t="n">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="V37" t="n">
-        <v>2.16</v>
+        <v>1.36</v>
       </c>
       <c r="W37" t="n">
-        <v>1.15</v>
+        <v>1.56</v>
       </c>
       <c r="X37" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Y37" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="Z37" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AA37" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>20</v>
+        <v>9.6</v>
       </c>
       <c r="AC37" t="n">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD37" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE37" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AF37" t="n">
         <v>1000</v>
       </c>
       <c r="AG37" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AH37" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AI37" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ37" t="n">
         <v>1000</v>
@@ -5497,13 +5497,13 @@
         <v>1000</v>
       </c>
       <c r="AO37" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Scottish League One</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5513,105 +5513,105 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Stenhousemuir</t>
+          <t>Ascoli</t>
         </is>
       </c>
       <c r="F38" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="G38" t="n">
+        <v>7</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>4</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N38" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V38" t="n">
         <v>2.28</v>
       </c>
-      <c r="G38" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="H38" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="I38" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="J38" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K38" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N38" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P38" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S38" t="n">
-        <v>3</v>
-      </c>
-      <c r="T38" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="U38" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V38" t="n">
-        <v>1.4</v>
-      </c>
       <c r="W38" t="n">
-        <v>1.63</v>
+        <v>1.2</v>
       </c>
       <c r="X38" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>980</v>
+        <v>7.8</v>
       </c>
       <c r="Z38" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AA38" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AB38" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AD38" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AE38" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AF38" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG38" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AH38" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AI38" t="n">
         <v>1000</v>
@@ -5620,7 +5620,7 @@
         <v>1000</v>
       </c>
       <c r="AK38" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL38" t="n">
         <v>1000</v>
@@ -5629,16 +5629,16 @@
         <v>1000</v>
       </c>
       <c r="AN38" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO38" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5648,96 +5648,96 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>Stenhousemuir</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>4.8</v>
+        <v>2.04</v>
       </c>
       <c r="G39" t="n">
-        <v>5.7</v>
+        <v>2.28</v>
       </c>
       <c r="H39" t="n">
-        <v>1.65</v>
+        <v>3.4</v>
       </c>
       <c r="I39" t="n">
-        <v>1.75</v>
+        <v>4.1</v>
       </c>
       <c r="J39" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K39" t="n">
         <v>4.2</v>
       </c>
-      <c r="K39" t="n">
-        <v>4.6</v>
-      </c>
       <c r="L39" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M39" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N39" t="n">
-        <v>5.3</v>
+        <v>3.3</v>
       </c>
       <c r="O39" t="n">
-        <v>1.19</v>
+        <v>1.31</v>
       </c>
       <c r="P39" t="n">
-        <v>2.46</v>
+        <v>1.89</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.56</v>
+        <v>1.81</v>
       </c>
       <c r="R39" t="n">
-        <v>1.59</v>
+        <v>1.33</v>
       </c>
       <c r="S39" t="n">
-        <v>2.36</v>
+        <v>3.05</v>
       </c>
       <c r="T39" t="n">
-        <v>1.53</v>
+        <v>1.64</v>
       </c>
       <c r="U39" t="n">
-        <v>2.12</v>
+        <v>1.94</v>
       </c>
       <c r="V39" t="n">
-        <v>2.32</v>
+        <v>1.32</v>
       </c>
       <c r="W39" t="n">
-        <v>1.21</v>
+        <v>1.78</v>
       </c>
       <c r="X39" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Y39" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="Z39" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AA39" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB39" t="n">
         <v>980</v>
       </c>
       <c r="AC39" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="AD39" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AE39" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF39" t="n">
         <v>980</v>
@@ -5746,34 +5746,34 @@
         <v>980</v>
       </c>
       <c r="AH39" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AI39" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ39" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AK39" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AL39" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM39" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN39" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO39" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5783,132 +5783,132 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Atletico Huila</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Internacional de Palmira</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.71</v>
+        <v>4.8</v>
       </c>
       <c r="G40" t="n">
-        <v>1.87</v>
+        <v>5.5</v>
       </c>
       <c r="H40" t="n">
-        <v>5</v>
+        <v>1.63</v>
       </c>
       <c r="I40" t="n">
-        <v>7.2</v>
+        <v>1.75</v>
       </c>
       <c r="J40" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="K40" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="L40" t="n">
         <v>1.01</v>
       </c>
       <c r="M40" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="N40" t="n">
-        <v>2.4</v>
+        <v>4.6</v>
       </c>
       <c r="O40" t="n">
-        <v>1.48</v>
+        <v>1.19</v>
       </c>
       <c r="P40" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Q40" t="n">
         <v>1.56</v>
       </c>
-      <c r="Q40" t="n">
-        <v>2.44</v>
-      </c>
       <c r="R40" t="n">
-        <v>1.2</v>
+        <v>1.59</v>
       </c>
       <c r="S40" t="n">
-        <v>3.55</v>
+        <v>2.38</v>
       </c>
       <c r="T40" t="n">
-        <v>2.04</v>
+        <v>1.53</v>
       </c>
       <c r="U40" t="n">
-        <v>1.56</v>
+        <v>2.12</v>
       </c>
       <c r="V40" t="n">
-        <v>1.16</v>
+        <v>2.32</v>
       </c>
       <c r="W40" t="n">
-        <v>2.14</v>
+        <v>1.22</v>
       </c>
       <c r="X40" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y40" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z40" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB40" t="n">
-        <v>7.4</v>
+        <v>980</v>
       </c>
       <c r="AC40" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD40" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE40" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF40" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG40" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH40" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI40" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ40" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AK40" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL40" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM40" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN40" t="n">
         <v>1000</v>
       </c>
       <c r="AO40" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5918,51 +5918,51 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Sambenedettese</t>
+          <t>Atletico Huila</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Ternana</t>
+          <t>Internacional de Palmira</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3.65</v>
+        <v>1.71</v>
       </c>
       <c r="G41" t="n">
-        <v>4.7</v>
+        <v>1.87</v>
       </c>
       <c r="H41" t="n">
-        <v>2.18</v>
+        <v>5</v>
       </c>
       <c r="I41" t="n">
-        <v>2.44</v>
+        <v>7.2</v>
       </c>
       <c r="J41" t="n">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="K41" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="L41" t="n">
-        <v>1.53</v>
+        <v>1.01</v>
       </c>
       <c r="M41" t="n">
         <v>1.09</v>
       </c>
       <c r="N41" t="n">
-        <v>2.68</v>
+        <v>2.4</v>
       </c>
       <c r="O41" t="n">
         <v>1.48</v>
       </c>
       <c r="P41" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q41" t="n">
         <v>2.44</v>
@@ -5971,52 +5971,52 @@
         <v>1.2</v>
       </c>
       <c r="S41" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="T41" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U41" t="n">
-        <v>1.8</v>
+        <v>1.56</v>
       </c>
       <c r="V41" t="n">
-        <v>1.69</v>
+        <v>1.16</v>
       </c>
       <c r="W41" t="n">
-        <v>1.29</v>
+        <v>2.14</v>
       </c>
       <c r="X41" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y41" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="Z41" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AA41" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>13</v>
+        <v>7.4</v>
       </c>
       <c r="AC41" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD41" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE41" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF41" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AG41" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AH41" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI41" t="n">
         <v>1000</v>
@@ -6028,7 +6028,7 @@
         <v>1000</v>
       </c>
       <c r="AL41" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AM41" t="n">
         <v>1000</v>
@@ -6037,13 +6037,13 @@
         <v>1000</v>
       </c>
       <c r="AO41" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6058,127 +6058,127 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Triestina</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>A.C. Trento S.C.S.D.</t>
+          <t>Operario PR</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.64</v>
+        <v>2.1</v>
       </c>
       <c r="G42" t="n">
-        <v>3.25</v>
+        <v>2.26</v>
       </c>
       <c r="H42" t="n">
-        <v>2.68</v>
+        <v>4.3</v>
       </c>
       <c r="I42" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="J42" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="K42" t="n">
-        <v>4.2</v>
+        <v>3.35</v>
       </c>
       <c r="L42" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="M42" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N42" t="n">
-        <v>3.25</v>
+        <v>2.72</v>
       </c>
       <c r="O42" t="n">
-        <v>1.35</v>
+        <v>1.49</v>
       </c>
       <c r="P42" t="n">
-        <v>1.78</v>
+        <v>1.56</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.02</v>
+        <v>2.48</v>
       </c>
       <c r="R42" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="S42" t="n">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="T42" t="n">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="U42" t="n">
-        <v>1.88</v>
+        <v>1.68</v>
       </c>
       <c r="V42" t="n">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="W42" t="n">
-        <v>1.48</v>
+        <v>1.8</v>
       </c>
       <c r="X42" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="Z42" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA42" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB42" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AC42" t="n">
-        <v>9.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="AD42" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE42" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AF42" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG42" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH42" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI42" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ42" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK42" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL42" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM42" t="n">
         <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO42" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6193,49 +6193,49 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Sambenedettese</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Operario PR</t>
+          <t>Ternana</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.1</v>
+        <v>3.65</v>
       </c>
       <c r="G43" t="n">
-        <v>2.26</v>
+        <v>4.7</v>
       </c>
       <c r="H43" t="n">
-        <v>4.3</v>
+        <v>2.18</v>
       </c>
       <c r="I43" t="n">
-        <v>5.2</v>
+        <v>2.44</v>
       </c>
       <c r="J43" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="K43" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="L43" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="M43" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N43" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="O43" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="P43" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="R43" t="n">
         <v>1.2</v>
@@ -6244,58 +6244,58 @@
         <v>4.3</v>
       </c>
       <c r="T43" t="n">
-        <v>1.88</v>
+        <v>2.02</v>
       </c>
       <c r="U43" t="n">
         <v>1.68</v>
       </c>
       <c r="V43" t="n">
-        <v>1.27</v>
+        <v>1.69</v>
       </c>
       <c r="W43" t="n">
-        <v>1.8</v>
+        <v>1.29</v>
       </c>
       <c r="X43" t="n">
         <v>11.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="Z43" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AA43" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="AB43" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AC43" t="n">
-        <v>980</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD43" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AE43" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="AF43" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AG43" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AH43" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AI43" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ43" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK43" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL43" t="n">
         <v>1000</v>
@@ -6304,16 +6304,16 @@
         <v>1000</v>
       </c>
       <c r="AN43" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO43" t="n">
-        <v>120</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6328,121 +6328,121 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Triestina</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Remo</t>
+          <t>A.C. Trento S.C.S.D.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3.95</v>
+        <v>2.64</v>
       </c>
       <c r="G44" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="H44" t="n">
-        <v>1.98</v>
+        <v>2.68</v>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>3.35</v>
       </c>
       <c r="J44" t="n">
-        <v>4</v>
+        <v>2.92</v>
       </c>
       <c r="K44" t="n">
         <v>4.2</v>
       </c>
       <c r="L44" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M44" t="n">
         <v>1.07</v>
       </c>
       <c r="N44" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="O44" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="P44" t="n">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="R44" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="S44" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="T44" t="n">
-        <v>1.84</v>
+        <v>1.66</v>
       </c>
       <c r="U44" t="n">
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
       <c r="V44" t="n">
-        <v>2</v>
+        <v>1.46</v>
       </c>
       <c r="W44" t="n">
-        <v>1.33</v>
+        <v>1.48</v>
       </c>
       <c r="X44" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y44" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z44" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AA44" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AB44" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC44" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD44" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE44" t="n">
         <v>1000</v>
       </c>
       <c r="AF44" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AG44" t="n">
         <v>1000</v>
       </c>
       <c r="AH44" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI44" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ44" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AK44" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL44" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM44" t="n">
         <v>1000</v>
       </c>
       <c r="AN44" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AO44" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="45">
@@ -6472,22 +6472,22 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="G45" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="H45" t="n">
         <v>5.6</v>
       </c>
       <c r="I45" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J45" t="n">
         <v>3.65</v>
       </c>
       <c r="K45" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L45" t="n">
         <v>1.43</v>
@@ -6511,7 +6511,7 @@
         <v>1.3</v>
       </c>
       <c r="S45" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T45" t="n">
         <v>1.94</v>
@@ -6520,10 +6520,10 @@
         <v>1.89</v>
       </c>
       <c r="V45" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W45" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="X45" t="n">
         <v>15.5</v>
@@ -6583,7 +6583,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6593,126 +6593,126 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>San Martin de San Juan</t>
+          <t>Remo</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.72</v>
+        <v>3.4</v>
       </c>
       <c r="G46" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="H46" t="n">
-        <v>3.05</v>
+        <v>2.26</v>
       </c>
       <c r="I46" t="n">
-        <v>3.65</v>
+        <v>2.3</v>
       </c>
       <c r="J46" t="n">
-        <v>2.72</v>
+        <v>3.6</v>
       </c>
       <c r="K46" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N46" t="n">
         <v>3</v>
       </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P46" t="n">
-        <v>1.39</v>
+        <v>1.76</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.15</v>
+        <v>2.08</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="Z46" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AA46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB46" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD46" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF46" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AG46" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ46" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AK46" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AL46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN46" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AO46" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47">
@@ -6733,31 +6733,31 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Godoy Cruz</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>San Martin de San Juan</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.99</v>
+        <v>2.64</v>
       </c>
       <c r="G47" t="n">
-        <v>2.12</v>
+        <v>2.94</v>
       </c>
       <c r="H47" t="n">
-        <v>4.6</v>
+        <v>3.1</v>
       </c>
       <c r="I47" t="n">
-        <v>6.6</v>
+        <v>3.45</v>
       </c>
       <c r="J47" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="K47" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -6772,10 +6772,10 @@
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="Q47" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="R47" t="n">
         <v>0</v>
@@ -6853,7 +6853,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6868,127 +6868,127 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Godoy Cruz</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="G48" t="n">
-        <v>2.1</v>
+        <v>1.94</v>
       </c>
       <c r="H48" t="n">
-        <v>3.45</v>
+        <v>6.2</v>
       </c>
       <c r="I48" t="n">
-        <v>3.9</v>
+        <v>7</v>
       </c>
       <c r="J48" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="K48" t="n">
-        <v>4.7</v>
+        <v>3.35</v>
       </c>
       <c r="L48" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>2.56</v>
+        <v>1.36</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.53</v>
+        <v>3.35</v>
       </c>
       <c r="R48" t="n">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="U48" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="V48" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="W48" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="X48" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="Y48" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="Z48" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AA48" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AB48" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AC48" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AD48" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AE48" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AF48" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AG48" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AH48" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AI48" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AJ48" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AK48" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AL48" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AM48" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AN48" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO48" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -7003,115 +7003,115 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Granada</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="G49" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="H49" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I49" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J49" t="n">
         <v>4.2</v>
       </c>
-      <c r="I49" t="n">
+      <c r="K49" t="n">
         <v>4.7</v>
       </c>
-      <c r="J49" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K49" t="n">
-        <v>4.2</v>
-      </c>
       <c r="L49" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="M49" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N49" t="n">
-        <v>4.4</v>
+        <v>5.6</v>
       </c>
       <c r="O49" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="P49" t="n">
-        <v>2.24</v>
+        <v>2.56</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="R49" t="n">
-        <v>1.49</v>
+        <v>1.62</v>
       </c>
       <c r="S49" t="n">
-        <v>2.84</v>
+        <v>2.28</v>
       </c>
       <c r="T49" t="n">
-        <v>1.7</v>
+        <v>1.54</v>
       </c>
       <c r="U49" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="V49" t="n">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="W49" t="n">
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="X49" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD49" t="n">
         <v>19.5</v>
       </c>
-      <c r="Y49" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>90</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>21</v>
-      </c>
       <c r="AE49" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AF49" t="n">
-        <v>13</v>
+        <v>19.5</v>
       </c>
       <c r="AG49" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AH49" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI49" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AJ49" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AK49" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AL49" t="n">
         <v>980</v>
       </c>
       <c r="AM49" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AN49" t="n">
         <v>11</v>
@@ -7123,7 +7123,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -7133,132 +7133,132 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Jaguares de Cordoba</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>Granada</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.16</v>
+        <v>1.89</v>
       </c>
       <c r="G50" t="n">
-        <v>2.88</v>
+        <v>1.94</v>
       </c>
       <c r="H50" t="n">
-        <v>2.88</v>
+        <v>4.2</v>
       </c>
       <c r="I50" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J50" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K50" t="n">
         <v>4.1</v>
       </c>
-      <c r="J50" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="K50" t="n">
-        <v>4</v>
-      </c>
       <c r="L50" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="M50" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N50" t="n">
-        <v>2.68</v>
+        <v>4.4</v>
       </c>
       <c r="O50" t="n">
-        <v>1.41</v>
+        <v>1.25</v>
       </c>
       <c r="P50" t="n">
-        <v>1.66</v>
+        <v>2.24</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.18</v>
+        <v>1.73</v>
       </c>
       <c r="R50" t="n">
-        <v>1.25</v>
+        <v>1.49</v>
       </c>
       <c r="S50" t="n">
-        <v>3.45</v>
+        <v>2.84</v>
       </c>
       <c r="T50" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="U50" t="n">
-        <v>1.91</v>
+        <v>2.22</v>
       </c>
       <c r="V50" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="W50" t="n">
-        <v>1.53</v>
+        <v>2.06</v>
       </c>
       <c r="X50" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y50" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Z50" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA50" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AB50" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC50" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD50" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE50" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF50" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG50" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AH50" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AI50" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ50" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AK50" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AL50" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM50" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN50" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AO50" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -7268,132 +7268,132 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Jaguares de Cordoba</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>12.5</v>
+        <v>2.24</v>
       </c>
       <c r="G51" t="n">
-        <v>14</v>
+        <v>2.72</v>
       </c>
       <c r="H51" t="n">
-        <v>1.32</v>
+        <v>3.1</v>
       </c>
       <c r="I51" t="n">
-        <v>1.34</v>
+        <v>4</v>
       </c>
       <c r="J51" t="n">
-        <v>5.7</v>
+        <v>2.78</v>
       </c>
       <c r="K51" t="n">
-        <v>6</v>
+        <v>4.3</v>
       </c>
       <c r="L51" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="M51" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N51" t="n">
-        <v>3.95</v>
+        <v>3</v>
       </c>
       <c r="O51" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="P51" t="n">
-        <v>2.04</v>
+        <v>1.78</v>
       </c>
       <c r="Q51" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U51" t="n">
         <v>1.9</v>
       </c>
-      <c r="R51" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S51" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T51" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="U51" t="n">
-        <v>1.62</v>
-      </c>
       <c r="V51" t="n">
-        <v>3.95</v>
+        <v>1.33</v>
       </c>
       <c r="W51" t="n">
-        <v>1.07</v>
+        <v>1.64</v>
       </c>
       <c r="X51" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y51" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="Z51" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AA51" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AB51" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AC51" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD51" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE51" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AF51" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AG51" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH51" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AI51" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ51" t="n">
-        <v>760</v>
+        <v>1000</v>
       </c>
       <c r="AK51" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="AL51" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AM51" t="n">
         <v>1000</v>
       </c>
       <c r="AN51" t="n">
-        <v>520</v>
+        <v>1000</v>
       </c>
       <c r="AO51" t="n">
-        <v>5.8</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Uruguayan Segunda Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -7403,132 +7403,132 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Atenas</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Tacuarembo</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.28</v>
+        <v>12.5</v>
       </c>
       <c r="G52" t="n">
-        <v>3.1</v>
+        <v>14.5</v>
       </c>
       <c r="H52" t="n">
-        <v>2.82</v>
+        <v>1.32</v>
       </c>
       <c r="I52" t="n">
-        <v>4.2</v>
+        <v>1.34</v>
       </c>
       <c r="J52" t="n">
-        <v>2.86</v>
+        <v>5.7</v>
       </c>
       <c r="K52" t="n">
-        <v>3.7</v>
+        <v>6</v>
       </c>
       <c r="L52" t="n">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="M52" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N52" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="O52" t="n">
-        <v>1.51</v>
+        <v>1.3</v>
       </c>
       <c r="P52" t="n">
-        <v>1.46</v>
+        <v>2.06</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.32</v>
+        <v>1.89</v>
       </c>
       <c r="R52" t="n">
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
       <c r="S52" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="T52" t="n">
-        <v>2.02</v>
+        <v>2.44</v>
       </c>
       <c r="U52" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="V52" t="n">
-        <v>1.32</v>
+        <v>3.95</v>
       </c>
       <c r="W52" t="n">
-        <v>1.48</v>
+        <v>1.07</v>
       </c>
       <c r="X52" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y52" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="Z52" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AA52" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AB52" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AC52" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD52" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE52" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AF52" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AG52" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AH52" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AI52" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ52" t="n">
-        <v>1000</v>
+        <v>760</v>
       </c>
       <c r="AK52" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AL52" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AM52" t="n">
         <v>1000</v>
       </c>
       <c r="AN52" t="n">
-        <v>1000</v>
+        <v>520</v>
       </c>
       <c r="AO52" t="n">
-        <v>1000</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Uruguayan Segunda Division</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -7538,132 +7538,132 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>San Lorenzo</t>
+          <t>Atenas</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Sarmiento de Junin</t>
+          <t>Tacuarembo</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.76</v>
+        <v>2.28</v>
       </c>
       <c r="G53" t="n">
-        <v>1.88</v>
+        <v>3.1</v>
       </c>
       <c r="H53" t="n">
-        <v>6</v>
+        <v>2.82</v>
       </c>
       <c r="I53" t="n">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="J53" t="n">
-        <v>3.15</v>
+        <v>2.86</v>
       </c>
       <c r="K53" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="O53" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="P53" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="Q53" t="n">
-        <v>3</v>
+        <v>2.32</v>
       </c>
       <c r="R53" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S53" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="T53" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="U53" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="V53" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="W53" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="X53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC53" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -7673,132 +7673,132 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>20:20:00</t>
+          <t>19:15:00</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Boyaca Patriotas</t>
+          <t>San Lorenzo</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Boca Juniors de Cali</t>
+          <t>Sarmiento de Junin</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.32</v>
+        <v>1.75</v>
       </c>
       <c r="G54" t="n">
-        <v>1.54</v>
+        <v>1.84</v>
       </c>
       <c r="H54" t="n">
-        <v>8.6</v>
+        <v>6.4</v>
       </c>
       <c r="I54" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="J54" t="n">
-        <v>3.7</v>
+        <v>3.15</v>
       </c>
       <c r="K54" t="n">
-        <v>8</v>
+        <v>3.55</v>
       </c>
       <c r="L54" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.12</v>
+        <v>3</v>
       </c>
       <c r="R54" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="U54" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="V54" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="W54" t="n">
-        <v>2.84</v>
+        <v>0</v>
       </c>
       <c r="X54" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y54" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z54" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA54" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB54" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC54" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD54" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE54" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF54" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG54" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH54" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI54" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ54" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK54" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL54" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM54" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN54" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO54" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>US United Soccer League</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -7808,60 +7808,60 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:20:00</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Pittsburgh Riverhounds</t>
+          <t>Boyaca Patriotas</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Rhode Island FC</t>
+          <t>Boca Juniors de Cali</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.97</v>
+        <v>1.34</v>
       </c>
       <c r="G55" t="n">
-        <v>2.46</v>
+        <v>1.52</v>
       </c>
       <c r="H55" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J55" t="n">
         <v>3.7</v>
       </c>
-      <c r="I55" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J55" t="n">
-        <v>3.05</v>
-      </c>
       <c r="K55" t="n">
-        <v>4</v>
+        <v>7.4</v>
       </c>
       <c r="L55" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M55" t="n">
         <v>1.01</v>
       </c>
       <c r="N55" t="n">
-        <v>1.1</v>
+        <v>1.92</v>
       </c>
       <c r="O55" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="P55" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="R55" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="S55" t="n">
-        <v>4.1</v>
+        <v>2.16</v>
       </c>
       <c r="T55" t="n">
         <v>1.04</v>
@@ -7870,10 +7870,10 @@
         <v>1.04</v>
       </c>
       <c r="V55" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="W55" t="n">
-        <v>1.68</v>
+        <v>2.92</v>
       </c>
       <c r="X55" t="n">
         <v>1000</v>
@@ -7933,7 +7933,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>US United Soccer League</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -7943,132 +7943,132 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Pittsburgh Riverhounds</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>SE Palmeiras</t>
+          <t>Rhode Island FC</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>3.3</v>
+        <v>1.97</v>
       </c>
       <c r="G56" t="n">
-        <v>3.6</v>
+        <v>2.42</v>
       </c>
       <c r="H56" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I56" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J56" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K56" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N56" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Q56" t="n">
         <v>2.3</v>
       </c>
-      <c r="I56" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J56" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K56" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L56" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M56" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N56" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O56" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P56" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>2.02</v>
-      </c>
       <c r="R56" t="n">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="S56" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="T56" t="n">
-        <v>1.79</v>
+        <v>1.04</v>
       </c>
       <c r="U56" t="n">
-        <v>2.08</v>
+        <v>1.04</v>
       </c>
       <c r="V56" t="n">
-        <v>1.71</v>
+        <v>1.27</v>
       </c>
       <c r="W56" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="X56" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y56" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Z56" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AA56" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB56" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC56" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AD56" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE56" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AF56" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AG56" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH56" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AI56" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ56" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AK56" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AL56" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM56" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN56" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AO56" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -8078,261 +8078,396 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Rosario Central</t>
+          <t>SE Palmeiras</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.89</v>
+        <v>3.4</v>
       </c>
       <c r="G57" t="n">
-        <v>1.91</v>
+        <v>3.55</v>
       </c>
       <c r="H57" t="n">
-        <v>5.2</v>
+        <v>2.3</v>
       </c>
       <c r="I57" t="n">
-        <v>5.7</v>
+        <v>2.36</v>
       </c>
       <c r="J57" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K57" t="n">
         <v>3.6</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P57" t="n">
-        <v>1.6</v>
+        <v>1.86</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.44</v>
+        <v>2.06</v>
       </c>
       <c r="R57" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="S57" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="T57" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="U57" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="V57" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="W57" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X57" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Y57" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z57" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AA57" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AB57" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC57" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AD57" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AE57" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AF57" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AG57" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH57" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AI57" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AJ57" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AK57" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AL57" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM57" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN57" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AO57" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Rosario Central</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H58" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I58" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J58" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K58" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
           <t>US United Soccer League</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>2025-11-15</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>22:30:00</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>Tulsa Roughnecks FC</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>New Mexico United</t>
         </is>
       </c>
-      <c r="F58" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="G58" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H58" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="I58" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="J58" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K58" t="n">
+      <c r="F59" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H59" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I59" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J59" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K59" t="n">
         <v>4.6</v>
       </c>
-      <c r="L58" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M58" t="n">
+      <c r="L59" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M59" t="n">
         <v>1.05</v>
       </c>
-      <c r="N58" t="n">
+      <c r="N59" t="n">
         <v>3.7</v>
       </c>
-      <c r="O58" t="n">
+      <c r="O59" t="n">
         <v>1.29</v>
       </c>
-      <c r="P58" t="n">
+      <c r="P59" t="n">
         <v>1.94</v>
       </c>
-      <c r="Q58" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="R58" t="n">
+      <c r="Q59" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R59" t="n">
         <v>1.36</v>
       </c>
-      <c r="S58" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="T58" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="U58" t="n">
+      <c r="S59" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T59" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U59" t="n">
         <v>1.93</v>
       </c>
-      <c r="V58" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="W58" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="X58" t="n">
-        <v>980</v>
-      </c>
-      <c r="Y58" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z58" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA58" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB58" t="n">
+      <c r="V59" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X59" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB59" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC58" t="n">
-        <v>980</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH58" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI58" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ58" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK58" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL58" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM58" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN58" t="n">
-        <v>980</v>
-      </c>
-      <c r="AO58" t="n">
+      <c r="AC59" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI59" t="n">
         <v>70</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-15.xlsx
@@ -667,79 +667,79 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="H2" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="I2" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="J2" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
         <v>3.35</v>
       </c>
       <c r="L2" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N2" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O2" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="P2" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R2" t="n">
         <v>1.25</v>
       </c>
       <c r="S2" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="U2" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="V2" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="W2" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="X2" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -748,10 +748,10 @@
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="G3" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H3" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="I3" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="J3" t="n">
         <v>3.1</v>
@@ -820,19 +820,19 @@
         <v>3.4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="M3" t="n">
         <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="O3" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="P3" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="Q3" t="n">
         <v>2.66</v>
@@ -847,49 +847,49 @@
         <v>2.18</v>
       </c>
       <c r="U3" t="n">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="V3" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="W3" t="n">
         <v>1.29</v>
       </c>
       <c r="X3" t="n">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="Z3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA3" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
         <v>11</v>
       </c>
       <c r="AC3" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI3" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="H4" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="I4" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="J4" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S4" t="n">
         <v>2.52</v>
       </c>
-      <c r="Q4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2.36</v>
-      </c>
       <c r="T4" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="U4" t="n">
-        <v>2.46</v>
+        <v>2.32</v>
       </c>
       <c r="V4" t="n">
         <v>2.06</v>
       </c>
       <c r="W4" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="X4" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AA4" t="n">
         <v>22</v>
       </c>
       <c r="AB4" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD4" t="n">
         <v>11</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AF4" t="n">
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AH4" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AI4" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AK4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AO4" t="n">
-        <v>8.4</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -1072,100 +1072,100 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.76</v>
+        <v>2.18</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>2.64</v>
       </c>
       <c r="H5" t="n">
-        <v>2.14</v>
+        <v>2.82</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>3.55</v>
       </c>
       <c r="J5" t="n">
-        <v>3.55</v>
+        <v>3.05</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>1.36</v>
+        <v>3.85</v>
       </c>
       <c r="O5" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>1.36</v>
+        <v>2.08</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.21</v>
+        <v>1.67</v>
       </c>
       <c r="R5" t="n">
-        <v>1.18</v>
+        <v>1.43</v>
       </c>
       <c r="S5" t="n">
-        <v>1.21</v>
+        <v>2.66</v>
       </c>
       <c r="T5" t="n">
-        <v>1.04</v>
+        <v>1.57</v>
       </c>
       <c r="U5" t="n">
-        <v>1.04</v>
+        <v>2.26</v>
       </c>
       <c r="V5" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="W5" t="n">
-        <v>1.43</v>
+        <v>1.6</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC5" t="n">
-        <v>42</v>
+        <v>9.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL5" t="n">
         <v>1000</v>
@@ -1174,10 +1174,10 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.05</v>
+        <v>2.52</v>
       </c>
       <c r="G6" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="J6" t="n">
         <v>3.4</v>
       </c>
-      <c r="H6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.6</v>
-      </c>
       <c r="K6" t="n">
-        <v>6.6</v>
+        <v>4.1</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="T6" t="n">
         <v>1.52</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.04</v>
-      </c>
       <c r="U6" t="n">
-        <v>1.04</v>
+        <v>2.6</v>
       </c>
       <c r="V6" t="n">
-        <v>1.29</v>
+        <v>1.51</v>
       </c>
       <c r="W6" t="n">
-        <v>1.41</v>
+        <v>1.55</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="7">
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="G7" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="H7" t="n">
-        <v>1.01</v>
+        <v>2.5</v>
       </c>
       <c r="I7" t="n">
         <v>8</v>
@@ -1366,22 +1366,22 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="O7" t="n">
         <v>1.01</v>
       </c>
       <c r="P7" t="n">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.02</v>
+        <v>1.47</v>
       </c>
       <c r="R7" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="S7" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="T7" t="n">
         <v>1.04</v>
@@ -1390,10 +1390,10 @@
         <v>1.04</v>
       </c>
       <c r="V7" t="n">
-        <v>1.14</v>
+        <v>1.28</v>
       </c>
       <c r="W7" t="n">
-        <v>1.43</v>
+        <v>1.58</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1411,7 +1411,7 @@
         <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD7" t="n">
         <v>1000</v>
@@ -1477,58 +1477,58 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="H8" t="n">
-        <v>1.01</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="K8" t="n">
-        <v>4.8</v>
+        <v>3.75</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N8" t="n">
-        <v>1.1</v>
+        <v>2.78</v>
       </c>
       <c r="O8" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="P8" t="n">
-        <v>1.1</v>
+        <v>1.55</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.02</v>
+        <v>2.18</v>
       </c>
       <c r="R8" t="n">
-        <v>1.09</v>
+        <v>1.23</v>
       </c>
       <c r="S8" t="n">
-        <v>1.41</v>
+        <v>3.85</v>
       </c>
       <c r="T8" t="n">
-        <v>1.04</v>
+        <v>1.87</v>
       </c>
       <c r="U8" t="n">
-        <v>1.04</v>
+        <v>1.82</v>
       </c>
       <c r="V8" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="W8" t="n">
-        <v>1.25</v>
+        <v>1.71</v>
       </c>
       <c r="X8" t="n">
         <v>17</v>
@@ -1543,10 +1543,10 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC8" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AD8" t="n">
         <v>1000</v>
@@ -1567,10 +1567,10 @@
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AL8" t="n">
         <v>1000</v>
@@ -1612,61 +1612,61 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.01</v>
+        <v>2.64</v>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="H9" t="n">
-        <v>1.01</v>
+        <v>2.66</v>
       </c>
       <c r="I9" t="n">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
       <c r="J9" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="K9" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.3</v>
+        <v>1.49</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>1.1</v>
+        <v>2.48</v>
       </c>
       <c r="O9" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="P9" t="n">
-        <v>1.1</v>
+        <v>1.56</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.02</v>
+        <v>2.28</v>
       </c>
       <c r="R9" t="n">
-        <v>1.09</v>
+        <v>1.21</v>
       </c>
       <c r="S9" t="n">
-        <v>1.45</v>
+        <v>3.85</v>
       </c>
       <c r="T9" t="n">
-        <v>1.04</v>
+        <v>1.8</v>
       </c>
       <c r="U9" t="n">
-        <v>1.04</v>
+        <v>1.8</v>
       </c>
       <c r="V9" t="n">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="W9" t="n">
-        <v>1.2</v>
+        <v>1.43</v>
       </c>
       <c r="X9" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y9" t="n">
         <v>1000</v>
@@ -1681,7 +1681,7 @@
         <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AD9" t="n">
         <v>1000</v>
@@ -1747,64 +1747,64 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.85</v>
+        <v>4.5</v>
       </c>
       <c r="G10" t="n">
-        <v>980</v>
+        <v>5.5</v>
       </c>
       <c r="H10" t="n">
-        <v>1.57</v>
+        <v>1.81</v>
       </c>
       <c r="I10" t="n">
-        <v>2.14</v>
+        <v>1.99</v>
       </c>
       <c r="J10" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="K10" t="n">
-        <v>980</v>
+        <v>3.95</v>
       </c>
       <c r="L10" t="n">
-        <v>1.34</v>
+        <v>1.43</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>2.32</v>
+        <v>3.25</v>
       </c>
       <c r="O10" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="P10" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="R10" t="n">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="S10" t="n">
-        <v>2.58</v>
+        <v>3.7</v>
       </c>
       <c r="T10" t="n">
-        <v>1.04</v>
+        <v>1.89</v>
       </c>
       <c r="U10" t="n">
-        <v>1.04</v>
+        <v>1.92</v>
       </c>
       <c r="V10" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="W10" t="n">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="Z10" t="n">
         <v>1000</v>
@@ -1816,7 +1816,7 @@
         <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD10" t="n">
         <v>1000</v>
@@ -1825,7 +1825,7 @@
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AG10" t="n">
         <v>1000</v>
@@ -1834,16 +1834,16 @@
         <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ10" t="n">
         <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
@@ -1852,7 +1852,7 @@
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
@@ -1882,46 +1882,46 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="G11" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L11" t="n">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="M11" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="O11" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P11" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R11" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S11" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="T11" t="n">
         <v>2.02</v>
@@ -1930,61 +1930,61 @@
         <v>1.8</v>
       </c>
       <c r="V11" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W11" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="X11" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y11" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AF11" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AG11" t="n">
         <v>12</v>
       </c>
       <c r="AH11" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AJ11" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK11" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AL11" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2020,22 +2020,22 @@
         <v>1.42</v>
       </c>
       <c r="G12" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="H12" t="n">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="J12" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="K12" t="n">
-        <v>5.7</v>
+        <v>5.1</v>
       </c>
       <c r="L12" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="M12" t="n">
         <v>1.06</v>
@@ -2050,31 +2050,31 @@
         <v>1.93</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.76</v>
+        <v>1.98</v>
       </c>
       <c r="R12" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="S12" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="T12" t="n">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="U12" t="n">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="V12" t="n">
         <v>1.1</v>
       </c>
       <c r="W12" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="X12" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="Z12" t="n">
         <v>1000</v>
@@ -2083,10 +2083,10 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.199999999999999</v>
+        <v>29</v>
       </c>
       <c r="AC12" t="n">
-        <v>16.5</v>
+        <v>42</v>
       </c>
       <c r="AD12" t="n">
         <v>1000</v>
@@ -2095,31 +2095,31 @@
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.800000000000001</v>
+        <v>40</v>
       </c>
       <c r="AG12" t="n">
         <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>15.5</v>
+        <v>180</v>
       </c>
       <c r="AK12" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>9.199999999999999</v>
+        <v>29</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2152,112 +2152,112 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.32</v>
+        <v>2.48</v>
       </c>
       <c r="G13" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J13" t="n">
         <v>3.25</v>
       </c>
-      <c r="H13" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.74</v>
-      </c>
       <c r="K13" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L13" t="n">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>2.58</v>
+        <v>3.5</v>
       </c>
       <c r="O13" t="n">
         <v>1.32</v>
       </c>
       <c r="P13" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T13" t="n">
         <v>1.73</v>
       </c>
-      <c r="Q13" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.04</v>
-      </c>
       <c r="U13" t="n">
-        <v>1.04</v>
+        <v>2.1</v>
       </c>
       <c r="V13" t="n">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="W13" t="n">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="X13" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="Y13" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="AA13" t="n">
-        <v>900</v>
+        <v>55</v>
       </c>
       <c r="AB13" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>42</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AE13" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF13" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AG13" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AI13" t="n">
-        <v>170</v>
+        <v>48</v>
       </c>
       <c r="AJ13" t="n">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="n">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="AL13" t="n">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c r="AM13" t="n">
-        <v>330</v>
+        <v>580</v>
       </c>
       <c r="AN13" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="AO13" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
     </row>
     <row r="14">
@@ -2287,112 +2287,112 @@
         </is>
       </c>
       <c r="F14" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K14" t="n">
         <v>3.55</v>
       </c>
-      <c r="G14" t="n">
+      <c r="L14" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>170</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>190</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN14" t="n">
         <v>600</v>
       </c>
-      <c r="H14" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N14" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="X14" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>42</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
@@ -2425,7 +2425,7 @@
         <v>1.41</v>
       </c>
       <c r="G15" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="H15" t="n">
         <v>9</v>
@@ -2434,13 +2434,13 @@
         <v>11</v>
       </c>
       <c r="J15" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K15" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L15" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="M15" t="n">
         <v>1.06</v>
@@ -2458,13 +2458,13 @@
         <v>1.87</v>
       </c>
       <c r="R15" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S15" t="n">
         <v>3.25</v>
       </c>
       <c r="T15" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U15" t="n">
         <v>1.73</v>
@@ -2473,31 +2473,31 @@
         <v>1.1</v>
       </c>
       <c r="W15" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="X15" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="Z15" t="n">
         <v>90</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>530</v>
       </c>
       <c r="AB15" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AC15" t="n">
         <v>11</v>
       </c>
       <c r="AD15" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AE15" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="AF15" t="n">
         <v>8</v>
@@ -2509,7 +2509,7 @@
         <v>32</v>
       </c>
       <c r="AI15" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AJ15" t="n">
         <v>12</v>
@@ -2518,16 +2518,16 @@
         <v>17.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="AM15" t="n">
-        <v>470</v>
+        <v>280</v>
       </c>
       <c r="AN15" t="n">
         <v>8</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16">
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="G16" t="n">
         <v>2.74</v>
@@ -2566,28 +2566,28 @@
         <v>2.84</v>
       </c>
       <c r="I16" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="J16" t="n">
         <v>3.3</v>
       </c>
       <c r="K16" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L16" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="M16" t="n">
         <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O16" t="n">
         <v>1.31</v>
       </c>
       <c r="P16" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q16" t="n">
         <v>1.9</v>
@@ -2596,67 +2596,67 @@
         <v>1.35</v>
       </c>
       <c r="S16" t="n">
-        <v>2.98</v>
+        <v>3.3</v>
       </c>
       <c r="T16" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="U16" t="n">
         <v>2.12</v>
       </c>
       <c r="V16" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="W16" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="X16" t="n">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="Y16" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="Z16" t="n">
         <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB16" t="n">
         <v>980</v>
       </c>
       <c r="AC16" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD16" t="n">
         <v>13.5</v>
       </c>
-      <c r="AD16" t="n">
-        <v>980</v>
-      </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF16" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AG16" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>430</v>
       </c>
       <c r="AN16" t="n">
         <v>1000</v>
@@ -2698,7 +2698,7 @@
         <v>1.52</v>
       </c>
       <c r="H17" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="I17" t="n">
         <v>8.4</v>
@@ -2710,7 +2710,7 @@
         <v>4.8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
@@ -2722,31 +2722,31 @@
         <v>1.23</v>
       </c>
       <c r="P17" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R17" t="n">
         <v>1.51</v>
       </c>
       <c r="S17" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T17" t="n">
         <v>1.88</v>
       </c>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V17" t="n">
         <v>1.13</v>
       </c>
       <c r="W17" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="X17" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y17" t="n">
         <v>30</v>
@@ -2761,7 +2761,7 @@
         <v>11.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD17" t="n">
         <v>29</v>
@@ -2770,13 +2770,13 @@
         <v>110</v>
       </c>
       <c r="AF17" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AG17" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI17" t="n">
         <v>95</v>
@@ -2785,7 +2785,7 @@
         <v>13.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL17" t="n">
         <v>34</v>
@@ -2794,10 +2794,10 @@
         <v>120</v>
       </c>
       <c r="AN17" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AO17" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G18" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H18" t="n">
         <v>3.7</v>
@@ -2845,94 +2845,94 @@
         <v>3.75</v>
       </c>
       <c r="L18" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M18" t="n">
         <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="O18" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="P18" t="n">
-        <v>2.24</v>
+        <v>2.02</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.73</v>
+        <v>1.93</v>
       </c>
       <c r="R18" t="n">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
       <c r="S18" t="n">
-        <v>2.84</v>
+        <v>3.3</v>
       </c>
       <c r="T18" t="n">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="U18" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="V18" t="n">
         <v>1.35</v>
       </c>
       <c r="W18" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="X18" t="n">
-        <v>23</v>
+        <v>15.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Z18" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AA18" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AB18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC18" t="n">
-        <v>10</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AF18" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH18" t="n">
         <v>16.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AJ18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL18" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM18" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AN18" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AO18" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="G19" t="n">
         <v>3.1</v>
@@ -2977,7 +2977,7 @@
         <v>3.2</v>
       </c>
       <c r="K19" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L19" t="n">
         <v>1.41</v>
@@ -2986,22 +2986,22 @@
         <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P19" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="R19" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S19" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="T19" t="n">
         <v>1.74</v>
@@ -3013,61 +3013,61 @@
         <v>1.55</v>
       </c>
       <c r="W19" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X19" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="AB19" t="n">
         <v>12</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF19" t="n">
         <v>21</v>
       </c>
       <c r="AG19" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="AJ19" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AK19" t="n">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="AL19" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="AM19" t="n">
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -3097,58 +3097,58 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="G20" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="H20" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="I20" t="n">
-        <v>2.26</v>
+        <v>2.06</v>
       </c>
       <c r="J20" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K20" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="M20" t="n">
         <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O20" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P20" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.73</v>
+        <v>1.66</v>
       </c>
       <c r="R20" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="S20" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="T20" t="n">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="U20" t="n">
-        <v>2.06</v>
+        <v>2.22</v>
       </c>
       <c r="V20" t="n">
-        <v>1.79</v>
+        <v>1.95</v>
       </c>
       <c r="W20" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3160,28 +3160,28 @@
         <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB20" t="n">
         <v>1000</v>
       </c>
       <c r="AC20" t="n">
-        <v>11</v>
+        <v>19.5</v>
       </c>
       <c r="AD20" t="n">
         <v>40</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AG20" t="n">
         <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI20" t="n">
         <v>1000</v>
@@ -3202,7 +3202,7 @@
         <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21">
@@ -3232,55 +3232,55 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="G21" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="H21" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I21" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J21" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K21" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M21" t="n">
         <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="O21" t="n">
         <v>1.25</v>
       </c>
       <c r="P21" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R21" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="S21" t="n">
-        <v>2.72</v>
+        <v>2.58</v>
       </c>
       <c r="T21" t="n">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="U21" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="V21" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W21" t="n">
         <v>2.04</v>
@@ -3301,13 +3301,13 @@
         <v>980</v>
       </c>
       <c r="AC21" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AD21" t="n">
         <v>980</v>
       </c>
       <c r="AE21" t="n">
-        <v>65</v>
+        <v>220</v>
       </c>
       <c r="AF21" t="n">
         <v>980</v>
@@ -3316,10 +3316,10 @@
         <v>980</v>
       </c>
       <c r="AH21" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AI21" t="n">
-        <v>70</v>
+        <v>260</v>
       </c>
       <c r="AJ21" t="n">
         <v>980</v>
@@ -3331,10 +3331,10 @@
         <v>980</v>
       </c>
       <c r="AM21" t="n">
-        <v>110</v>
+        <v>580</v>
       </c>
       <c r="AN21" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AO21" t="n">
         <v>980</v>
@@ -3367,109 +3367,109 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>2.36</v>
+        <v>2.12</v>
       </c>
       <c r="H22" t="n">
-        <v>3.05</v>
+        <v>3.8</v>
       </c>
       <c r="I22" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="J22" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K22" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="O22" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P22" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="R22" t="n">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="S22" t="n">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="T22" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="U22" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="V22" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="W22" t="n">
-        <v>1.74</v>
+        <v>1.9</v>
       </c>
       <c r="X22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y22" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AA22" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="AB22" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC22" t="n">
         <v>10.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF22" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AJ22" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AK22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL22" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="AM22" t="n">
-        <v>75</v>
+        <v>580</v>
       </c>
       <c r="AN22" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="AO22" t="n">
         <v>30</v>
@@ -3502,58 +3502,58 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.14</v>
+        <v>2.32</v>
       </c>
       <c r="G23" t="n">
-        <v>2.46</v>
+        <v>2.68</v>
       </c>
       <c r="H23" t="n">
-        <v>2.82</v>
+        <v>2.74</v>
       </c>
       <c r="I23" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="J23" t="n">
         <v>3.45</v>
       </c>
       <c r="K23" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="L23" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O23" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P23" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R23" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S23" t="n">
         <v>2.32</v>
       </c>
       <c r="T23" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="U23" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V23" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="W23" t="n">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="X23" t="n">
         <v>980</v>
@@ -3571,13 +3571,13 @@
         <v>980</v>
       </c>
       <c r="AC23" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AD23" t="n">
         <v>980</v>
       </c>
       <c r="AE23" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AF23" t="n">
         <v>980</v>
@@ -3586,7 +3586,7 @@
         <v>980</v>
       </c>
       <c r="AH23" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AI23" t="n">
         <v>980</v>
@@ -3595,16 +3595,16 @@
         <v>980</v>
       </c>
       <c r="AK23" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AL23" t="n">
         <v>980</v>
       </c>
       <c r="AM23" t="n">
-        <v>75</v>
+        <v>580</v>
       </c>
       <c r="AN23" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AO23" t="n">
         <v>980</v>
@@ -3640,7 +3640,7 @@
         <v>1.82</v>
       </c>
       <c r="G24" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="H24" t="n">
         <v>4.7</v>
@@ -3652,97 +3652,97 @@
         <v>3.6</v>
       </c>
       <c r="K24" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L24" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="M24" t="n">
         <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O24" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P24" t="n">
         <v>1.82</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="R24" t="n">
         <v>1.31</v>
       </c>
       <c r="S24" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="T24" t="n">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="U24" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V24" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W24" t="n">
         <v>2.06</v>
       </c>
       <c r="X24" t="n">
-        <v>15.5</v>
+        <v>24</v>
       </c>
       <c r="Y24" t="n">
         <v>980</v>
       </c>
       <c r="Z24" t="n">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="AA24" t="n">
         <v>150</v>
       </c>
       <c r="AB24" t="n">
-        <v>8.6</v>
+        <v>16</v>
       </c>
       <c r="AC24" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AD24" t="n">
         <v>980</v>
       </c>
       <c r="AE24" t="n">
-        <v>85</v>
+        <v>210</v>
       </c>
       <c r="AF24" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AG24" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="AH24" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AI24" t="n">
-        <v>90</v>
+        <v>230</v>
       </c>
       <c r="AJ24" t="n">
         <v>980</v>
       </c>
       <c r="AK24" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="AL24" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AM24" t="n">
-        <v>150</v>
+        <v>580</v>
       </c>
       <c r="AN24" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="AO24" t="n">
-        <v>110</v>
+        <v>530</v>
       </c>
     </row>
     <row r="25">
@@ -3772,34 +3772,34 @@
         </is>
       </c>
       <c r="F25" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G25" t="n">
         <v>4.5</v>
       </c>
-      <c r="G25" t="n">
-        <v>4.8</v>
-      </c>
       <c r="H25" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="I25" t="n">
         <v>1.9</v>
       </c>
       <c r="J25" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="K25" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L25" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M25" t="n">
         <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="O25" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P25" t="n">
         <v>2.04</v>
@@ -3808,76 +3808,76 @@
         <v>1.78</v>
       </c>
       <c r="R25" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S25" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="T25" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="U25" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="V25" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="W25" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="X25" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="Y25" t="n">
         <v>10.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AB25" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD25" t="n">
         <v>11</v>
       </c>
       <c r="AE25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF25" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="AG25" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AH25" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="AJ25" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AK25" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AL25" t="n">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="AM25" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="AN25" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AO25" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
@@ -3910,13 +3910,13 @@
         <v>1.72</v>
       </c>
       <c r="G26" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="H26" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="J26" t="n">
         <v>4.1</v>
@@ -3925,7 +3925,7 @@
         <v>4.8</v>
       </c>
       <c r="L26" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="M26" t="n">
         <v>1.05</v>
@@ -3937,22 +3937,22 @@
         <v>1.26</v>
       </c>
       <c r="P26" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R26" t="n">
         <v>1.42</v>
       </c>
       <c r="S26" t="n">
-        <v>2.76</v>
+        <v>2.88</v>
       </c>
       <c r="T26" t="n">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="U26" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="V26" t="n">
         <v>1.26</v>
@@ -3967,7 +3967,7 @@
         <v>980</v>
       </c>
       <c r="Z26" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AA26" t="n">
         <v>1000</v>
@@ -3976,25 +3976,25 @@
         <v>1000</v>
       </c>
       <c r="AC26" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AD26" t="n">
         <v>980</v>
       </c>
       <c r="AE26" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AF26" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="AG26" t="n">
-        <v>12.5</v>
+        <v>40</v>
       </c>
       <c r="AH26" t="n">
         <v>980</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AJ26" t="n">
         <v>980</v>
@@ -4003,13 +4003,13 @@
         <v>980</v>
       </c>
       <c r="AL26" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM26" t="n">
         <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AO26" t="n">
         <v>1000</v>
@@ -4048,10 +4048,10 @@
         <v>1.61</v>
       </c>
       <c r="H27" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="I27" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J27" t="n">
         <v>3.95</v>
@@ -4063,7 +4063,7 @@
         <v>1.35</v>
       </c>
       <c r="M27" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N27" t="n">
         <v>3.25</v>
@@ -4081,43 +4081,43 @@
         <v>1.29</v>
       </c>
       <c r="S27" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="T27" t="n">
         <v>2.12</v>
       </c>
       <c r="U27" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="V27" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W27" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="X27" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="Z27" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AA27" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="AB27" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="AC27" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="AD27" t="n">
         <v>32</v>
       </c>
       <c r="AE27" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AF27" t="n">
         <v>8.6</v>
@@ -4126,7 +4126,7 @@
         <v>10.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AI27" t="n">
         <v>160</v>
@@ -4135,19 +4135,19 @@
         <v>15</v>
       </c>
       <c r="AK27" t="n">
-        <v>19.5</v>
+        <v>36</v>
       </c>
       <c r="AL27" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AM27" t="n">
-        <v>220</v>
+        <v>580</v>
       </c>
       <c r="AN27" t="n">
         <v>11</v>
       </c>
       <c r="AO27" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28">
@@ -4177,25 +4177,25 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="G28" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="H28" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J28" t="n">
         <v>3.95</v>
       </c>
-      <c r="I28" t="n">
-        <v>5</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.55</v>
-      </c>
       <c r="K28" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L28" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M28" t="n">
         <v>1.07</v>
@@ -4210,7 +4210,7 @@
         <v>1.86</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="R28" t="n">
         <v>1.33</v>
@@ -4219,10 +4219,10 @@
         <v>3.5</v>
       </c>
       <c r="T28" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U28" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V28" t="n">
         <v>1.26</v>
@@ -4231,58 +4231,58 @@
         <v>1.98</v>
       </c>
       <c r="X28" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="Y28" t="n">
         <v>980</v>
       </c>
       <c r="Z28" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AA28" t="n">
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="AB28" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AD28" t="n">
         <v>980</v>
       </c>
       <c r="AE28" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AF28" t="n">
         <v>980</v>
       </c>
       <c r="AG28" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AH28" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AI28" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AJ28" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AK28" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AL28" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AM28" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN28" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AO28" t="n">
-        <v>85</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29">
@@ -4315,7 +4315,7 @@
         <v>1.26</v>
       </c>
       <c r="G29" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="H29" t="n">
         <v>14</v>
@@ -4324,16 +4324,16 @@
         <v>21</v>
       </c>
       <c r="J29" t="n">
-        <v>5.6</v>
+        <v>6.8</v>
       </c>
       <c r="K29" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L29" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N29" t="n">
         <v>5</v>
@@ -4342,34 +4342,34 @@
         <v>1.2</v>
       </c>
       <c r="P29" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="R29" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S29" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T29" t="n">
         <v>2.06</v>
       </c>
       <c r="U29" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="V29" t="n">
         <v>1.07</v>
       </c>
       <c r="W29" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="X29" t="n">
         <v>980</v>
       </c>
       <c r="Y29" t="n">
-        <v>55</v>
+        <v>210</v>
       </c>
       <c r="Z29" t="n">
         <v>1000</v>
@@ -4384,13 +4384,13 @@
         <v>980</v>
       </c>
       <c r="AD29" t="n">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="AE29" t="n">
         <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>980</v>
+        <v>8</v>
       </c>
       <c r="AG29" t="n">
         <v>980</v>
@@ -4408,13 +4408,13 @@
         <v>980</v>
       </c>
       <c r="AL29" t="n">
-        <v>60</v>
+        <v>260</v>
       </c>
       <c r="AM29" t="n">
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="AO29" t="n">
         <v>1000</v>
@@ -4450,73 +4450,73 @@
         <v>4.5</v>
       </c>
       <c r="G30" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="H30" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="I30" t="n">
         <v>1.95</v>
       </c>
       <c r="J30" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K30" t="n">
         <v>4.2</v>
       </c>
       <c r="L30" t="n">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="M30" t="n">
         <v>1.06</v>
       </c>
       <c r="N30" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="O30" t="n">
         <v>1.3</v>
       </c>
       <c r="P30" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R30" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S30" t="n">
         <v>3.25</v>
       </c>
       <c r="T30" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="U30" t="n">
+        <v>2</v>
+      </c>
+      <c r="V30" t="n">
         <v>2.02</v>
       </c>
-      <c r="V30" t="n">
-        <v>2.04</v>
-      </c>
       <c r="W30" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X30" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z30" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AA30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB30" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD30" t="n">
         <v>11</v>
@@ -4525,34 +4525,34 @@
         <v>21</v>
       </c>
       <c r="AF30" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AG30" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AH30" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI30" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AJ30" t="n">
         <v>1000</v>
       </c>
       <c r="AK30" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AL30" t="n">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="AM30" t="n">
         <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="AO30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
@@ -4588,61 +4588,61 @@
         <v>2.98</v>
       </c>
       <c r="H31" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="I31" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="J31" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K31" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L31" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="M31" t="n">
         <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O31" t="n">
         <v>1.28</v>
       </c>
       <c r="P31" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="R31" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="S31" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="T31" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="U31" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="V31" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="W31" t="n">
         <v>1.51</v>
       </c>
       <c r="X31" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z31" t="n">
         <v>19.5</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>22</v>
       </c>
       <c r="AA31" t="n">
         <v>42</v>
@@ -4651,43 +4651,43 @@
         <v>13.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE31" t="n">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="AF31" t="n">
         <v>21</v>
       </c>
       <c r="AG31" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH31" t="n">
         <v>17.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AJ31" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AK31" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AL31" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AM31" t="n">
-        <v>95</v>
+        <v>330</v>
       </c>
       <c r="AN31" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AO31" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32">
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="G32" t="n">
         <v>2.22</v>
@@ -4747,13 +4747,13 @@
         <v>1.21</v>
       </c>
       <c r="P32" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="Q32" t="n">
         <v>1.63</v>
       </c>
       <c r="R32" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S32" t="n">
         <v>2.52</v>
@@ -4762,10 +4762,10 @@
         <v>1.56</v>
       </c>
       <c r="U32" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="V32" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W32" t="n">
         <v>1.81</v>
@@ -4774,13 +4774,13 @@
         <v>22</v>
       </c>
       <c r="Y32" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AA32" t="n">
-        <v>960</v>
+        <v>70</v>
       </c>
       <c r="AB32" t="n">
         <v>15</v>
@@ -4792,7 +4792,7 @@
         <v>14.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AF32" t="n">
         <v>17.5</v>
@@ -4804,10 +4804,10 @@
         <v>15</v>
       </c>
       <c r="AI32" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AJ32" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AK32" t="n">
         <v>23</v>
@@ -4819,10 +4819,10 @@
         <v>75</v>
       </c>
       <c r="AN32" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AO32" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
@@ -4858,7 +4858,7 @@
         <v>1.42</v>
       </c>
       <c r="H33" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="I33" t="n">
         <v>9</v>
@@ -4870,7 +4870,7 @@
         <v>7</v>
       </c>
       <c r="L33" t="n">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="M33" t="n">
         <v>1.02</v>
@@ -4885,19 +4885,19 @@
         <v>2.84</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="R33" t="n">
         <v>1.74</v>
       </c>
       <c r="S33" t="n">
-        <v>1.99</v>
+        <v>2.1</v>
       </c>
       <c r="T33" t="n">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="U33" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="V33" t="n">
         <v>1.12</v>
@@ -4906,7 +4906,7 @@
         <v>3.3</v>
       </c>
       <c r="X33" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="Y33" t="n">
         <v>980</v>
@@ -4918,10 +4918,10 @@
         <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AC33" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AD33" t="n">
         <v>980</v>
@@ -4930,31 +4930,31 @@
         <v>110</v>
       </c>
       <c r="AF33" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AG33" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AH33" t="n">
         <v>980</v>
       </c>
       <c r="AI33" t="n">
-        <v>95</v>
+        <v>400</v>
       </c>
       <c r="AJ33" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AK33" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AL33" t="n">
         <v>980</v>
       </c>
       <c r="AM33" t="n">
-        <v>110</v>
+        <v>330</v>
       </c>
       <c r="AN33" t="n">
-        <v>5.2</v>
+        <v>7</v>
       </c>
       <c r="AO33" t="n">
         <v>110</v>
@@ -4996,16 +4996,16 @@
         <v>2.26</v>
       </c>
       <c r="I34" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="J34" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K34" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L34" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="M34" t="n">
         <v>1.05</v>
@@ -5029,10 +5029,10 @@
         <v>2.86</v>
       </c>
       <c r="T34" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="U34" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V34" t="n">
         <v>1.67</v>
@@ -5041,58 +5041,58 @@
         <v>1.43</v>
       </c>
       <c r="X34" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Y34" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB34" t="n">
         <v>15</v>
       </c>
-      <c r="Z34" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AC34" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG34" t="n">
         <v>14</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>16.5</v>
       </c>
       <c r="AH34" t="n">
         <v>20</v>
       </c>
       <c r="AI34" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AJ34" t="n">
-        <v>65</v>
+        <v>470</v>
       </c>
       <c r="AK34" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AL34" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AM34" t="n">
-        <v>90</v>
+        <v>330</v>
       </c>
       <c r="AN34" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AO34" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
@@ -5122,61 +5122,61 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="G35" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="H35" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I35" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="J35" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="K35" t="n">
         <v>3.8</v>
       </c>
       <c r="L35" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="M35" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N35" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O35" t="n">
         <v>1.35</v>
       </c>
       <c r="P35" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="R35" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S35" t="n">
         <v>3.7</v>
       </c>
       <c r="T35" t="n">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="U35" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V35" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W35" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="X35" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="Y35" t="n">
         <v>1000</v>
@@ -5188,13 +5188,13 @@
         <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD35" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AE35" t="n">
         <v>1000</v>
@@ -5203,7 +5203,7 @@
         <v>1000</v>
       </c>
       <c r="AG35" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH35" t="n">
         <v>1000</v>
@@ -5257,19 +5257,19 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="G36" t="n">
-        <v>2.6</v>
+        <v>2.46</v>
       </c>
       <c r="H36" t="n">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="I36" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="J36" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K36" t="n">
         <v>3.9</v>
@@ -5278,55 +5278,55 @@
         <v>1.3</v>
       </c>
       <c r="M36" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N36" t="n">
         <v>3.8</v>
       </c>
       <c r="O36" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P36" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="R36" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S36" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="T36" t="n">
         <v>1.6</v>
       </c>
       <c r="U36" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V36" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="W36" t="n">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="X36" t="n">
-        <v>90</v>
+        <v>980</v>
       </c>
       <c r="Y36" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="Z36" t="n">
         <v>980</v>
       </c>
       <c r="AA36" t="n">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="AB36" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AC36" t="n">
-        <v>9.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="AD36" t="n">
         <v>980</v>
@@ -5335,16 +5335,16 @@
         <v>980</v>
       </c>
       <c r="AF36" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AG36" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AH36" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AI36" t="n">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c r="AJ36" t="n">
         <v>980</v>
@@ -5356,7 +5356,7 @@
         <v>980</v>
       </c>
       <c r="AM36" t="n">
-        <v>110</v>
+        <v>330</v>
       </c>
       <c r="AN36" t="n">
         <v>980</v>
@@ -5395,22 +5395,22 @@
         <v>1.34</v>
       </c>
       <c r="G37" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H37" t="n">
         <v>8.4</v>
       </c>
       <c r="I37" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="J37" t="n">
         <v>6</v>
       </c>
       <c r="K37" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="L37" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="M37" t="n">
         <v>1.02</v>
@@ -5428,19 +5428,19 @@
         <v>1.44</v>
       </c>
       <c r="R37" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="S37" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="T37" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U37" t="n">
         <v>2.06</v>
       </c>
       <c r="V37" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W37" t="n">
         <v>3.6</v>
@@ -5449,55 +5449,55 @@
         <v>980</v>
       </c>
       <c r="Y37" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="Z37" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AA37" t="n">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="AB37" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AD37" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AE37" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AF37" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG37" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH37" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AI37" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="AJ37" t="n">
         <v>12.5</v>
       </c>
       <c r="AK37" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AL37" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AM37" t="n">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="AN37" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="AO37" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38">
@@ -5533,16 +5533,16 @@
         <v>1.53</v>
       </c>
       <c r="H38" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I38" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J38" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K38" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -5560,7 +5560,7 @@
         <v>2.2</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -5668,10 +5668,10 @@
         <v>1.28</v>
       </c>
       <c r="H39" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="I39" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="J39" t="n">
         <v>7</v>
@@ -5686,28 +5686,28 @@
         <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="O39" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="P39" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q39" t="n">
         <v>1.24</v>
       </c>
       <c r="R39" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="S39" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="T39" t="n">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="U39" t="n">
-        <v>2.08</v>
+        <v>2.26</v>
       </c>
       <c r="V39" t="n">
         <v>1.08</v>
@@ -5743,7 +5743,7 @@
         <v>980</v>
       </c>
       <c r="AG39" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AH39" t="n">
         <v>980</v>
@@ -5764,7 +5764,7 @@
         <v>1000</v>
       </c>
       <c r="AN39" t="n">
-        <v>2.98</v>
+        <v>2.74</v>
       </c>
       <c r="AO39" t="n">
         <v>1000</v>
@@ -5809,16 +5809,16 @@
         <v>1.76</v>
       </c>
       <c r="J40" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K40" t="n">
         <v>4.5</v>
       </c>
       <c r="L40" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="M40" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N40" t="n">
         <v>3.9</v>
@@ -5830,7 +5830,7 @@
         <v>2</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="R40" t="n">
         <v>1.38</v>
@@ -5839,13 +5839,13 @@
         <v>3.1</v>
       </c>
       <c r="T40" t="n">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="U40" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V40" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="W40" t="n">
         <v>1.2</v>
@@ -5854,37 +5854,37 @@
         <v>20</v>
       </c>
       <c r="Y40" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD40" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z40" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>12</v>
-      </c>
       <c r="AE40" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>55</v>
+      </c>
+      <c r="AH40" t="n">
         <v>22</v>
       </c>
-      <c r="AF40" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>27</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>25</v>
-      </c>
       <c r="AI40" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AJ40" t="n">
         <v>180</v>
@@ -5893,13 +5893,13 @@
         <v>960</v>
       </c>
       <c r="AL40" t="n">
-        <v>95</v>
+        <v>330</v>
       </c>
       <c r="AM40" t="n">
-        <v>140</v>
+        <v>470</v>
       </c>
       <c r="AN40" t="n">
-        <v>120</v>
+        <v>270</v>
       </c>
       <c r="AO40" t="n">
         <v>12</v>
@@ -5932,64 +5932,64 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="G41" t="n">
-        <v>2.76</v>
+        <v>2.6</v>
       </c>
       <c r="H41" t="n">
-        <v>2.72</v>
+        <v>3.05</v>
       </c>
       <c r="I41" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J41" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K41" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L41" t="n">
         <v>1.32</v>
       </c>
       <c r="M41" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N41" t="n">
-        <v>2.76</v>
+        <v>3.6</v>
       </c>
       <c r="O41" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P41" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="R41" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="S41" t="n">
-        <v>2.98</v>
+        <v>3.3</v>
       </c>
       <c r="T41" t="n">
-        <v>1.04</v>
+        <v>1.62</v>
       </c>
       <c r="U41" t="n">
-        <v>1.04</v>
+        <v>1.96</v>
       </c>
       <c r="V41" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W41" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="X41" t="n">
         <v>1000</v>
       </c>
       <c r="Y41" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z41" t="n">
         <v>1000</v>
@@ -5998,13 +5998,13 @@
         <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC41" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD41" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE41" t="n">
         <v>1000</v>
@@ -6013,10 +6013,10 @@
         <v>1000</v>
       </c>
       <c r="AG41" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH41" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI41" t="n">
         <v>1000</v>
@@ -6067,22 +6067,22 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="G42" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="H42" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="I42" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="J42" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K42" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -6097,10 +6097,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -6202,112 +6202,112 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.41</v>
+        <v>2.26</v>
       </c>
       <c r="G43" t="n">
-        <v>1000</v>
+        <v>2.62</v>
       </c>
       <c r="H43" t="n">
-        <v>1.41</v>
+        <v>3.2</v>
       </c>
       <c r="I43" t="n">
-        <v>1000</v>
+        <v>3.95</v>
       </c>
       <c r="J43" t="n">
-        <v>1.02</v>
+        <v>2.98</v>
       </c>
       <c r="K43" t="n">
         <v>3.5</v>
       </c>
       <c r="L43" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="M43" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N43" t="n">
-        <v>1.3</v>
+        <v>2.84</v>
       </c>
       <c r="O43" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="P43" t="n">
-        <v>1.3</v>
+        <v>1.63</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.02</v>
+        <v>2.2</v>
       </c>
       <c r="R43" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="S43" t="n">
-        <v>2.68</v>
+        <v>4.4</v>
       </c>
       <c r="T43" t="n">
-        <v>1.04</v>
+        <v>1.87</v>
       </c>
       <c r="U43" t="n">
-        <v>1.04</v>
+        <v>1.87</v>
       </c>
       <c r="V43" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="W43" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="X43" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z43" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA43" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB43" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC43" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD43" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE43" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF43" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG43" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI43" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ43" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AK43" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL43" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM43" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN43" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO43" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44">
@@ -6337,16 +6337,16 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G44" t="n">
         <v>2.84</v>
       </c>
       <c r="H44" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I44" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="J44" t="n">
         <v>2.78</v>
@@ -6358,10 +6358,10 @@
         <v>1.58</v>
       </c>
       <c r="M44" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N44" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="O44" t="n">
         <v>1.58</v>
@@ -6370,7 +6370,7 @@
         <v>1.46</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="R44" t="n">
         <v>1.18</v>
@@ -6379,67 +6379,67 @@
         <v>6</v>
       </c>
       <c r="T44" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="U44" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="V44" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W44" t="n">
         <v>1.54</v>
       </c>
       <c r="X44" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y44" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="Z44" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA44" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB44" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AC44" t="n">
         <v>7.2</v>
       </c>
       <c r="AD44" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE44" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AF44" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG44" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH44" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AI44" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AJ44" t="n">
-        <v>900</v>
+        <v>120</v>
       </c>
       <c r="AK44" t="n">
         <v>46</v>
       </c>
       <c r="AL44" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AM44" t="n">
         <v>1000</v>
       </c>
       <c r="AN44" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO44" t="n">
         <v>1000</v>
@@ -6472,61 +6472,61 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.44</v>
+        <v>2.24</v>
       </c>
       <c r="G45" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="H45" t="n">
-        <v>3.3</v>
+        <v>2.84</v>
       </c>
       <c r="I45" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="J45" t="n">
-        <v>2.78</v>
+        <v>2.86</v>
       </c>
       <c r="K45" t="n">
         <v>3.45</v>
       </c>
       <c r="L45" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M45" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="N45" t="n">
-        <v>2.64</v>
+        <v>2.16</v>
       </c>
       <c r="O45" t="n">
-        <v>1.49</v>
+        <v>1.04</v>
       </c>
       <c r="P45" t="n">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="R45" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="S45" t="n">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="T45" t="n">
-        <v>1.86</v>
+        <v>1.04</v>
       </c>
       <c r="U45" t="n">
-        <v>1.69</v>
+        <v>1.04</v>
       </c>
       <c r="V45" t="n">
         <v>1.34</v>
       </c>
       <c r="W45" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="X45" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Y45" t="n">
         <v>1000</v>
@@ -6538,10 +6538,10 @@
         <v>1000</v>
       </c>
       <c r="AB45" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC45" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD45" t="n">
         <v>1000</v>
@@ -6607,19 +6607,19 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="G46" t="n">
         <v>7</v>
       </c>
       <c r="H46" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="I46" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="J46" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K46" t="n">
         <v>3.95</v>
@@ -6628,16 +6628,16 @@
         <v>1.37</v>
       </c>
       <c r="M46" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N46" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O46" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P46" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q46" t="n">
         <v>2.16</v>
@@ -6655,22 +6655,22 @@
         <v>1.78</v>
       </c>
       <c r="V46" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="W46" t="n">
         <v>1.17</v>
       </c>
       <c r="X46" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Y46" t="n">
         <v>7.4</v>
       </c>
       <c r="Z46" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA46" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB46" t="n">
         <v>18</v>
@@ -6685,16 +6685,16 @@
         <v>22</v>
       </c>
       <c r="AF46" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AG46" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AH46" t="n">
         <v>26</v>
       </c>
       <c r="AI46" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ46" t="n">
         <v>1000</v>
@@ -6712,7 +6712,7 @@
         <v>1000</v>
       </c>
       <c r="AO46" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47">
@@ -6742,112 +6742,112 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="H47" t="n">
-        <v>4.4</v>
+        <v>5.8</v>
       </c>
       <c r="I47" t="n">
-        <v>980</v>
+        <v>7.2</v>
       </c>
       <c r="J47" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K47" t="n">
-        <v>7.2</v>
+        <v>4.1</v>
       </c>
       <c r="L47" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M47" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N47" t="n">
-        <v>2.1</v>
+        <v>2.92</v>
       </c>
       <c r="O47" t="n">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="P47" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.02</v>
+        <v>2.22</v>
       </c>
       <c r="R47" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="S47" t="n">
-        <v>2.94</v>
+        <v>4.2</v>
       </c>
       <c r="T47" t="n">
-        <v>1.04</v>
+        <v>2.08</v>
       </c>
       <c r="U47" t="n">
-        <v>1.04</v>
+        <v>1.73</v>
       </c>
       <c r="V47" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="W47" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="X47" t="n">
-        <v>90</v>
+        <v>11.5</v>
       </c>
       <c r="Y47" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA47" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AB47" t="n">
-        <v>980</v>
+        <v>7</v>
       </c>
       <c r="AC47" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD47" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AE47" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF47" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG47" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AH47" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AI47" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ47" t="n">
-        <v>900</v>
+        <v>19</v>
       </c>
       <c r="AK47" t="n">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="AL47" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM47" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN47" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AO47" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48">
@@ -6877,67 +6877,67 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="G48" t="n">
         <v>2.28</v>
       </c>
       <c r="H48" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I48" t="n">
+        <v>4</v>
+      </c>
+      <c r="J48" t="n">
         <v>3.4</v>
-      </c>
-      <c r="I48" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J48" t="n">
-        <v>3.35</v>
       </c>
       <c r="K48" t="n">
         <v>3.9</v>
       </c>
       <c r="L48" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M48" t="n">
         <v>1.07</v>
       </c>
       <c r="N48" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O48" t="n">
         <v>1.31</v>
       </c>
       <c r="P48" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q48" t="n">
         <v>1.9</v>
       </c>
-      <c r="Q48" t="n">
+      <c r="R48" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U48" t="n">
         <v>1.92</v>
       </c>
-      <c r="R48" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S48" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T48" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="U48" t="n">
-        <v>2.08</v>
-      </c>
       <c r="V48" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="W48" t="n">
         <v>1.78</v>
       </c>
       <c r="X48" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Y48" t="n">
         <v>980</v>
       </c>
       <c r="Z48" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AA48" t="n">
         <v>1000</v>
@@ -6946,40 +6946,40 @@
         <v>980</v>
       </c>
       <c r="AC48" t="n">
-        <v>9.800000000000001</v>
+        <v>14</v>
       </c>
       <c r="AD48" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AE48" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF48" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AG48" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AH48" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AI48" t="n">
         <v>1000</v>
       </c>
       <c r="AJ48" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK48" t="n">
         <v>980</v>
       </c>
       <c r="AL48" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM48" t="n">
         <v>1000</v>
       </c>
       <c r="AN48" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AO48" t="n">
         <v>1000</v>
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="G49" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="H49" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="I49" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="J49" t="n">
         <v>4.3</v>
       </c>
       <c r="K49" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L49" t="n">
         <v>1.01</v>
@@ -7036,49 +7036,49 @@
         <v>1.03</v>
       </c>
       <c r="N49" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="O49" t="n">
         <v>1.19</v>
       </c>
       <c r="P49" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="R49" t="n">
         <v>1.6</v>
       </c>
       <c r="S49" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="T49" t="n">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="U49" t="n">
         <v>2.3</v>
       </c>
       <c r="V49" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="W49" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="X49" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="Y49" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="Z49" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AA49" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="AB49" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AC49" t="n">
         <v>11.5</v>
@@ -7087,37 +7087,37 @@
         <v>11</v>
       </c>
       <c r="AE49" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AF49" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AG49" t="n">
         <v>980</v>
       </c>
       <c r="AH49" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AI49" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AJ49" t="n">
         <v>140</v>
       </c>
       <c r="AK49" t="n">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="AL49" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AM49" t="n">
-        <v>90</v>
+        <v>580</v>
       </c>
       <c r="AN49" t="n">
         <v>1000</v>
       </c>
       <c r="AO49" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="50">
@@ -7150,55 +7150,55 @@
         <v>1.7</v>
       </c>
       <c r="G50" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H50" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="I50" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="J50" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K50" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="L50" t="n">
         <v>1.01</v>
       </c>
       <c r="M50" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N50" t="n">
         <v>3</v>
       </c>
       <c r="O50" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="P50" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.14</v>
+        <v>2.02</v>
       </c>
       <c r="R50" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S50" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="T50" t="n">
-        <v>2.04</v>
+        <v>1.89</v>
       </c>
       <c r="U50" t="n">
-        <v>1.77</v>
+        <v>1.65</v>
       </c>
       <c r="V50" t="n">
         <v>1.17</v>
       </c>
       <c r="W50" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="X50" t="n">
         <v>1000</v>
@@ -7213,10 +7213,10 @@
         <v>1000</v>
       </c>
       <c r="AB50" t="n">
-        <v>7.4</v>
+        <v>29</v>
       </c>
       <c r="AC50" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD50" t="n">
         <v>1000</v>
@@ -7225,7 +7225,7 @@
         <v>1000</v>
       </c>
       <c r="AF50" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AG50" t="n">
         <v>1000</v>
@@ -7282,31 +7282,31 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="G51" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="H51" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="I51" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="J51" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="K51" t="n">
         <v>3.45</v>
       </c>
       <c r="L51" t="n">
-        <v>1.53</v>
+        <v>1.01</v>
       </c>
       <c r="M51" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N51" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="O51" t="n">
         <v>1.48</v>
@@ -7315,25 +7315,25 @@
         <v>1.57</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="R51" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S51" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="T51" t="n">
         <v>2.02</v>
       </c>
       <c r="U51" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="V51" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="W51" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X51" t="n">
         <v>11.5</v>
@@ -7342,19 +7342,19 @@
         <v>9</v>
       </c>
       <c r="Z51" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AA51" t="n">
         <v>900</v>
       </c>
       <c r="AB51" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC51" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD51" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AE51" t="n">
         <v>38</v>
@@ -7363,10 +7363,10 @@
         <v>34</v>
       </c>
       <c r="AG51" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH51" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI51" t="n">
         <v>1000</v>
@@ -7417,64 +7417,64 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.66</v>
+        <v>2.54</v>
       </c>
       <c r="G52" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H52" t="n">
-        <v>2.66</v>
+        <v>2.54</v>
       </c>
       <c r="I52" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="J52" t="n">
-        <v>3.15</v>
+        <v>2.72</v>
       </c>
       <c r="K52" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="L52" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="M52" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N52" t="n">
-        <v>3.25</v>
+        <v>2.24</v>
       </c>
       <c r="O52" t="n">
-        <v>1.35</v>
+        <v>1.04</v>
       </c>
       <c r="P52" t="n">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="R52" t="n">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="S52" t="n">
-        <v>3.3</v>
+        <v>2.86</v>
       </c>
       <c r="T52" t="n">
-        <v>1.66</v>
+        <v>1.04</v>
       </c>
       <c r="U52" t="n">
-        <v>1.88</v>
+        <v>1.04</v>
       </c>
       <c r="V52" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="W52" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="X52" t="n">
         <v>1000</v>
       </c>
       <c r="Y52" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z52" t="n">
         <v>1000</v>
@@ -7483,10 +7483,10 @@
         <v>1000</v>
       </c>
       <c r="AB52" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC52" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD52" t="n">
         <v>1000</v>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="G53" t="n">
         <v>2.22</v>
@@ -7564,40 +7564,40 @@
         <v>4.9</v>
       </c>
       <c r="J53" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K53" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L53" t="n">
         <v>1.53</v>
       </c>
       <c r="M53" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N53" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="O53" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P53" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="R53" t="n">
         <v>1.21</v>
       </c>
       <c r="S53" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="T53" t="n">
-        <v>1.88</v>
+        <v>2.06</v>
       </c>
       <c r="U53" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="V53" t="n">
         <v>1.26</v>
@@ -7606,7 +7606,7 @@
         <v>1.81</v>
       </c>
       <c r="X53" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="Y53" t="n">
         <v>980</v>
@@ -7627,19 +7627,19 @@
         <v>980</v>
       </c>
       <c r="AE53" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AF53" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AG53" t="n">
         <v>980</v>
       </c>
       <c r="AH53" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AI53" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ53" t="n">
         <v>980</v>
@@ -7648,16 +7648,16 @@
         <v>980</v>
       </c>
       <c r="AL53" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AM53" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN53" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AO53" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54">
@@ -7690,10 +7690,10 @@
         <v>1.75</v>
       </c>
       <c r="G54" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="H54" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="I54" t="n">
         <v>6.4</v>
@@ -7702,7 +7702,7 @@
         <v>3.65</v>
       </c>
       <c r="K54" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L54" t="n">
         <v>1.43</v>
@@ -7717,7 +7717,7 @@
         <v>1.36</v>
       </c>
       <c r="P54" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="Q54" t="n">
         <v>2.02</v>
@@ -7738,52 +7738,52 @@
         <v>1.19</v>
       </c>
       <c r="W54" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="X54" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Y54" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="Z54" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AA54" t="n">
         <v>200</v>
       </c>
       <c r="AB54" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AC54" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF54" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD54" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>12</v>
-      </c>
       <c r="AG54" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH54" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI54" t="n">
         <v>95</v>
       </c>
       <c r="AJ54" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AK54" t="n">
         <v>21</v>
       </c>
       <c r="AL54" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AM54" t="n">
         <v>170</v>
@@ -7822,22 +7822,22 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="G55" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H55" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="J55" t="n">
         <v>3.85</v>
       </c>
-      <c r="H55" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="I55" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="J55" t="n">
-        <v>3.7</v>
-      </c>
       <c r="K55" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L55" t="n">
         <v>1.42</v>
@@ -7846,64 +7846,64 @@
         <v>1.08</v>
       </c>
       <c r="N55" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="O55" t="n">
         <v>1.37</v>
       </c>
       <c r="P55" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R55" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="S55" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="T55" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="U55" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V55" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="W55" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X55" t="n">
-        <v>90</v>
+        <v>16.5</v>
       </c>
       <c r="Y55" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="Z55" t="n">
         <v>12.5</v>
       </c>
       <c r="AA55" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AB55" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC55" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD55" t="n">
         <v>1000</v>
       </c>
       <c r="AE55" t="n">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="AF55" t="n">
         <v>27</v>
       </c>
       <c r="AG55" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="AH55" t="n">
         <v>1000</v>
@@ -7912,7 +7912,7 @@
         <v>1000</v>
       </c>
       <c r="AJ55" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AK55" t="n">
         <v>55</v>
@@ -7957,31 +7957,31 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="G56" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="H56" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I56" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J56" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K56" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L56" t="n">
         <v>1.5</v>
       </c>
       <c r="M56" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N56" t="n">
-        <v>2.76</v>
+        <v>2.9</v>
       </c>
       <c r="O56" t="n">
         <v>1.44</v>
@@ -7990,43 +7990,43 @@
         <v>1.62</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="R56" t="n">
         <v>1.23</v>
       </c>
       <c r="S56" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="T56" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="U56" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="V56" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W56" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="X56" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="Y56" t="n">
         <v>980</v>
       </c>
       <c r="Z56" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AA56" t="n">
         <v>1000</v>
       </c>
       <c r="AB56" t="n">
-        <v>7.6</v>
+        <v>13</v>
       </c>
       <c r="AC56" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AD56" t="n">
         <v>980</v>
@@ -8047,13 +8047,13 @@
         <v>1000</v>
       </c>
       <c r="AJ56" t="n">
-        <v>180</v>
+        <v>980</v>
       </c>
       <c r="AK56" t="n">
         <v>980</v>
       </c>
       <c r="AL56" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM56" t="n">
         <v>1000</v>
@@ -8092,112 +8092,112 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="G57" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="H57" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="I57" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="J57" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K57" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="L57" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="M57" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N57" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O57" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="P57" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="R57" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S57" t="n">
         <v>3.75</v>
       </c>
       <c r="T57" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U57" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V57" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="W57" t="n">
         <v>1.14</v>
       </c>
       <c r="X57" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="Y57" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Z57" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD57" t="n">
         <v>10.5</v>
       </c>
-      <c r="AA57" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AB57" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC57" t="n">
+      <c r="AE57" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>300</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>160</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>210</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>240</v>
+      </c>
+      <c r="AO57" t="n">
         <v>11</v>
-      </c>
-      <c r="AD57" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG57" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH57" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI57" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ57" t="n">
-        <v>280</v>
-      </c>
-      <c r="AK57" t="n">
-        <v>150</v>
-      </c>
-      <c r="AL57" t="n">
-        <v>140</v>
-      </c>
-      <c r="AM57" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN57" t="n">
-        <v>220</v>
-      </c>
-      <c r="AO57" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="58">
@@ -8227,19 +8227,19 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="G58" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="H58" t="n">
         <v>3.35</v>
       </c>
       <c r="I58" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J58" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="K58" t="n">
         <v>2.96</v>
@@ -8251,70 +8251,70 @@
         <v>1.16</v>
       </c>
       <c r="N58" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="O58" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="P58" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q58" t="n">
         <v>2.96</v>
       </c>
       <c r="R58" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="S58" t="n">
         <v>6.2</v>
       </c>
       <c r="T58" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="U58" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="V58" t="n">
         <v>1.38</v>
       </c>
       <c r="W58" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X58" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="Y58" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z58" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AA58" t="n">
-        <v>100</v>
+        <v>980</v>
       </c>
       <c r="AB58" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AC58" t="n">
         <v>7.2</v>
       </c>
       <c r="AD58" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE58" t="n">
-        <v>730</v>
+        <v>570</v>
       </c>
       <c r="AF58" t="n">
         <v>15.5</v>
       </c>
       <c r="AG58" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH58" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AI58" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ58" t="n">
         <v>980</v>
@@ -8368,7 +8368,7 @@
         <v>1.97</v>
       </c>
       <c r="H59" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="I59" t="n">
         <v>6.2</v>
@@ -8383,31 +8383,31 @@
         <v>1.01</v>
       </c>
       <c r="M59" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="N59" t="n">
         <v>2.16</v>
       </c>
       <c r="O59" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="P59" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="Q59" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="R59" t="n">
         <v>1.12</v>
       </c>
       <c r="S59" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="T59" t="n">
         <v>2.8</v>
       </c>
       <c r="U59" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="V59" t="n">
         <v>1.19</v>
@@ -8419,19 +8419,19 @@
         <v>6.2</v>
       </c>
       <c r="Y59" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z59" t="n">
         <v>46</v>
       </c>
       <c r="AA59" t="n">
-        <v>270</v>
+        <v>980</v>
       </c>
       <c r="AB59" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AC59" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD59" t="n">
         <v>32</v>
@@ -8440,7 +8440,7 @@
         <v>190</v>
       </c>
       <c r="AF59" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AG59" t="n">
         <v>13.5</v>
@@ -8452,7 +8452,7 @@
         <v>310</v>
       </c>
       <c r="AJ59" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK59" t="n">
         <v>38</v>
@@ -8461,13 +8461,13 @@
         <v>1000</v>
       </c>
       <c r="AM59" t="n">
-        <v>510</v>
+        <v>600</v>
       </c>
       <c r="AN59" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AO59" t="n">
-        <v>460</v>
+        <v>980</v>
       </c>
     </row>
     <row r="60">
@@ -8497,112 +8497,112 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="G60" t="n">
         <v>2.08</v>
       </c>
       <c r="H60" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I60" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J60" t="n">
         <v>4.1</v>
       </c>
       <c r="K60" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L60" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="M60" t="n">
         <v>1.02</v>
       </c>
       <c r="N60" t="n">
-        <v>5.6</v>
+        <v>2.42</v>
       </c>
       <c r="O60" t="n">
         <v>1.18</v>
       </c>
       <c r="P60" t="n">
-        <v>2.56</v>
+        <v>2.38</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="R60" t="n">
-        <v>1.63</v>
+        <v>1.54</v>
       </c>
       <c r="S60" t="n">
-        <v>2.3</v>
+        <v>2.14</v>
       </c>
       <c r="T60" t="n">
-        <v>1.55</v>
+        <v>1.04</v>
       </c>
       <c r="U60" t="n">
-        <v>2.3</v>
+        <v>1.04</v>
       </c>
       <c r="V60" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W60" t="n">
         <v>1.92</v>
       </c>
       <c r="X60" t="n">
-        <v>90</v>
+        <v>980</v>
       </c>
       <c r="Y60" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z60" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA60" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB60" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AC60" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD60" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE60" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF60" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AG60" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AH60" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI60" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ60" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK60" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AL60" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM60" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN60" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AO60" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="61">
@@ -8632,22 +8632,22 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="G61" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="H61" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I61" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J61" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K61" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L61" t="n">
         <v>1.33</v>
@@ -8659,52 +8659,52 @@
         <v>4.7</v>
       </c>
       <c r="O61" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P61" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="R61" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="S61" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="T61" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="U61" t="n">
         <v>2.32</v>
       </c>
       <c r="V61" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W61" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="X61" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y61" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Z61" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AA61" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AB61" t="n">
         <v>12</v>
       </c>
       <c r="AC61" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD61" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE61" t="n">
         <v>46</v>
@@ -8716,13 +8716,13 @@
         <v>10</v>
       </c>
       <c r="AH61" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI61" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ61" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK61" t="n">
         <v>18.5</v>
@@ -8734,10 +8734,10 @@
         <v>75</v>
       </c>
       <c r="AN61" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AO61" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62">
@@ -8753,7 +8753,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -8770,31 +8770,31 @@
         <v>2.26</v>
       </c>
       <c r="G62" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="H62" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I62" t="n">
         <v>3.75</v>
       </c>
       <c r="J62" t="n">
-        <v>2.94</v>
+        <v>3.2</v>
       </c>
       <c r="K62" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L62" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="M62" t="n">
         <v>1.08</v>
       </c>
       <c r="N62" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="O62" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P62" t="n">
         <v>1.79</v>
@@ -8806,7 +8806,7 @@
         <v>1.3</v>
       </c>
       <c r="S62" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="T62" t="n">
         <v>1.78</v>
@@ -8836,7 +8836,7 @@
         <v>1000</v>
       </c>
       <c r="AC62" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD62" t="n">
         <v>1000</v>
@@ -8902,25 +8902,25 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G63" t="n">
         <v>13.5</v>
       </c>
       <c r="H63" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="I63" t="n">
         <v>1.33</v>
       </c>
       <c r="J63" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K63" t="n">
         <v>5.9</v>
       </c>
-      <c r="K63" t="n">
-        <v>6.2</v>
-      </c>
       <c r="L63" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M63" t="n">
         <v>1.05</v>
@@ -8941,16 +8941,16 @@
         <v>1.41</v>
       </c>
       <c r="S63" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T63" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="U63" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="V63" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="W63" t="n">
         <v>1.08</v>
@@ -8959,13 +8959,13 @@
         <v>17.5</v>
       </c>
       <c r="Y63" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Z63" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AA63" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AB63" t="n">
         <v>36</v>
@@ -8983,7 +8983,7 @@
         <v>130</v>
       </c>
       <c r="AG63" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AH63" t="n">
         <v>40</v>
@@ -8995,16 +8995,16 @@
         <v>740</v>
       </c>
       <c r="AK63" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="AL63" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="AM63" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="AN63" t="n">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="AO63" t="n">
         <v>5.9</v>
@@ -9037,58 +9037,58 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G64" t="n">
         <v>2.68</v>
       </c>
       <c r="H64" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="I64" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="J64" t="n">
         <v>2.72</v>
       </c>
       <c r="K64" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="L64" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="M64" t="n">
         <v>1.09</v>
       </c>
       <c r="N64" t="n">
-        <v>2.56</v>
+        <v>2.74</v>
       </c>
       <c r="O64" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P64" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R64" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S64" t="n">
         <v>3.45</v>
       </c>
       <c r="T64" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U64" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="V64" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W64" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="X64" t="n">
         <v>1000</v>
@@ -9106,7 +9106,7 @@
         <v>1000</v>
       </c>
       <c r="AC64" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD64" t="n">
         <v>1000</v>
@@ -9172,112 +9172,112 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="G65" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="H65" t="n">
         <v>6.6</v>
       </c>
       <c r="I65" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J65" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K65" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L65" t="n">
         <v>1.01</v>
       </c>
       <c r="M65" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="N65" t="n">
-        <v>2.08</v>
+        <v>2.36</v>
       </c>
       <c r="O65" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S65" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="T65" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="U65" t="n">
         <v>1.54</v>
       </c>
-      <c r="P65" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>3</v>
-      </c>
-      <c r="R65" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="S65" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="T65" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="U65" t="n">
-        <v>1.53</v>
-      </c>
       <c r="V65" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W65" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="X65" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="Y65" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z65" t="n">
-        <v>65</v>
+        <v>220</v>
       </c>
       <c r="AA65" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
       <c r="AB65" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AC65" t="n">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="AD65" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AE65" t="n">
         <v>1000</v>
       </c>
       <c r="AF65" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="AG65" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH65" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AI65" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AJ65" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AK65" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="AL65" t="n">
         <v>1000</v>
       </c>
       <c r="AM65" t="n">
-        <v>1000</v>
+        <v>480</v>
       </c>
       <c r="AN65" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AO65" t="n">
-        <v>1000</v>
+        <v>540</v>
       </c>
     </row>
     <row r="66">
@@ -9310,16 +9310,16 @@
         <v>1.32</v>
       </c>
       <c r="G66" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="H66" t="n">
-        <v>1.09</v>
+        <v>6.4</v>
       </c>
       <c r="I66" t="n">
         <v>1000</v>
       </c>
       <c r="J66" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="K66" t="n">
         <v>6.2</v>
@@ -9331,22 +9331,22 @@
         <v>1.01</v>
       </c>
       <c r="N66" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="O66" t="n">
         <v>1.01</v>
       </c>
       <c r="P66" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="R66" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="S66" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="T66" t="n">
         <v>1.04</v>
@@ -9358,7 +9358,7 @@
         <v>1.05</v>
       </c>
       <c r="W66" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="X66" t="n">
         <v>1000</v>
@@ -9442,46 +9442,46 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
       <c r="G67" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="H67" t="n">
-        <v>2.98</v>
+        <v>3.8</v>
       </c>
       <c r="I67" t="n">
         <v>4.6</v>
       </c>
       <c r="J67" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="K67" t="n">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="L67" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M67" t="n">
         <v>1.01</v>
       </c>
       <c r="N67" t="n">
-        <v>1.1</v>
+        <v>1.97</v>
       </c>
       <c r="O67" t="n">
         <v>1.01</v>
       </c>
       <c r="P67" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.36</v>
+        <v>2.24</v>
       </c>
       <c r="R67" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="S67" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="T67" t="n">
         <v>1.04</v>
@@ -9493,7 +9493,7 @@
         <v>1.27</v>
       </c>
       <c r="W67" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="X67" t="n">
         <v>1000</v>
@@ -9583,7 +9583,7 @@
         <v>3.6</v>
       </c>
       <c r="H68" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I68" t="n">
         <v>2.3</v>
@@ -9592,34 +9592,34 @@
         <v>3.55</v>
       </c>
       <c r="K68" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L68" t="n">
         <v>1.43</v>
       </c>
       <c r="M68" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N68" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O68" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P68" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="Q68" t="n">
         <v>2.08</v>
       </c>
       <c r="R68" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S68" t="n">
         <v>3.8</v>
       </c>
       <c r="T68" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U68" t="n">
         <v>2.08</v>
@@ -9637,13 +9637,13 @@
         <v>9.4</v>
       </c>
       <c r="Z68" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA68" t="n">
         <v>30</v>
       </c>
       <c r="AB68" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC68" t="n">
         <v>7.6</v>
@@ -9658,7 +9658,7 @@
         <v>24</v>
       </c>
       <c r="AG68" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH68" t="n">
         <v>18.5</v>
@@ -9673,7 +9673,7 @@
         <v>44</v>
       </c>
       <c r="AL68" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM68" t="n">
         <v>110</v>
@@ -9712,22 +9712,22 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="G69" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="H69" t="n">
         <v>5.3</v>
       </c>
       <c r="I69" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="J69" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K69" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L69" t="n">
         <v>1.56</v>
@@ -9736,7 +9736,7 @@
         <v>1.12</v>
       </c>
       <c r="N69" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="O69" t="n">
         <v>1.55</v>
@@ -9751,58 +9751,58 @@
         <v>1.19</v>
       </c>
       <c r="S69" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="T69" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="U69" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="V69" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W69" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="X69" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y69" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z69" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AA69" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AB69" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AC69" t="n">
         <v>8</v>
       </c>
       <c r="AD69" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE69" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AF69" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AG69" t="n">
         <v>11.5</v>
       </c>
       <c r="AH69" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI69" t="n">
         <v>150</v>
       </c>
       <c r="AJ69" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK69" t="n">
         <v>27</v>
@@ -9811,13 +9811,13 @@
         <v>65</v>
       </c>
       <c r="AM69" t="n">
-        <v>240</v>
+        <v>980</v>
       </c>
       <c r="AN69" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AO69" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70">
@@ -9847,46 +9847,46 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="G70" t="n">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="H70" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="I70" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="J70" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="K70" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="L70" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="M70" t="n">
         <v>1.05</v>
       </c>
       <c r="N70" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O70" t="n">
         <v>1.29</v>
       </c>
       <c r="P70" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="R70" t="n">
         <v>1.36</v>
       </c>
       <c r="S70" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="T70" t="n">
         <v>1.63</v>
@@ -9895,10 +9895,10 @@
         <v>1.93</v>
       </c>
       <c r="V70" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W70" t="n">
-        <v>1.89</v>
+        <v>1.81</v>
       </c>
       <c r="X70" t="n">
         <v>980</v>
@@ -9913,10 +9913,10 @@
         <v>1000</v>
       </c>
       <c r="AB70" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AC70" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AD70" t="n">
         <v>1000</v>
@@ -9928,7 +9928,7 @@
         <v>980</v>
       </c>
       <c r="AG70" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AH70" t="n">
         <v>980</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-15.xlsx
@@ -667,49 +667,49 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G2" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I2" t="n">
         <v>3.55</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K2" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L2" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="Q2" t="n">
         <v>1.74</v>
       </c>
       <c r="R2" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S2" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="T2" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U2" t="n">
         <v>2.36</v>
@@ -718,31 +718,31 @@
         <v>1.39</v>
       </c>
       <c r="W2" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="X2" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y2" t="n">
         <v>17</v>
       </c>
       <c r="Z2" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AA2" t="n">
         <v>130</v>
       </c>
       <c r="AB2" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="AF2" t="n">
         <v>16.5</v>
@@ -754,25 +754,25 @@
         <v>16</v>
       </c>
       <c r="AI2" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM2" t="n">
         <v>110</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1000</v>
       </c>
       <c r="AN2" t="n">
         <v>13.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -802,88 +802,88 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.86</v>
+        <v>3.1</v>
       </c>
       <c r="G3" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H3" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="I3" t="n">
-        <v>2.7</v>
+        <v>2.54</v>
       </c>
       <c r="J3" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K3" t="n">
         <v>3.85</v>
       </c>
       <c r="L3" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="R3" t="n">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="S3" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U3" t="n">
         <v>2.48</v>
       </c>
-      <c r="T3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.58</v>
-      </c>
       <c r="V3" t="n">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="W3" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="X3" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AA3" t="n">
         <v>110</v>
       </c>
       <c r="AB3" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="AF3" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH3" t="n">
         <v>14</v>
@@ -892,22 +892,22 @@
         <v>85</v>
       </c>
       <c r="AJ3" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="AK3" t="n">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="AL3" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN3" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AO3" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -937,46 +937,46 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="G4" t="n">
-        <v>2.96</v>
+        <v>2.7</v>
       </c>
       <c r="H4" t="n">
-        <v>2.54</v>
+        <v>2.3</v>
       </c>
       <c r="I4" t="n">
-        <v>870</v>
+        <v>1000</v>
       </c>
       <c r="J4" t="n">
         <v>2.9</v>
       </c>
       <c r="K4" t="n">
-        <v>5.8</v>
+        <v>3.65</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N4" t="n">
         <v>1.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.08</v>
+        <v>1.49</v>
       </c>
       <c r="P4" t="n">
-        <v>1.11</v>
+        <v>1.35</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="R4" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="S4" t="n">
-        <v>1.48</v>
+        <v>4.8</v>
       </c>
       <c r="T4" t="n">
         <v>1.04</v>
@@ -985,7 +985,7 @@
         <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="W4" t="n">
         <v>1.58</v>
@@ -997,7 +997,7 @@
         <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
@@ -1009,10 +1009,10 @@
         <v>42</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AF4" t="n">
         <v>1000</v>
@@ -1027,13 +1027,13 @@
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AK4" t="n">
         <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
@@ -1072,64 +1072,64 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.28</v>
+        <v>1.75</v>
       </c>
       <c r="G5" t="n">
-        <v>2.52</v>
+        <v>1.95</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>5.1</v>
       </c>
       <c r="I5" t="n">
-        <v>4.1</v>
+        <v>6.6</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="L5" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="O5" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="P5" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.26</v>
+        <v>2.12</v>
       </c>
       <c r="R5" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S5" t="n">
         <v>4.1</v>
       </c>
       <c r="T5" t="n">
-        <v>1.88</v>
+        <v>1.97</v>
       </c>
       <c r="U5" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="V5" t="n">
-        <v>1.33</v>
+        <v>1.19</v>
       </c>
       <c r="W5" t="n">
-        <v>1.66</v>
+        <v>2.04</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1138,34 +1138,34 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AC5" t="n">
-        <v>42</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="AK5" t="n">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="AL5" t="n">
         <v>1000</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,94 +1207,94 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="G6" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="H6" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="I6" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="J6" t="n">
         <v>2.8</v>
       </c>
-      <c r="J6" t="n">
-        <v>2.82</v>
-      </c>
       <c r="K6" t="n">
-        <v>3.8</v>
+        <v>3.35</v>
       </c>
       <c r="L6" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M6" t="n">
         <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>2.52</v>
+        <v>2.72</v>
       </c>
       <c r="O6" t="n">
         <v>1.44</v>
       </c>
       <c r="P6" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R6" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S6" t="n">
         <v>3.85</v>
       </c>
       <c r="T6" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="U6" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="V6" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="W6" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="X6" t="n">
-        <v>17</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC6" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE6" t="n">
         <v>95</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AJ6" t="n">
         <v>1000</v>
@@ -1303,7 +1303,7 @@
         <v>130</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
@@ -1345,58 +1345,58 @@
         <v>2.08</v>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H7" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="K7" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L7" t="n">
         <v>1.54</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="O7" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P7" t="n">
         <v>1.59</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="R7" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S7" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="T7" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U7" t="n">
         <v>1.82</v>
       </c>
       <c r="V7" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W7" t="n">
         <v>1.76</v>
       </c>
       <c r="X7" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y7" t="n">
         <v>12.5</v>
@@ -1411,7 +1411,7 @@
         <v>7.8</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD7" t="n">
         <v>19</v>
@@ -1477,61 +1477,61 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="G8" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="H8" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="J8" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="K8" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P8" t="n">
         <v>1.94</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="R8" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="S8" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="T8" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="U8" t="n">
         <v>1.74</v>
       </c>
       <c r="V8" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W8" t="n">
-        <v>2.96</v>
+        <v>2.84</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y8" t="n">
         <v>65</v>
@@ -1543,10 +1543,10 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>29</v>
+        <v>14.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>42</v>
+        <v>16.5</v>
       </c>
       <c r="AD8" t="n">
         <v>110</v>
@@ -1555,22 +1555,22 @@
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>40</v>
+        <v>15.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>180</v>
+        <v>34</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL8" t="n">
         <v>160</v>
@@ -1579,7 +1579,7 @@
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>29</v>
+        <v>9.4</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="G9" t="n">
         <v>5.4</v>
@@ -1621,46 +1621,46 @@
         <v>1.81</v>
       </c>
       <c r="I9" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="J9" t="n">
         <v>3.4</v>
       </c>
       <c r="K9" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L9" t="n">
         <v>1.45</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
         <v>3.35</v>
       </c>
       <c r="O9" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="P9" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Q9" t="n">
         <v>2.08</v>
       </c>
       <c r="R9" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S9" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="T9" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U9" t="n">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="V9" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W9" t="n">
         <v>1.22</v>
@@ -1681,10 +1681,10 @@
         <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.6</v>
+        <v>14</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="H10" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="I10" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K10" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L10" t="n">
         <v>1.49</v>
@@ -1771,19 +1771,19 @@
         <v>1.09</v>
       </c>
       <c r="N10" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="P10" t="n">
         <v>1.69</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="R10" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S10" t="n">
         <v>4.2</v>
@@ -1795,7 +1795,7 @@
         <v>1.91</v>
       </c>
       <c r="V10" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="W10" t="n">
         <v>1.28</v>
@@ -1804,25 +1804,25 @@
         <v>11.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z10" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA10" t="n">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="AB10" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD10" t="n">
         <v>11.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AF10" t="n">
         <v>80</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G11" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="H11" t="n">
         <v>2.82</v>
       </c>
       <c r="I11" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J11" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K11" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L11" t="n">
         <v>1.42</v>
@@ -1906,52 +1906,52 @@
         <v>1.07</v>
       </c>
       <c r="N11" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S11" t="n">
         <v>3.5</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3.4</v>
-      </c>
       <c r="T11" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U11" t="n">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="V11" t="n">
         <v>1.46</v>
       </c>
       <c r="W11" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="X11" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y11" t="n">
         <v>12.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="AA11" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AB11" t="n">
         <v>11.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD11" t="n">
         <v>14</v>
@@ -1960,7 +1960,7 @@
         <v>85</v>
       </c>
       <c r="AF11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG11" t="n">
         <v>13</v>
@@ -1981,13 +1981,13 @@
         <v>44</v>
       </c>
       <c r="AM11" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN11" t="n">
         <v>26</v>
       </c>
       <c r="AO11" t="n">
-        <v>980</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12">
@@ -2017,28 +2017,28 @@
         </is>
       </c>
       <c r="F12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G12" t="n">
         <v>1.47</v>
       </c>
-      <c r="G12" t="n">
-        <v>1.54</v>
-      </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>9.6</v>
       </c>
       <c r="I12" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="J12" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="K12" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L12" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
         <v>3.75</v>
@@ -2047,40 +2047,40 @@
         <v>1.31</v>
       </c>
       <c r="P12" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="Q12" t="n">
         <v>1.94</v>
       </c>
       <c r="R12" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="S12" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T12" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="U12" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="V12" t="n">
         <v>1.11</v>
       </c>
       <c r="W12" t="n">
-        <v>2.84</v>
+        <v>3.1</v>
       </c>
       <c r="X12" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z12" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AB12" t="n">
         <v>7.6</v>
@@ -2089,40 +2089,40 @@
         <v>10.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AE12" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AG12" t="n">
         <v>10</v>
       </c>
       <c r="AH12" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AI12" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="AJ12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK12" t="n">
         <v>16.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="AM12" t="n">
-        <v>210</v>
+        <v>470</v>
       </c>
       <c r="AN12" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13">
@@ -2152,19 +2152,19 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="G13" t="n">
         <v>2.68</v>
       </c>
       <c r="H13" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="I13" t="n">
         <v>3.2</v>
       </c>
       <c r="J13" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K13" t="n">
         <v>3.75</v>
@@ -2182,16 +2182,16 @@
         <v>1.32</v>
       </c>
       <c r="P13" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R13" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S13" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="T13" t="n">
         <v>1.74</v>
@@ -2200,16 +2200,16 @@
         <v>2.1</v>
       </c>
       <c r="V13" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W13" t="n">
         <v>1.6</v>
       </c>
       <c r="X13" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="Z13" t="n">
         <v>21</v>
@@ -2221,7 +2221,7 @@
         <v>980</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD13" t="n">
         <v>13.5</v>
@@ -2236,10 +2236,10 @@
         <v>12.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AI13" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ13" t="n">
         <v>40</v>
@@ -2254,10 +2254,10 @@
         <v>430</v>
       </c>
       <c r="AN13" t="n">
-        <v>600</v>
+        <v>24</v>
       </c>
       <c r="AO13" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="G14" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I14" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J14" t="n">
         <v>3.75</v>
@@ -2311,37 +2311,37 @@
         <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="O14" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P14" t="n">
-        <v>2.66</v>
+        <v>2.42</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R14" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S14" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="T14" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="U14" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="V14" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="W14" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="X14" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="Y14" t="n">
         <v>21</v>
@@ -2350,10 +2350,10 @@
         <v>32</v>
       </c>
       <c r="AA14" t="n">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="AB14" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC14" t="n">
         <v>10.5</v>
@@ -2362,16 +2362,16 @@
         <v>17</v>
       </c>
       <c r="AE14" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AF14" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG14" t="n">
         <v>11.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI14" t="n">
         <v>110</v>
@@ -2383,16 +2383,16 @@
         <v>21</v>
       </c>
       <c r="AL14" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="AM14" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN14" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15">
@@ -2422,112 +2422,112 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="G15" t="n">
-        <v>1.56</v>
+        <v>1.44</v>
       </c>
       <c r="H15" t="n">
-        <v>7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>7.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="K15" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="L15" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O15" t="n">
         <v>1.24</v>
       </c>
       <c r="P15" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R15" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="S15" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="T15" t="n">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="U15" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="V15" t="n">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="W15" t="n">
-        <v>2.74</v>
+        <v>3.25</v>
       </c>
       <c r="X15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y15" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Z15" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="AA15" t="n">
-        <v>980</v>
+        <v>320</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AE15" t="n">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AG15" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH15" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AI15" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="AJ15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK15" t="n">
         <v>14.5</v>
       </c>
-      <c r="AK15" t="n">
-        <v>15</v>
-      </c>
       <c r="AL15" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AM15" t="n">
-        <v>980</v>
+        <v>140</v>
       </c>
       <c r="AN15" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="AO15" t="n">
-        <v>110</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16">
@@ -2557,112 +2557,112 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="G16" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="H16" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="J16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K16" t="n">
         <v>3.6</v>
       </c>
-      <c r="K16" t="n">
-        <v>3.7</v>
-      </c>
       <c r="L16" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O16" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P16" t="n">
         <v>2.06</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R16" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V16" t="n">
         <v>1.41</v>
       </c>
-      <c r="S16" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T16" t="n">
+      <c r="W16" t="n">
         <v>1.72</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.84</v>
       </c>
       <c r="X16" t="n">
         <v>15.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AA16" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AB16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG16" t="n">
         <v>11</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>10.5</v>
       </c>
       <c r="AH16" t="n">
         <v>16.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AJ16" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AK16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL16" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM16" t="n">
         <v>85</v>
       </c>
       <c r="AN16" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AO16" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -2785,7 +2785,7 @@
         <v>120</v>
       </c>
       <c r="AK17" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="AL17" t="n">
         <v>120</v>
@@ -2794,7 +2794,7 @@
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
         <v>27</v>
@@ -2833,16 +2833,16 @@
         <v>4.3</v>
       </c>
       <c r="H18" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="I18" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="J18" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K18" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L18" t="n">
         <v>1.34</v>
@@ -2860,7 +2860,7 @@
         <v>2.16</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R18" t="n">
         <v>1.46</v>
@@ -2875,19 +2875,19 @@
         <v>2.22</v>
       </c>
       <c r="V18" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="W18" t="n">
         <v>1.32</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AA18" t="n">
         <v>80</v>
@@ -2899,19 +2899,19 @@
         <v>14</v>
       </c>
       <c r="AD18" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AF18" t="n">
         <v>85</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AH18" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="G19" t="n">
-        <v>1.96</v>
+        <v>1.84</v>
       </c>
       <c r="H19" t="n">
         <v>4.2</v>
       </c>
       <c r="I19" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="J19" t="n">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="K19" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L19" t="n">
         <v>1.38</v>
@@ -2992,7 +2992,7 @@
         <v>1.28</v>
       </c>
       <c r="P19" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="Q19" t="n">
         <v>1.83</v>
@@ -3013,10 +3013,10 @@
         <v>1.25</v>
       </c>
       <c r="W19" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="X19" t="n">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="Y19" t="n">
         <v>980</v>
@@ -3034,7 +3034,7 @@
         <v>14</v>
       </c>
       <c r="AD19" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AE19" t="n">
         <v>220</v>
@@ -3043,7 +3043,7 @@
         <v>28</v>
       </c>
       <c r="AG19" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AH19" t="n">
         <v>34</v>
@@ -3052,7 +3052,7 @@
         <v>260</v>
       </c>
       <c r="AJ19" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AK19" t="n">
         <v>70</v>
@@ -3100,19 +3100,19 @@
         <v>2.24</v>
       </c>
       <c r="G20" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I20" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J20" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K20" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L20" t="n">
         <v>1.33</v>
@@ -3121,31 +3121,31 @@
         <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="O20" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P20" t="n">
-        <v>2.22</v>
+        <v>2.36</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.69</v>
+        <v>1.63</v>
       </c>
       <c r="R20" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="S20" t="n">
-        <v>2.72</v>
+        <v>2.56</v>
       </c>
       <c r="T20" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="U20" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="V20" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="W20" t="n">
         <v>1.65</v>
@@ -3160,16 +3160,16 @@
         <v>70</v>
       </c>
       <c r="AA20" t="n">
-        <v>150</v>
+        <v>290</v>
       </c>
       <c r="AB20" t="n">
         <v>27</v>
       </c>
       <c r="AC20" t="n">
-        <v>14.5</v>
+        <v>9.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AE20" t="n">
         <v>110</v>
@@ -3181,10 +3181,10 @@
         <v>23</v>
       </c>
       <c r="AH20" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AI20" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AJ20" t="n">
         <v>80</v>
@@ -3193,7 +3193,7 @@
         <v>980</v>
       </c>
       <c r="AL20" t="n">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="AM20" t="n">
         <v>580</v>
@@ -3238,7 +3238,7 @@
         <v>1.58</v>
       </c>
       <c r="H21" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="I21" t="n">
         <v>8.199999999999999</v>
@@ -3247,7 +3247,7 @@
         <v>4</v>
       </c>
       <c r="K21" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L21" t="n">
         <v>1.44</v>
@@ -3265,10 +3265,10 @@
         <v>1.81</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R21" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S21" t="n">
         <v>3.85</v>
@@ -3289,7 +3289,7 @@
         <v>13.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="Z21" t="n">
         <v>170</v>
@@ -3304,7 +3304,7 @@
         <v>9.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AE21" t="n">
         <v>170</v>
@@ -3313,19 +3313,19 @@
         <v>8.4</v>
       </c>
       <c r="AG21" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="AI21" t="n">
         <v>160</v>
       </c>
       <c r="AJ21" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AK21" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL21" t="n">
         <v>120</v>
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="G22" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="H22" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="I22" t="n">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="J22" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="K22" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L22" t="n">
         <v>1.39</v>
@@ -3391,88 +3391,88 @@
         <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P22" t="n">
         <v>2</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="R22" t="n">
         <v>1.38</v>
       </c>
       <c r="S22" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T22" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U22" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V22" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="W22" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="X22" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z22" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA22" t="n">
         <v>21</v>
       </c>
       <c r="AB22" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD22" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF22" t="n">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="AG22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH22" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ22" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="AK22" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="AL22" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="AM22" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="AN22" t="n">
-        <v>600</v>
+        <v>70</v>
       </c>
       <c r="AO22" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="G23" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="H23" t="n">
         <v>4.5</v>
@@ -3514,52 +3514,52 @@
         <v>5</v>
       </c>
       <c r="J23" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K23" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L23" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="O23" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="P23" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="R23" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="S23" t="n">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="T23" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="U23" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="V23" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W23" t="n">
         <v>2.2</v>
       </c>
       <c r="X23" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="Y23" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="Z23" t="n">
         <v>110</v>
@@ -3568,34 +3568,34 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>14.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD23" t="n">
         <v>42</v>
       </c>
       <c r="AE23" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="AF23" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AG23" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="AH23" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AI23" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="AJ23" t="n">
         <v>50</v>
       </c>
       <c r="AK23" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AL23" t="n">
         <v>85</v>
@@ -3604,7 +3604,7 @@
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.79</v>
+        <v>1.74</v>
       </c>
       <c r="G24" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="H24" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="I24" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="J24" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K24" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L24" t="n">
         <v>1.43</v>
@@ -3667,34 +3667,34 @@
         <v>1.34</v>
       </c>
       <c r="P24" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R24" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S24" t="n">
         <v>3.65</v>
       </c>
       <c r="T24" t="n">
-        <v>1.86</v>
+        <v>1.76</v>
       </c>
       <c r="U24" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="V24" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W24" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="X24" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y24" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="Z24" t="n">
         <v>100</v>
@@ -3703,34 +3703,34 @@
         <v>150</v>
       </c>
       <c r="AB24" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>14</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD24" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AE24" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="AF24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG24" t="n">
         <v>10</v>
       </c>
       <c r="AH24" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AI24" t="n">
         <v>230</v>
       </c>
       <c r="AJ24" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AK24" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AL24" t="n">
         <v>130</v>
@@ -3739,7 +3739,7 @@
         <v>580</v>
       </c>
       <c r="AN24" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AO24" t="n">
         <v>600</v>
@@ -3775,13 +3775,13 @@
         <v>1.94</v>
       </c>
       <c r="G25" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I25" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J25" t="n">
         <v>3.6</v>
@@ -3796,16 +3796,16 @@
         <v>1.07</v>
       </c>
       <c r="N25" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O25" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P25" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R25" t="n">
         <v>1.33</v>
@@ -3814,37 +3814,37 @@
         <v>3.65</v>
       </c>
       <c r="T25" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="U25" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="V25" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W25" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X25" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y25" t="n">
         <v>30</v>
       </c>
       <c r="Z25" t="n">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="AA25" t="n">
         <v>330</v>
       </c>
       <c r="AB25" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AE25" t="n">
         <v>160</v>
@@ -3853,19 +3853,19 @@
         <v>24</v>
       </c>
       <c r="AG25" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AH25" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI25" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="AJ25" t="n">
         <v>65</v>
       </c>
       <c r="AK25" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="AL25" t="n">
         <v>100</v>
@@ -3907,85 +3907,85 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="G26" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="H26" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="I26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J26" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="K26" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L26" t="n">
         <v>1.3</v>
       </c>
       <c r="M26" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N26" t="n">
         <v>5.4</v>
       </c>
       <c r="O26" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P26" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R26" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="S26" t="n">
         <v>2.52</v>
       </c>
       <c r="T26" t="n">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="U26" t="n">
-        <v>1.69</v>
+        <v>1.63</v>
       </c>
       <c r="V26" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="W26" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="X26" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC26" t="n">
         <v>980</v>
       </c>
-      <c r="Y26" t="n">
-        <v>210</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>20</v>
-      </c>
       <c r="AD26" t="n">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="AE26" t="n">
         <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="AG26" t="n">
         <v>980</v>
@@ -3997,7 +3997,7 @@
         <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AK26" t="n">
         <v>980</v>
@@ -4009,7 +4009,7 @@
         <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>6.4</v>
+        <v>4.1</v>
       </c>
       <c r="AO26" t="n">
         <v>1000</v>
@@ -4045,16 +4045,16 @@
         <v>4.4</v>
       </c>
       <c r="G27" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="H27" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="I27" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="J27" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K27" t="n">
         <v>4.4</v>
@@ -4069,19 +4069,19 @@
         <v>3.75</v>
       </c>
       <c r="O27" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P27" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="R27" t="n">
         <v>1.39</v>
       </c>
       <c r="S27" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T27" t="n">
         <v>1.81</v>
@@ -4090,10 +4090,10 @@
         <v>2</v>
       </c>
       <c r="V27" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="W27" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="X27" t="n">
         <v>16.5</v>
@@ -4108,7 +4108,7 @@
         <v>20</v>
       </c>
       <c r="AB27" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC27" t="n">
         <v>9.4</v>
@@ -4120,7 +4120,7 @@
         <v>21</v>
       </c>
       <c r="AF27" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="AG27" t="n">
         <v>34</v>
@@ -4144,7 +4144,7 @@
         <v>580</v>
       </c>
       <c r="AN27" t="n">
-        <v>600</v>
+        <v>110</v>
       </c>
       <c r="AO27" t="n">
         <v>12</v>
@@ -4189,7 +4189,7 @@
         <v>4.6</v>
       </c>
       <c r="J28" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K28" t="n">
         <v>3.75</v>
@@ -4201,16 +4201,16 @@
         <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O28" t="n">
         <v>1.36</v>
       </c>
       <c r="P28" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R28" t="n">
         <v>1.32</v>
@@ -4219,13 +4219,13 @@
         <v>3.7</v>
       </c>
       <c r="T28" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="U28" t="n">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="V28" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W28" t="n">
         <v>1.89</v>
@@ -4246,7 +4246,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC28" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AD28" t="n">
         <v>1000</v>
@@ -4318,22 +4318,22 @@
         <v>2.22</v>
       </c>
       <c r="H29" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I29" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J29" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K29" t="n">
         <v>4</v>
-      </c>
-      <c r="K29" t="n">
-        <v>4.1</v>
       </c>
       <c r="L29" t="n">
         <v>1.31</v>
       </c>
       <c r="M29" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N29" t="n">
         <v>4.9</v>
@@ -4342,34 +4342,34 @@
         <v>1.21</v>
       </c>
       <c r="P29" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R29" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="S29" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="T29" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="U29" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="V29" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="W29" t="n">
         <v>1.81</v>
       </c>
       <c r="X29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y29" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Z29" t="n">
         <v>38</v>
@@ -4378,7 +4378,7 @@
         <v>70</v>
       </c>
       <c r="AB29" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC29" t="n">
         <v>9.199999999999999</v>
@@ -4390,10 +4390,10 @@
         <v>34</v>
       </c>
       <c r="AF29" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AG29" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH29" t="n">
         <v>15</v>
@@ -4402,13 +4402,13 @@
         <v>38</v>
       </c>
       <c r="AJ29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL29" t="n">
         <v>30</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>32</v>
       </c>
       <c r="AM29" t="n">
         <v>75</v>
@@ -4417,7 +4417,7 @@
         <v>12.5</v>
       </c>
       <c r="AO29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30">
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="G30" t="n">
         <v>1.42</v>
@@ -4459,64 +4459,64 @@
         <v>9.199999999999999</v>
       </c>
       <c r="J30" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="K30" t="n">
         <v>6.6</v>
       </c>
       <c r="L30" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M30" t="n">
         <v>1.02</v>
       </c>
       <c r="N30" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="O30" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P30" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="R30" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="S30" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="T30" t="n">
-        <v>1.72</v>
+        <v>1.58</v>
       </c>
       <c r="U30" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="V30" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W30" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="X30" t="n">
-        <v>95</v>
+        <v>980</v>
       </c>
       <c r="Y30" t="n">
         <v>980</v>
       </c>
       <c r="Z30" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AA30" t="n">
         <v>270</v>
       </c>
       <c r="AB30" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AC30" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AD30" t="n">
         <v>980</v>
@@ -4525,10 +4525,10 @@
         <v>110</v>
       </c>
       <c r="AF30" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="AG30" t="n">
-        <v>18</v>
+        <v>960</v>
       </c>
       <c r="AH30" t="n">
         <v>980</v>
@@ -4537,10 +4537,10 @@
         <v>400</v>
       </c>
       <c r="AJ30" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AK30" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AL30" t="n">
         <v>980</v>
@@ -4549,10 +4549,10 @@
         <v>330</v>
       </c>
       <c r="AN30" t="n">
-        <v>5.9</v>
+        <v>4.1</v>
       </c>
       <c r="AO30" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31">
@@ -4585,7 +4585,7 @@
         <v>3</v>
       </c>
       <c r="G31" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H31" t="n">
         <v>2.28</v>
@@ -4594,10 +4594,10 @@
         <v>2.4</v>
       </c>
       <c r="J31" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K31" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L31" t="n">
         <v>1.35</v>
@@ -4609,28 +4609,28 @@
         <v>4.4</v>
       </c>
       <c r="O31" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P31" t="n">
         <v>2.18</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R31" t="n">
         <v>1.47</v>
       </c>
       <c r="S31" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="T31" t="n">
         <v>1.63</v>
       </c>
       <c r="U31" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V31" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="W31" t="n">
         <v>1.44</v>
@@ -4717,70 +4717,70 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.76</v>
+        <v>2.68</v>
       </c>
       <c r="G32" t="n">
-        <v>2.98</v>
+        <v>2.88</v>
       </c>
       <c r="H32" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="I32" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="J32" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K32" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="L32" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M32" t="n">
         <v>1.06</v>
       </c>
       <c r="N32" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O32" t="n">
         <v>1.28</v>
       </c>
       <c r="P32" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="R32" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="S32" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="T32" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="U32" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="V32" t="n">
         <v>1.55</v>
       </c>
       <c r="W32" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="X32" t="n">
         <v>17.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Z32" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AA32" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AB32" t="n">
         <v>13.5</v>
@@ -4798,19 +4798,19 @@
         <v>21</v>
       </c>
       <c r="AG32" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH32" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI32" t="n">
-        <v>980</v>
+        <v>150</v>
       </c>
       <c r="AJ32" t="n">
         <v>980</v>
       </c>
       <c r="AK32" t="n">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="AL32" t="n">
         <v>980</v>
@@ -4819,7 +4819,7 @@
         <v>330</v>
       </c>
       <c r="AN32" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO32" t="n">
         <v>21</v>
@@ -4852,112 +4852,112 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.26</v>
+        <v>2.48</v>
       </c>
       <c r="G33" t="n">
-        <v>2.44</v>
+        <v>2.62</v>
       </c>
       <c r="H33" t="n">
-        <v>3.15</v>
+        <v>2.96</v>
       </c>
       <c r="I33" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="J33" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K33" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="L33" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M33" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N33" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="O33" t="n">
         <v>1.29</v>
       </c>
       <c r="P33" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="Q33" t="n">
         <v>1.9</v>
       </c>
       <c r="R33" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="S33" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T33" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U33" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V33" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="W33" t="n">
-        <v>1.69</v>
+        <v>1.61</v>
       </c>
       <c r="X33" t="n">
         <v>90</v>
       </c>
       <c r="Y33" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z33" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA33" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC33" t="n">
         <v>12.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE33" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG33" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AI33" t="n">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="AJ33" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AK33" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL33" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM33" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO33" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34">
@@ -4987,22 +4987,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="G34" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="H34" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="I34" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="J34" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K34" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -5017,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.74</v>
+        <v>1.66</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -5122,22 +5122,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="G35" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="H35" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="I35" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="J35" t="n">
         <v>7.6</v>
       </c>
       <c r="K35" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L35" t="n">
         <v>1.16</v>
@@ -5149,31 +5149,31 @@
         <v>11</v>
       </c>
       <c r="O35" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="P35" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="R35" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="S35" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="T35" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="U35" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V35" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="W35" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="X35" t="n">
         <v>1000</v>
@@ -5263,13 +5263,13 @@
         <v>5.9</v>
       </c>
       <c r="H36" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="I36" t="n">
         <v>1.74</v>
       </c>
       <c r="J36" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K36" t="n">
         <v>4.5</v>
@@ -5299,10 +5299,10 @@
         <v>3.2</v>
       </c>
       <c r="T36" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="U36" t="n">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="V36" t="n">
         <v>2.34</v>
@@ -5332,13 +5332,13 @@
         <v>10.5</v>
       </c>
       <c r="AE36" t="n">
-        <v>18.5</v>
+        <v>25</v>
       </c>
       <c r="AF36" t="n">
         <v>220</v>
       </c>
       <c r="AG36" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AH36" t="n">
         <v>22</v>
@@ -5404,10 +5404,10 @@
         <v>3.35</v>
       </c>
       <c r="J37" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K37" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L37" t="n">
         <v>1.4</v>
@@ -5422,7 +5422,7 @@
         <v>1.3</v>
       </c>
       <c r="P37" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="Q37" t="n">
         <v>1.92</v>
@@ -5431,25 +5431,25 @@
         <v>1.37</v>
       </c>
       <c r="S37" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T37" t="n">
-        <v>1.62</v>
+        <v>1.79</v>
       </c>
       <c r="U37" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="V37" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W37" t="n">
         <v>1.65</v>
       </c>
       <c r="X37" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y37" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Z37" t="n">
         <v>1000</v>
@@ -5458,10 +5458,10 @@
         <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AC37" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AD37" t="n">
         <v>1000</v>
@@ -5473,7 +5473,7 @@
         <v>1000</v>
       </c>
       <c r="AG37" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH37" t="n">
         <v>1000</v>
@@ -5527,22 +5527,22 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="G38" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="H38" t="n">
         <v>8</v>
       </c>
       <c r="I38" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="J38" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K38" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -5557,10 +5557,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -5662,10 +5662,10 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="G39" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="H39" t="n">
         <v>8.800000000000001</v>
@@ -5674,10 +5674,10 @@
         <v>10.5</v>
       </c>
       <c r="J39" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="K39" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="L39" t="n">
         <v>1.25</v>
@@ -5692,34 +5692,34 @@
         <v>1.15</v>
       </c>
       <c r="P39" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="R39" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="S39" t="n">
         <v>2.16</v>
       </c>
       <c r="T39" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U39" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V39" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W39" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="X39" t="n">
         <v>34</v>
       </c>
       <c r="Y39" t="n">
-        <v>980</v>
+        <v>240</v>
       </c>
       <c r="Z39" t="n">
         <v>110</v>
@@ -5734,13 +5734,13 @@
         <v>15.5</v>
       </c>
       <c r="AD39" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AE39" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AF39" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG39" t="n">
         <v>10.5</v>
@@ -5749,7 +5749,7 @@
         <v>25</v>
       </c>
       <c r="AI39" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AJ39" t="n">
         <v>12</v>
@@ -5767,7 +5767,7 @@
         <v>4.3</v>
       </c>
       <c r="AO39" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40">
@@ -5797,22 +5797,22 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="G40" t="n">
         <v>2.78</v>
       </c>
       <c r="H40" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="I40" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="J40" t="n">
-        <v>2.88</v>
+        <v>2.64</v>
       </c>
       <c r="K40" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="L40" t="n">
         <v>1.54</v>
@@ -5821,7 +5821,7 @@
         <v>1.11</v>
       </c>
       <c r="N40" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="O40" t="n">
         <v>1.47</v>
@@ -5830,22 +5830,22 @@
         <v>1.59</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="R40" t="n">
         <v>1.21</v>
       </c>
       <c r="S40" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="T40" t="n">
         <v>1.98</v>
       </c>
       <c r="U40" t="n">
-        <v>1.72</v>
+        <v>1.86</v>
       </c>
       <c r="V40" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W40" t="n">
         <v>1.56</v>
@@ -5854,22 +5854,22 @@
         <v>17</v>
       </c>
       <c r="Y40" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="Z40" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AA40" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB40" t="n">
         <v>17.5</v>
       </c>
       <c r="AC40" t="n">
-        <v>42</v>
+        <v>13.5</v>
       </c>
       <c r="AD40" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AE40" t="n">
         <v>120</v>
@@ -5935,34 +5935,34 @@
         <v>2.26</v>
       </c>
       <c r="G41" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="H41" t="n">
         <v>3.3</v>
       </c>
       <c r="I41" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="J41" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K41" t="n">
         <v>3.5</v>
       </c>
       <c r="L41" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="M41" t="n">
         <v>1.1</v>
       </c>
       <c r="N41" t="n">
-        <v>2.96</v>
+        <v>2.84</v>
       </c>
       <c r="O41" t="n">
         <v>1.43</v>
       </c>
       <c r="P41" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="Q41" t="n">
         <v>2.26</v>
@@ -5974,10 +5974,10 @@
         <v>4.4</v>
       </c>
       <c r="T41" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U41" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="V41" t="n">
         <v>1.35</v>
@@ -5992,7 +5992,7 @@
         <v>11.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AA41" t="n">
         <v>190</v>
@@ -6034,10 +6034,10 @@
         <v>580</v>
       </c>
       <c r="AN41" t="n">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="AO41" t="n">
-        <v>600</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42">
@@ -6067,10 +6067,10 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="G42" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="H42" t="n">
         <v>3.2</v>
@@ -6079,10 +6079,10 @@
         <v>3.65</v>
       </c>
       <c r="J42" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="K42" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L42" t="n">
         <v>1.61</v>
@@ -6094,13 +6094,13 @@
         <v>2.66</v>
       </c>
       <c r="O42" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="P42" t="n">
         <v>1.47</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.86</v>
+        <v>2.78</v>
       </c>
       <c r="R42" t="n">
         <v>1.18</v>
@@ -6109,22 +6109,22 @@
         <v>6</v>
       </c>
       <c r="T42" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="U42" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="V42" t="n">
         <v>1.37</v>
       </c>
       <c r="W42" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="X42" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y42" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Z42" t="n">
         <v>21</v>
@@ -6139,7 +6139,7 @@
         <v>7.2</v>
       </c>
       <c r="AD42" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE42" t="n">
         <v>160</v>
@@ -6148,7 +6148,7 @@
         <v>17</v>
       </c>
       <c r="AG42" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH42" t="n">
         <v>65</v>
@@ -6160,7 +6160,7 @@
         <v>120</v>
       </c>
       <c r="AK42" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="AL42" t="n">
         <v>200</v>
@@ -6169,7 +6169,7 @@
         <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AO42" t="n">
         <v>1000</v>
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="G43" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="H43" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="I43" t="n">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="J43" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K43" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="L43" t="n">
         <v>1.47</v>
       </c>
       <c r="M43" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N43" t="n">
         <v>3.1</v>
@@ -6232,10 +6232,10 @@
         <v>1.4</v>
       </c>
       <c r="P43" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="R43" t="n">
         <v>1.26</v>
@@ -6244,70 +6244,70 @@
         <v>4.1</v>
       </c>
       <c r="T43" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="U43" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="V43" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="W43" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="X43" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="Z43" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA43" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB43" t="n">
         <v>18.5</v>
       </c>
-      <c r="AB43" t="n">
-        <v>18</v>
-      </c>
       <c r="AC43" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD43" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE43" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF43" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>28</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK43" t="n">
         <v>130</v>
       </c>
-      <c r="AG43" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>290</v>
-      </c>
       <c r="AL43" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AM43" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN43" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AO43" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="44">
@@ -6337,76 +6337,76 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="G44" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="H44" t="n">
-        <v>5.1</v>
+        <v>3.65</v>
       </c>
       <c r="I44" t="n">
-        <v>7.2</v>
+        <v>980</v>
       </c>
       <c r="J44" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="K44" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L44" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M44" t="n">
         <v>1.09</v>
       </c>
       <c r="N44" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="O44" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P44" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="R44" t="n">
         <v>1.24</v>
       </c>
       <c r="S44" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T44" t="n">
-        <v>2.1</v>
+        <v>1.04</v>
       </c>
       <c r="U44" t="n">
-        <v>1.74</v>
+        <v>1.04</v>
       </c>
       <c r="V44" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="W44" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="X44" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="Y44" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="Z44" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AA44" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AB44" t="n">
-        <v>7</v>
+        <v>980</v>
       </c>
       <c r="AC44" t="n">
-        <v>8.800000000000001</v>
+        <v>42</v>
       </c>
       <c r="AD44" t="n">
         <v>65</v>
@@ -6415,22 +6415,22 @@
         <v>500</v>
       </c>
       <c r="AF44" t="n">
-        <v>9.6</v>
+        <v>980</v>
       </c>
       <c r="AG44" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AH44" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI44" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AJ44" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AK44" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AL44" t="n">
         <v>130</v>
@@ -6439,10 +6439,10 @@
         <v>580</v>
       </c>
       <c r="AN44" t="n">
-        <v>15.5</v>
+        <v>85</v>
       </c>
       <c r="AO44" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="45">
@@ -6475,7 +6475,7 @@
         <v>2.06</v>
       </c>
       <c r="G45" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H45" t="n">
         <v>3.5</v>
@@ -6502,7 +6502,7 @@
         <v>1.31</v>
       </c>
       <c r="P45" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Q45" t="n">
         <v>1.93</v>
@@ -6514,7 +6514,7 @@
         <v>3.3</v>
       </c>
       <c r="T45" t="n">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="U45" t="n">
         <v>2.1</v>
@@ -6523,10 +6523,10 @@
         <v>1.32</v>
       </c>
       <c r="W45" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="X45" t="n">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="Y45" t="n">
         <v>980</v>
@@ -6607,19 +6607,19 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="G46" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="H46" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="I46" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="J46" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="K46" t="n">
         <v>4.7</v>
@@ -6637,43 +6637,43 @@
         <v>1.2</v>
       </c>
       <c r="P46" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R46" t="n">
         <v>1.6</v>
       </c>
       <c r="S46" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="T46" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="U46" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="V46" t="n">
         <v>2.44</v>
       </c>
       <c r="W46" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="X46" t="n">
         <v>55</v>
       </c>
       <c r="Y46" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Z46" t="n">
-        <v>24</v>
+        <v>12.5</v>
       </c>
       <c r="AA46" t="n">
-        <v>50</v>
+        <v>17.5</v>
       </c>
       <c r="AB46" t="n">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="AC46" t="n">
         <v>11</v>
@@ -6682,16 +6682,16 @@
         <v>11</v>
       </c>
       <c r="AE46" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AF46" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AG46" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AH46" t="n">
-        <v>29</v>
+        <v>18.5</v>
       </c>
       <c r="AI46" t="n">
         <v>65</v>
@@ -6742,25 +6742,25 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="G47" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="H47" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="I47" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="J47" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="K47" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L47" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M47" t="n">
         <v>1.09</v>
@@ -6769,13 +6769,13 @@
         <v>3.05</v>
       </c>
       <c r="O47" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P47" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R47" t="n">
         <v>1.26</v>
@@ -6784,19 +6784,19 @@
         <v>4.1</v>
       </c>
       <c r="T47" t="n">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="U47" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V47" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W47" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="X47" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y47" t="n">
         <v>1000</v>
@@ -6808,10 +6808,10 @@
         <v>1000</v>
       </c>
       <c r="AB47" t="n">
-        <v>13.5</v>
+        <v>19.5</v>
       </c>
       <c r="AC47" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AD47" t="n">
         <v>75</v>
@@ -6832,7 +6832,7 @@
         <v>1000</v>
       </c>
       <c r="AJ47" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK47" t="n">
         <v>1000</v>
@@ -6877,22 +6877,22 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.74</v>
+        <v>2.96</v>
       </c>
       <c r="G48" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="H48" t="n">
-        <v>2.78</v>
+        <v>2.56</v>
       </c>
       <c r="I48" t="n">
-        <v>3.15</v>
+        <v>2.9</v>
       </c>
       <c r="J48" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="K48" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="L48" t="n">
         <v>1.48</v>
@@ -6910,25 +6910,25 @@
         <v>1.7</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R48" t="n">
         <v>1.27</v>
       </c>
       <c r="S48" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="T48" t="n">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="U48" t="n">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="V48" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="W48" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="X48" t="n">
         <v>22</v>
@@ -6940,10 +6940,10 @@
         <v>1000</v>
       </c>
       <c r="AA48" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB48" t="n">
-        <v>14.5</v>
+        <v>24</v>
       </c>
       <c r="AC48" t="n">
         <v>14</v>
@@ -6967,7 +6967,7 @@
         <v>160</v>
       </c>
       <c r="AJ48" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AK48" t="n">
         <v>95</v>
@@ -7015,19 +7015,19 @@
         <v>3.4</v>
       </c>
       <c r="G49" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H49" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="I49" t="n">
         <v>2.28</v>
       </c>
-      <c r="I49" t="n">
-        <v>2.32</v>
-      </c>
       <c r="J49" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K49" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L49" t="n">
         <v>1.44</v>
@@ -7036,52 +7036,52 @@
         <v>1.07</v>
       </c>
       <c r="N49" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="O49" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="P49" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="R49" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S49" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="T49" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="U49" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V49" t="n">
         <v>1.76</v>
       </c>
       <c r="W49" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X49" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="Y49" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z49" t="n">
         <v>14</v>
       </c>
       <c r="AA49" t="n">
-        <v>900</v>
+        <v>32</v>
       </c>
       <c r="AB49" t="n">
         <v>13</v>
       </c>
       <c r="AC49" t="n">
-        <v>14</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD49" t="n">
         <v>11</v>
@@ -7093,19 +7093,19 @@
         <v>23</v>
       </c>
       <c r="AG49" t="n">
-        <v>14.5</v>
+        <v>29</v>
       </c>
       <c r="AH49" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI49" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AJ49" t="n">
         <v>65</v>
       </c>
       <c r="AK49" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AL49" t="n">
         <v>60</v>
@@ -7114,10 +7114,10 @@
         <v>1000</v>
       </c>
       <c r="AN49" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AO49" t="n">
-        <v>40</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="50">
@@ -7153,10 +7153,10 @@
         <v>4.3</v>
       </c>
       <c r="H50" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="I50" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="J50" t="n">
         <v>2.98</v>
@@ -7177,10 +7177,10 @@
         <v>1.48</v>
       </c>
       <c r="P50" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="R50" t="n">
         <v>1.21</v>
@@ -7192,19 +7192,19 @@
         <v>2</v>
       </c>
       <c r="U50" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="V50" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="W50" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="X50" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="Y50" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z50" t="n">
         <v>16</v>
@@ -7213,7 +7213,7 @@
         <v>85</v>
       </c>
       <c r="AB50" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC50" t="n">
         <v>8.800000000000001</v>
@@ -7252,7 +7252,7 @@
         <v>1000</v>
       </c>
       <c r="AO50" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51">
@@ -7282,61 +7282,61 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="G51" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="H51" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I51" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K51" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N51" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T51" t="n">
         <v>2.16</v>
       </c>
-      <c r="H51" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="I51" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J51" t="n">
-        <v>3</v>
-      </c>
-      <c r="K51" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L51" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="M51" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N51" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="O51" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="P51" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="R51" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S51" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="T51" t="n">
-        <v>2.08</v>
-      </c>
       <c r="U51" t="n">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="V51" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W51" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="X51" t="n">
-        <v>17</v>
+        <v>8.4</v>
       </c>
       <c r="Y51" t="n">
         <v>980</v>
@@ -7345,7 +7345,7 @@
         <v>80</v>
       </c>
       <c r="AA51" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB51" t="n">
         <v>13.5</v>
@@ -7354,19 +7354,19 @@
         <v>13.5</v>
       </c>
       <c r="AD51" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE51" t="n">
         <v>250</v>
       </c>
       <c r="AF51" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AG51" t="n">
         <v>40</v>
       </c>
       <c r="AH51" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI51" t="n">
         <v>290</v>
@@ -7381,13 +7381,13 @@
         <v>190</v>
       </c>
       <c r="AM51" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN51" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO51" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="52">
@@ -7417,112 +7417,112 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.64</v>
+        <v>1.55</v>
       </c>
       <c r="G52" t="n">
-        <v>1.68</v>
+        <v>1.58</v>
       </c>
       <c r="H52" t="n">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
       <c r="I52" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="J52" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="K52" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="L52" t="n">
         <v>1.54</v>
       </c>
       <c r="M52" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N52" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="O52" t="n">
         <v>1.45</v>
       </c>
       <c r="P52" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R52" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S52" t="n">
         <v>4.5</v>
       </c>
       <c r="T52" t="n">
-        <v>2.06</v>
+        <v>2.42</v>
       </c>
       <c r="U52" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="V52" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W52" t="n">
-        <v>2.46</v>
+        <v>2.72</v>
       </c>
       <c r="X52" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Y52" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="Z52" t="n">
         <v>1000</v>
       </c>
       <c r="AA52" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AB52" t="n">
-        <v>12</v>
+        <v>6.2</v>
       </c>
       <c r="AC52" t="n">
         <v>9.4</v>
       </c>
       <c r="AD52" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AE52" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AF52" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>44</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>220</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK52" t="n">
         <v>21</v>
       </c>
-      <c r="AG52" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>85</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ52" t="n">
-        <v>180</v>
-      </c>
-      <c r="AK52" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL52" t="n">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="AM52" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="AN52" t="n">
-        <v>55</v>
+        <v>12.5</v>
       </c>
       <c r="AO52" t="n">
-        <v>1000</v>
+        <v>440</v>
       </c>
     </row>
     <row r="53">
@@ -7552,112 +7552,112 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="G53" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="H53" t="n">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="I53" t="n">
-        <v>1.68</v>
+        <v>1.58</v>
       </c>
       <c r="J53" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="K53" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="L53" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M53" t="n">
         <v>1.07</v>
       </c>
       <c r="N53" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O53" t="n">
         <v>1.35</v>
       </c>
       <c r="P53" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R53" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S53" t="n">
         <v>3.8</v>
       </c>
       <c r="T53" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="U53" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="V53" t="n">
-        <v>2.46</v>
+        <v>2.72</v>
       </c>
       <c r="W53" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="X53" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Y53" t="n">
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
       <c r="Z53" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA53" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="AB53" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AC53" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AD53" t="n">
         <v>10.5</v>
       </c>
       <c r="AE53" t="n">
-        <v>46</v>
+        <v>17.5</v>
       </c>
       <c r="AF53" t="n">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="AG53" t="n">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="AH53" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="AI53" t="n">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="AJ53" t="n">
         <v>260</v>
       </c>
       <c r="AK53" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AL53" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="AM53" t="n">
-        <v>580</v>
+        <v>220</v>
       </c>
       <c r="AN53" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AO53" t="n">
-        <v>29</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="54">
@@ -7687,100 +7687,100 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="G54" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="H54" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="I54" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="J54" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K54" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L54" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M54" t="n">
         <v>1.07</v>
       </c>
       <c r="N54" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="O54" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="P54" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="R54" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="S54" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="T54" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="U54" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="V54" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="W54" t="n">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="X54" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="Y54" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z54" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="AA54" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AB54" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="AC54" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AD54" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE54" t="n">
         <v>240</v>
       </c>
       <c r="AF54" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG54" t="n">
         <v>10.5</v>
       </c>
       <c r="AH54" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI54" t="n">
         <v>240</v>
       </c>
       <c r="AJ54" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AK54" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL54" t="n">
         <v>110</v>
@@ -7789,7 +7789,7 @@
         <v>580</v>
       </c>
       <c r="AN54" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO54" t="n">
         <v>1000</v>
@@ -7822,112 +7822,112 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="G55" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="H55" t="n">
+        <v>6</v>
+      </c>
+      <c r="I55" t="n">
         <v>6.4</v>
       </c>
-      <c r="I55" t="n">
-        <v>7.4</v>
-      </c>
       <c r="J55" t="n">
-        <v>2.82</v>
+        <v>2.94</v>
       </c>
       <c r="K55" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="L55" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="M55" t="n">
         <v>1.2</v>
       </c>
       <c r="N55" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="O55" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="P55" t="n">
         <v>1.35</v>
       </c>
       <c r="Q55" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="R55" t="n">
         <v>1.11</v>
       </c>
       <c r="S55" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="T55" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="U55" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="V55" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="W55" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="X55" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="Y55" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z55" t="n">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="AA55" t="n">
-        <v>980</v>
+        <v>260</v>
       </c>
       <c r="AB55" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="AC55" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD55" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AE55" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="AF55" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AG55" t="n">
         <v>13.5</v>
       </c>
       <c r="AH55" t="n">
+        <v>46</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>260</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK55" t="n">
         <v>50</v>
       </c>
-      <c r="AI55" t="n">
-        <v>300</v>
-      </c>
-      <c r="AJ55" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK55" t="n">
-        <v>38</v>
-      </c>
       <c r="AL55" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="AM55" t="n">
-        <v>590</v>
+        <v>610</v>
       </c>
       <c r="AN55" t="n">
         <v>36</v>
       </c>
       <c r="AO55" t="n">
-        <v>650</v>
+        <v>980</v>
       </c>
     </row>
     <row r="56">
@@ -7957,22 +7957,22 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="G56" t="n">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="H56" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I56" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="J56" t="n">
         <v>2.82</v>
       </c>
       <c r="K56" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="L56" t="n">
         <v>1.68</v>
@@ -7981,61 +7981,61 @@
         <v>1.16</v>
       </c>
       <c r="N56" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="O56" t="n">
         <v>1.67</v>
       </c>
       <c r="P56" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="Q56" t="n">
         <v>3.05</v>
       </c>
       <c r="R56" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="S56" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="T56" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="U56" t="n">
         <v>1.69</v>
       </c>
       <c r="V56" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="W56" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="X56" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="Y56" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="Z56" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AA56" t="n">
-        <v>980</v>
+        <v>200</v>
       </c>
       <c r="AB56" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AC56" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD56" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE56" t="n">
         <v>160</v>
       </c>
       <c r="AF56" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG56" t="n">
         <v>14.5</v>
@@ -8047,22 +8047,22 @@
         <v>290</v>
       </c>
       <c r="AJ56" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="AK56" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AL56" t="n">
         <v>250</v>
       </c>
       <c r="AM56" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AN56" t="n">
-        <v>55</v>
+        <v>600</v>
       </c>
       <c r="AO56" t="n">
-        <v>110</v>
+        <v>600</v>
       </c>
     </row>
     <row r="57">
@@ -8092,19 +8092,19 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="G57" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H57" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I57" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="J57" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K57" t="n">
         <v>4.6</v>
@@ -8116,22 +8116,22 @@
         <v>1.03</v>
       </c>
       <c r="N57" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="O57" t="n">
         <v>1.18</v>
       </c>
       <c r="P57" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="R57" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="S57" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="T57" t="n">
         <v>1.53</v>
@@ -8140,10 +8140,10 @@
         <v>2.5</v>
       </c>
       <c r="V57" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W57" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="X57" t="n">
         <v>65</v>
@@ -8194,10 +8194,10 @@
         <v>1000</v>
       </c>
       <c r="AN57" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AO57" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="58">
@@ -8233,13 +8233,13 @@
         <v>1.98</v>
       </c>
       <c r="H58" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I58" t="n">
         <v>4.2</v>
       </c>
       <c r="J58" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K58" t="n">
         <v>4.1</v>
@@ -8248,31 +8248,31 @@
         <v>1.35</v>
       </c>
       <c r="M58" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N58" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O58" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P58" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R58" t="n">
         <v>1.5</v>
       </c>
       <c r="S58" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="T58" t="n">
         <v>1.68</v>
       </c>
       <c r="U58" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="V58" t="n">
         <v>1.31</v>
@@ -8284,7 +8284,7 @@
         <v>18</v>
       </c>
       <c r="Y58" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Z58" t="n">
         <v>80</v>
@@ -8311,7 +8311,7 @@
         <v>10</v>
       </c>
       <c r="AH58" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI58" t="n">
         <v>120</v>
@@ -8326,13 +8326,13 @@
         <v>30</v>
       </c>
       <c r="AM58" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AN58" t="n">
         <v>11</v>
       </c>
       <c r="AO58" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59">
@@ -8371,7 +8371,7 @@
         <v>3</v>
       </c>
       <c r="I59" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J59" t="n">
         <v>3.2</v>
@@ -8389,10 +8389,10 @@
         <v>3.35</v>
       </c>
       <c r="O59" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P59" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Q59" t="n">
         <v>2.04</v>
@@ -8407,10 +8407,10 @@
         <v>1.78</v>
       </c>
       <c r="U59" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V59" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W59" t="n">
         <v>1.63</v>
@@ -8425,7 +8425,7 @@
         <v>1000</v>
       </c>
       <c r="AA59" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB59" t="n">
         <v>1000</v>
@@ -8497,25 +8497,25 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>12.5</v>
+        <v>8.6</v>
       </c>
       <c r="G60" t="n">
-        <v>13.5</v>
+        <v>9</v>
       </c>
       <c r="H60" t="n">
-        <v>1.34</v>
+        <v>1.45</v>
       </c>
       <c r="I60" t="n">
-        <v>1.35</v>
+        <v>1.47</v>
       </c>
       <c r="J60" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="K60" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="L60" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M60" t="n">
         <v>1.06</v>
@@ -8524,85 +8524,85 @@
         <v>4</v>
       </c>
       <c r="O60" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P60" t="n">
         <v>2.06</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="R60" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S60" t="n">
         <v>3.35</v>
       </c>
       <c r="T60" t="n">
-        <v>2.42</v>
+        <v>2.16</v>
       </c>
       <c r="U60" t="n">
-        <v>1.65</v>
+        <v>1.79</v>
       </c>
       <c r="V60" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="W60" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="X60" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y60" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="Z60" t="n">
-        <v>6.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA60" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="AB60" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AC60" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD60" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE60" t="n">
         <v>16</v>
       </c>
       <c r="AF60" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AG60" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AH60" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="AI60" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AJ60" t="n">
-        <v>730</v>
+        <v>340</v>
       </c>
       <c r="AK60" t="n">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="AL60" t="n">
-        <v>230</v>
+        <v>140</v>
       </c>
       <c r="AM60" t="n">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="AN60" t="n">
-        <v>450</v>
+        <v>210</v>
       </c>
       <c r="AO60" t="n">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="61">
@@ -8632,10 +8632,10 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="G61" t="n">
-        <v>2.68</v>
+        <v>2.56</v>
       </c>
       <c r="H61" t="n">
         <v>3.4</v>
@@ -8644,34 +8644,34 @@
         <v>4.3</v>
       </c>
       <c r="J61" t="n">
-        <v>2.72</v>
+        <v>2.88</v>
       </c>
       <c r="K61" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="L61" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M61" t="n">
         <v>1.09</v>
       </c>
       <c r="N61" t="n">
-        <v>2.5</v>
+        <v>2.72</v>
       </c>
       <c r="O61" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P61" t="n">
         <v>1.59</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R61" t="n">
         <v>1.22</v>
       </c>
       <c r="S61" t="n">
-        <v>3.45</v>
+        <v>4.4</v>
       </c>
       <c r="T61" t="n">
         <v>1.94</v>
@@ -8683,7 +8683,7 @@
         <v>1.32</v>
       </c>
       <c r="W61" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="X61" t="n">
         <v>22</v>
@@ -8692,7 +8692,7 @@
         <v>1000</v>
       </c>
       <c r="Z61" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AA61" t="n">
         <v>1000</v>
@@ -8701,13 +8701,13 @@
         <v>19.5</v>
       </c>
       <c r="AC61" t="n">
-        <v>8.800000000000001</v>
+        <v>17.5</v>
       </c>
       <c r="AD61" t="n">
         <v>1000</v>
       </c>
       <c r="AE61" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AF61" t="n">
         <v>1000</v>
@@ -8716,19 +8716,19 @@
         <v>1000</v>
       </c>
       <c r="AH61" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AI61" t="n">
         <v>1000</v>
       </c>
       <c r="AJ61" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK61" t="n">
         <v>1000</v>
       </c>
       <c r="AL61" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AM61" t="n">
         <v>1000</v>
@@ -8767,49 +8767,49 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="G62" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="H62" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="I62" t="n">
         <v>8.6</v>
       </c>
       <c r="J62" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="K62" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L62" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="M62" t="n">
         <v>1.13</v>
       </c>
       <c r="N62" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S62" t="n">
+        <v>6</v>
+      </c>
+      <c r="T62" t="n">
         <v>2.68</v>
-      </c>
-      <c r="O62" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="P62" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R62" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S62" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="T62" t="n">
-        <v>2.6</v>
       </c>
       <c r="U62" t="n">
         <v>1.55</v>
@@ -8818,22 +8818,22 @@
         <v>1.13</v>
       </c>
       <c r="W62" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="X62" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y62" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z62" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AA62" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="AB62" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AC62" t="n">
         <v>8.800000000000001</v>
@@ -8842,7 +8842,7 @@
         <v>36</v>
       </c>
       <c r="AE62" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AF62" t="n">
         <v>7.6</v>
@@ -8851,28 +8851,28 @@
         <v>11.5</v>
       </c>
       <c r="AH62" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AI62" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="AJ62" t="n">
         <v>15.5</v>
       </c>
       <c r="AK62" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL62" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM62" t="n">
-        <v>400</v>
+        <v>980</v>
       </c>
       <c r="AN62" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO62" t="n">
-        <v>480</v>
+        <v>450</v>
       </c>
     </row>
     <row r="63">
@@ -8905,52 +8905,52 @@
         <v>1.42</v>
       </c>
       <c r="G63" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="H63" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="I63" t="n">
-        <v>70</v>
+        <v>13.5</v>
       </c>
       <c r="J63" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="K63" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="L63" t="n">
         <v>1.52</v>
       </c>
       <c r="M63" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N63" t="n">
-        <v>2.74</v>
+        <v>2.86</v>
       </c>
       <c r="O63" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P63" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="R63" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S63" t="n">
         <v>4.5</v>
       </c>
       <c r="T63" t="n">
-        <v>2.08</v>
+        <v>2.46</v>
       </c>
       <c r="U63" t="n">
-        <v>1.04</v>
+        <v>1.54</v>
       </c>
       <c r="V63" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="W63" t="n">
         <v>3</v>
@@ -8968,31 +8968,31 @@
         <v>1000</v>
       </c>
       <c r="AB63" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AC63" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD63" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AE63" t="n">
         <v>1000</v>
       </c>
       <c r="AF63" t="n">
-        <v>9.800000000000001</v>
+        <v>40</v>
       </c>
       <c r="AG63" t="n">
         <v>1000</v>
       </c>
       <c r="AH63" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AI63" t="n">
         <v>1000</v>
       </c>
       <c r="AJ63" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK63" t="n">
         <v>1000</v>
@@ -9004,7 +9004,7 @@
         <v>1000</v>
       </c>
       <c r="AN63" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO63" t="n">
         <v>1000</v>
@@ -9040,7 +9040,7 @@
         <v>2.14</v>
       </c>
       <c r="G64" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H64" t="n">
         <v>3.95</v>
@@ -9061,13 +9061,13 @@
         <v>1.11</v>
       </c>
       <c r="N64" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="O64" t="n">
         <v>1.48</v>
       </c>
       <c r="P64" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q64" t="n">
         <v>2.5</v>
@@ -9094,25 +9094,25 @@
         <v>11.5</v>
       </c>
       <c r="Y64" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="Z64" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AA64" t="n">
         <v>1000</v>
       </c>
       <c r="AB64" t="n">
-        <v>8.800000000000001</v>
+        <v>14.5</v>
       </c>
       <c r="AC64" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD64" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AE64" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AF64" t="n">
         <v>15</v>
@@ -9121,19 +9121,19 @@
         <v>14</v>
       </c>
       <c r="AH64" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AI64" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AJ64" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AK64" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AL64" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AM64" t="n">
         <v>1000</v>
@@ -9175,19 +9175,19 @@
         <v>3.3</v>
       </c>
       <c r="G65" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H65" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="I65" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="J65" t="n">
         <v>3.5</v>
       </c>
       <c r="K65" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L65" t="n">
         <v>1.44</v>
@@ -9196,49 +9196,49 @@
         <v>1.08</v>
       </c>
       <c r="N65" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O65" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P65" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R65" t="n">
         <v>1.33</v>
       </c>
       <c r="S65" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="T65" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="U65" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V65" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="W65" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="X65" t="n">
         <v>13.5</v>
       </c>
       <c r="Y65" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="Z65" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA65" t="n">
         <v>32</v>
       </c>
       <c r="AB65" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC65" t="n">
         <v>7.6</v>
@@ -9247,25 +9247,25 @@
         <v>11.5</v>
       </c>
       <c r="AE65" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF65" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG65" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH65" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AI65" t="n">
         <v>42</v>
       </c>
       <c r="AJ65" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK65" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AL65" t="n">
         <v>55</v>
@@ -9274,10 +9274,10 @@
         <v>110</v>
       </c>
       <c r="AN65" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AO65" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66">
@@ -9307,112 +9307,112 @@
         </is>
       </c>
       <c r="F66" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G66" t="n">
         <v>1.95</v>
       </c>
-      <c r="G66" t="n">
-        <v>1.98</v>
-      </c>
       <c r="H66" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="I66" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="J66" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K66" t="n">
         <v>3.3</v>
       </c>
-      <c r="K66" t="n">
-        <v>3.35</v>
-      </c>
       <c r="L66" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N66" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="O66" t="n">
         <v>1.6</v>
       </c>
-      <c r="M66" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N66" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="O66" t="n">
-        <v>1.55</v>
-      </c>
       <c r="P66" t="n">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.72</v>
+        <v>2.82</v>
       </c>
       <c r="R66" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S66" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="T66" t="n">
-        <v>2.24</v>
+        <v>2.36</v>
       </c>
       <c r="U66" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="V66" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="W66" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X66" t="n">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="Y66" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z66" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AA66" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AB66" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="AC66" t="n">
         <v>7.8</v>
       </c>
       <c r="AD66" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE66" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF66" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AG66" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH66" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="AI66" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="AJ66" t="n">
         <v>25</v>
       </c>
       <c r="AK66" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AL66" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM66" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AN66" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO66" t="n">
-        <v>170</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67">
@@ -9454,10 +9454,10 @@
         <v>4.6</v>
       </c>
       <c r="J67" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="K67" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L67" t="n">
         <v>1.4</v>
@@ -9466,25 +9466,25 @@
         <v>1.06</v>
       </c>
       <c r="N67" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O67" t="n">
         <v>1.3</v>
       </c>
       <c r="P67" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R67" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S67" t="n">
         <v>3.35</v>
       </c>
       <c r="T67" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U67" t="n">
         <v>1.93</v>
